--- a/aeromaps/resources/cost_data/Hydrogen_based_process.xlsx
+++ b/aeromaps/resources/cost_data/Hydrogen_based_process.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\Desktop\Energy\Clean Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\PycharmProjects\AeroMAPS\aeromaps\resources\cost_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A499FCBF-5309-4DE4-8CB7-6A0BA4330208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74A702-3690-4776-9F67-684FBF2E7665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{B45625C8-2EFE-4B2D-B717-182BE33C0328}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{B45625C8-2EFE-4B2D-B717-182BE33C0328}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="9" r:id="rId1"/>
-    <sheet name="H2 production UK" sheetId="4" r:id="rId2"/>
-    <sheet name="Electrolysis Validation UK" sheetId="5" r:id="rId3"/>
-    <sheet name="Liquefaction" sheetId="2" r:id="rId4"/>
-    <sheet name="PtL" sheetId="6" r:id="rId5"/>
-    <sheet name="PBtL" sheetId="7" r:id="rId6"/>
-    <sheet name="Summary-Electricity" sheetId="10" r:id="rId7"/>
-    <sheet name="Summary-Hydrogen_Production" sheetId="11" r:id="rId8"/>
-    <sheet name="Summary-Hydrogen_Liquefaction" sheetId="13" r:id="rId9"/>
-    <sheet name="Summary-PtL" sheetId="12" r:id="rId10"/>
-    <sheet name="Monetary" sheetId="8" r:id="rId11"/>
-    <sheet name="Feuil1" sheetId="14" r:id="rId12"/>
-    <sheet name="References" sheetId="3" r:id="rId13"/>
+    <sheet name="DAC" sheetId="15" r:id="rId2"/>
+    <sheet name="H2 production UK" sheetId="4" r:id="rId3"/>
+    <sheet name="Electrolysis Validation UK" sheetId="5" r:id="rId4"/>
+    <sheet name="Liquefaction" sheetId="2" r:id="rId5"/>
+    <sheet name="PtL" sheetId="6" r:id="rId6"/>
+    <sheet name="PBtL" sheetId="7" r:id="rId7"/>
+    <sheet name="Summary-Electricity" sheetId="10" r:id="rId8"/>
+    <sheet name="Summary-Hydrogen_Production" sheetId="11" r:id="rId9"/>
+    <sheet name="Summary-Hydrogen_Liquefaction" sheetId="13" r:id="rId10"/>
+    <sheet name="Summary-PtL" sheetId="12" r:id="rId11"/>
+    <sheet name="Monetary" sheetId="8" r:id="rId12"/>
+    <sheet name="Feuil1" sheetId="14" r:id="rId13"/>
+    <sheet name="References" sheetId="3" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Liquefaction!$E$28:$E$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Liquefaction!$E$28:$E$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="441">
   <si>
     <t>LAX</t>
   </si>
@@ -1272,9 +1273,6 @@
     <t>Opex</t>
   </si>
   <si>
-    <t xml:space="preserve">For the statistics, only Albrecth, becker and Herz were inlcuded since they include </t>
-  </si>
-  <si>
     <t>https://www.mdpi.com/2076-3298/5/2/24</t>
   </si>
   <si>
@@ -1336,6 +1334,96 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>Reference year =2014</t>
+  </si>
+  <si>
+    <t>NB: accounting for technology progress through Q1 -Q3 sweep might be relevant</t>
+  </si>
+  <si>
+    <t>Potential and risks of hydrogen-based e-fuels in climate change mitigation | Nature Climate Change</t>
+  </si>
+  <si>
+    <t>Ueckertdt [7]</t>
+  </si>
+  <si>
+    <t>CAPEX [€/(kg/d)]</t>
+  </si>
+  <si>
+    <t>CAPEX [€/kW] -electrolysis</t>
+  </si>
+  <si>
+    <t>CAPEX [€/(kg/d)]-electrolysis</t>
+  </si>
+  <si>
+    <t>CAPEX [€/kW]-synthesis</t>
+  </si>
+  <si>
+    <t>CAPEX [€/(kg/d)]-synthesis</t>
+  </si>
+  <si>
+    <t>Ueckerdt [7] - 2020</t>
+  </si>
+  <si>
+    <t>Ueckerdt [7] - 2030</t>
+  </si>
+  <si>
+    <t>Ueckerdt [7] - 2050</t>
+  </si>
+  <si>
+    <t>DAC[€/t]*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the statistics, only relevant entries are considered ofr a plant that do not include CO2 DAC and include hydrogen production. </t>
+  </si>
+  <si>
+    <t>It erroneously include marginally Opex for DAC for instance in the case of Schmidt.</t>
+  </si>
+  <si>
+    <t>All ref from https://www.sciencedirect.com/science/article/pii/S0360319921043184</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2590332223003007#sec3</t>
+  </si>
+  <si>
+    <t>[1] (multiple)</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S2542435124000606?via%3Dihub</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/reports/direct-air-capture-2022/executive-summary</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1748-9326/aabf9f/meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 values for first plants, 2050 values for more expereience. </t>
+  </si>
+  <si>
+    <t>2030/2050 values capped at 2030 value</t>
+  </si>
+  <si>
+    <t>Central estimate of cheapest technology</t>
+  </si>
+  <si>
+    <t>First value =0.9 on climeworks reference, 2050 based on littérature estimate</t>
+  </si>
+  <si>
+    <t>[5]LO</t>
+  </si>
+  <si>
+    <t>[5]HI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 values for first plants, 2050 values for more expereience. </t>
+  </si>
+  <si>
+    <t>All values converted using 2020 eur/usd exchnage rate</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2461,41 +2549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="5" tint="-0.249977111117893"/>
       </left>
       <right style="hair">
         <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
       </right>
       <top style="hair">
         <color indexed="64"/>
@@ -2529,67 +2587,6 @@
       </right>
       <top style="hair">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
       </top>
       <bottom style="medium">
         <color theme="5" tint="-0.249977111117893"/>
@@ -2833,6 +2830,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2908,7 +2955,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="519">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3720,19 +3767,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3740,22 +3783,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="74" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="67" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="76" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="69" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="77" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="78" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="71" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="26" xfId="10" applyFill="1" applyBorder="1"/>
@@ -3795,7 +3838,7 @@
     <xf numFmtId="1" fontId="16" fillId="10" borderId="49" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="10" borderId="79" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="10" borderId="72" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="36" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3839,13 +3882,13 @@
     <xf numFmtId="1" fontId="16" fillId="12" borderId="42" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="73" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="66" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="12" borderId="74" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="12" borderId="67" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="12" borderId="75" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="12" borderId="68" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3863,34 +3906,34 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="13" borderId="80" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="13" borderId="81" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="13" borderId="73" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="13" borderId="74" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="82" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="83" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="82" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="77" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="13" borderId="85" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="13" borderId="78" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3954,14 +3997,14 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4009,19 +4052,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4042,19 +4085,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4117,24 +4163,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4153,13 +4181,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4171,7 +4199,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Comma" xfId="8" xr:uid="{B1BAFA18-809C-4884-A413-D551260DC175}"/>
@@ -9252,16 +9291,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1453515</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115251</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624413</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>626745</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1402279</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9288,16 +9327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609568</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81164</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>143483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>503076</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>985531</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>45390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9320,8 +9359,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11153743" y="13611225"/>
-          <a:ext cx="11085383" cy="5867400"/>
+          <a:off x="12142597" y="13510590"/>
+          <a:ext cx="11082204" cy="5948676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>804154</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>7829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B43DBE4-3F05-0DF9-50F9-A47313FF5A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7490460" y="12722942"/>
+          <a:ext cx="6557254" cy="2326768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9653,26 +9736,26 @@
       <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="28.8">
-      <c r="A4" s="330" t="s">
+    <row r="4" spans="1:14" ht="30">
+      <c r="A4" s="326" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="H5" s="20"/>
@@ -9686,7 +9769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>254</v>
       </c>
@@ -9703,25 +9786,25 @@
         <v>252</v>
       </c>
       <c r="H6" s="280"/>
-      <c r="I6" s="482" t="s">
+      <c r="I6" s="481" t="s">
         <v>272</v>
       </c>
-      <c r="J6" s="483"/>
-      <c r="K6" s="338">
+      <c r="J6" s="482"/>
+      <c r="K6" s="334">
         <v>2020</v>
       </c>
-      <c r="L6" s="339">
+      <c r="L6" s="335">
         <v>2030</v>
       </c>
-      <c r="M6" s="339">
+      <c r="M6" s="335">
         <v>2040</v>
       </c>
-      <c r="N6" s="340">
+      <c r="N6" s="336">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="480" t="s">
+      <c r="A7" s="479" t="s">
         <v>244</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -9736,27 +9819,27 @@
       <c r="E7" s="21">
         <v>14</v>
       </c>
-      <c r="I7" s="350" t="s">
+      <c r="I7" s="346" t="s">
         <v>256</v>
       </c>
-      <c r="J7" s="343" t="s">
+      <c r="J7" s="339" t="s">
         <v>257</v>
       </c>
-      <c r="K7" s="344">
+      <c r="K7" s="340">
         <v>61</v>
       </c>
-      <c r="L7" s="344">
+      <c r="L7" s="340">
         <v>31</v>
       </c>
-      <c r="M7" s="344">
+      <c r="M7" s="340">
         <v>27</v>
       </c>
-      <c r="N7" s="345">
+      <c r="N7" s="341">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="480"/>
+      <c r="A8" s="479"/>
       <c r="B8" s="20" t="s">
         <v>247</v>
       </c>
@@ -9769,25 +9852,25 @@
       <c r="E8" s="21">
         <v>13</v>
       </c>
-      <c r="I8" s="351"/>
-      <c r="J8" s="341" t="s">
+      <c r="I8" s="347"/>
+      <c r="J8" s="337" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="342">
+      <c r="K8" s="338">
         <v>61</v>
       </c>
-      <c r="L8" s="342">
+      <c r="L8" s="338">
         <v>57</v>
       </c>
-      <c r="M8" s="342">
+      <c r="M8" s="338">
         <v>57</v>
       </c>
-      <c r="N8" s="346">
+      <c r="N8" s="342">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="480"/>
+      <c r="A9" s="479"/>
       <c r="B9" s="20" t="s">
         <v>248</v>
       </c>
@@ -9800,25 +9883,25 @@
       <c r="E9" s="21">
         <v>7</v>
       </c>
-      <c r="I9" s="351"/>
-      <c r="J9" s="341" t="s">
+      <c r="I9" s="347"/>
+      <c r="J9" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="K9" s="342">
+      <c r="K9" s="338">
         <v>50</v>
       </c>
-      <c r="L9" s="342">
+      <c r="L9" s="338">
         <v>32</v>
       </c>
-      <c r="M9" s="342">
+      <c r="M9" s="338">
         <v>28</v>
       </c>
-      <c r="N9" s="346">
+      <c r="N9" s="342">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="480"/>
+      <c r="A10" s="479"/>
       <c r="B10" s="20" t="s">
         <v>249</v>
       </c>
@@ -9831,25 +9914,25 @@
       <c r="E10" s="21">
         <v>6</v>
       </c>
-      <c r="I10" s="351"/>
-      <c r="J10" s="341" t="s">
+      <c r="I10" s="347"/>
+      <c r="J10" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="K10" s="342">
+      <c r="K10" s="338">
         <v>71</v>
       </c>
-      <c r="L10" s="342">
+      <c r="L10" s="338">
         <v>58</v>
       </c>
-      <c r="M10" s="342">
+      <c r="M10" s="338">
         <v>52</v>
       </c>
-      <c r="N10" s="346">
+      <c r="N10" s="342">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
-      <c r="A11" s="481"/>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A11" s="480"/>
       <c r="B11" s="23" t="s">
         <v>250</v>
       </c>
@@ -9862,56 +9945,56 @@
       <c r="E11" s="24">
         <v>6</v>
       </c>
-      <c r="I11" s="351"/>
-      <c r="J11" s="341" t="s">
+      <c r="I11" s="347"/>
+      <c r="J11" s="337" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="342">
+      <c r="K11" s="338">
         <v>49</v>
       </c>
-      <c r="L11" s="342">
+      <c r="L11" s="338">
         <v>40</v>
       </c>
-      <c r="M11" s="342">
+      <c r="M11" s="338">
         <v>38</v>
       </c>
-      <c r="N11" s="346">
+      <c r="N11" s="342">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="I12" s="351"/>
-      <c r="J12" s="341" t="s">
+      <c r="I12" s="347"/>
+      <c r="J12" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="342">
+      <c r="K12" s="338">
         <v>29</v>
       </c>
-      <c r="L12" s="342">
+      <c r="L12" s="338">
         <v>28</v>
       </c>
-      <c r="M12" s="342">
+      <c r="M12" s="338">
         <v>26</v>
       </c>
-      <c r="N12" s="346">
+      <c r="N12" s="342">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="I13" s="351"/>
-      <c r="J13" s="341" t="s">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="I13" s="347"/>
+      <c r="J13" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="K13" s="342">
+      <c r="K13" s="338">
         <v>102</v>
       </c>
-      <c r="L13" s="342">
+      <c r="L13" s="338">
         <v>97</v>
       </c>
-      <c r="M13" s="342">
+      <c r="M13" s="338">
         <v>93</v>
       </c>
-      <c r="N13" s="346">
+      <c r="N13" s="342">
         <v>88</v>
       </c>
     </row>
@@ -9931,19 +10014,19 @@
       <c r="E14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="351"/>
-      <c r="J14" s="341" t="s">
+      <c r="I14" s="347"/>
+      <c r="J14" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="K14" s="342">
+      <c r="K14" s="338">
         <v>61</v>
       </c>
-      <c r="L14" s="342"/>
-      <c r="M14" s="342"/>
-      <c r="N14" s="346"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
-      <c r="A15" s="480" t="s">
+      <c r="L14" s="338"/>
+      <c r="M14" s="338"/>
+      <c r="N14" s="342"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A15" s="479" t="s">
         <v>244</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -9958,19 +10041,19 @@
       <c r="E15" s="21">
         <v>60</v>
       </c>
-      <c r="I15" s="352"/>
-      <c r="J15" s="347" t="s">
+      <c r="I15" s="348"/>
+      <c r="J15" s="343" t="s">
         <v>265</v>
       </c>
-      <c r="K15" s="348">
+      <c r="K15" s="344">
         <v>45</v>
       </c>
-      <c r="L15" s="348"/>
-      <c r="M15" s="348"/>
-      <c r="N15" s="349"/>
+      <c r="L15" s="344"/>
+      <c r="M15" s="344"/>
+      <c r="N15" s="345"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="480"/>
+      <c r="A16" s="479"/>
       <c r="B16" s="20" t="s">
         <v>279</v>
       </c>
@@ -9983,25 +10066,25 @@
       <c r="E16" s="21">
         <v>180</v>
       </c>
-      <c r="I16" s="350" t="s">
+      <c r="I16" s="346" t="s">
         <v>266</v>
       </c>
-      <c r="J16" s="343" t="s">
+      <c r="J16" s="339" t="s">
         <v>257</v>
       </c>
-      <c r="K16" s="344"/>
-      <c r="L16" s="344">
+      <c r="K16" s="340"/>
+      <c r="L16" s="340">
         <v>41</v>
       </c>
-      <c r="M16" s="344">
+      <c r="M16" s="340">
         <v>29</v>
       </c>
-      <c r="N16" s="345">
+      <c r="N16" s="341">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="480"/>
+      <c r="A17" s="479"/>
       <c r="B17" s="20" t="s">
         <v>280</v>
       </c>
@@ -10014,23 +10097,23 @@
       <c r="E17" s="21">
         <v>56</v>
       </c>
-      <c r="I17" s="351"/>
-      <c r="J17" s="341" t="s">
+      <c r="I17" s="347"/>
+      <c r="J17" s="337" t="s">
         <v>258</v>
       </c>
-      <c r="K17" s="342"/>
-      <c r="L17" s="342">
+      <c r="K17" s="338"/>
+      <c r="L17" s="338">
         <v>60</v>
       </c>
-      <c r="M17" s="342">
+      <c r="M17" s="338">
         <v>53</v>
       </c>
-      <c r="N17" s="346">
+      <c r="N17" s="342">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="480"/>
+      <c r="A18" s="479"/>
       <c r="B18" s="20" t="s">
         <v>281</v>
       </c>
@@ -10043,23 +10126,23 @@
       <c r="E18" s="21">
         <v>35</v>
       </c>
-      <c r="I18" s="351"/>
-      <c r="J18" s="341" t="s">
+      <c r="I18" s="347"/>
+      <c r="J18" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="K18" s="342"/>
-      <c r="L18" s="342">
+      <c r="K18" s="338"/>
+      <c r="L18" s="338">
         <v>56</v>
       </c>
-      <c r="M18" s="342">
+      <c r="M18" s="338">
         <v>46</v>
       </c>
-      <c r="N18" s="346">
+      <c r="N18" s="342">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="480"/>
+      <c r="A19" s="479"/>
       <c r="B19" s="20" t="s">
         <v>249</v>
       </c>
@@ -10072,23 +10155,23 @@
       <c r="E19" s="21">
         <v>2200</v>
       </c>
-      <c r="I19" s="351"/>
-      <c r="J19" s="341" t="s">
+      <c r="I19" s="347"/>
+      <c r="J19" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="K19" s="342"/>
-      <c r="L19" s="342">
+      <c r="K19" s="338"/>
+      <c r="L19" s="338">
         <v>88</v>
       </c>
-      <c r="M19" s="342">
+      <c r="M19" s="338">
         <v>71</v>
       </c>
-      <c r="N19" s="346">
+      <c r="N19" s="342">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="481"/>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A20" s="480"/>
       <c r="B20" s="23" t="s">
         <v>250</v>
       </c>
@@ -10101,111 +10184,111 @@
       <c r="E20" s="24">
         <v>63</v>
       </c>
-      <c r="I20" s="351"/>
-      <c r="J20" s="341" t="s">
+      <c r="I20" s="347"/>
+      <c r="J20" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="K20" s="342"/>
-      <c r="L20" s="342">
+      <c r="K20" s="338"/>
+      <c r="L20" s="338">
         <v>36</v>
       </c>
-      <c r="M20" s="342">
+      <c r="M20" s="338">
         <v>30</v>
       </c>
-      <c r="N20" s="346">
+      <c r="N20" s="342">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="I21" s="351"/>
-      <c r="J21" s="341" t="s">
+      <c r="I21" s="347"/>
+      <c r="J21" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="342"/>
-      <c r="L21" s="342">
+      <c r="K21" s="338"/>
+      <c r="L21" s="338">
         <v>39</v>
       </c>
-      <c r="M21" s="342">
+      <c r="M21" s="338">
         <v>36</v>
       </c>
-      <c r="N21" s="346">
+      <c r="N21" s="342">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1">
-      <c r="I22" s="352"/>
-      <c r="J22" s="347" t="s">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1">
+      <c r="I22" s="348"/>
+      <c r="J22" s="343" t="s">
         <v>263</v>
       </c>
-      <c r="K22" s="348"/>
-      <c r="L22" s="348">
+      <c r="K22" s="344"/>
+      <c r="L22" s="344">
         <v>88</v>
       </c>
-      <c r="M22" s="348">
+      <c r="M22" s="344">
         <v>82</v>
       </c>
-      <c r="N22" s="349">
+      <c r="N22" s="345">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I23" s="350" t="s">
+      <c r="I23" s="346" t="s">
         <v>268</v>
       </c>
-      <c r="J23" s="343" t="s">
+      <c r="J23" s="339" t="s">
         <v>257</v>
       </c>
-      <c r="K23" s="344"/>
-      <c r="L23" s="344">
+      <c r="K23" s="340"/>
+      <c r="L23" s="340">
         <v>63</v>
       </c>
-      <c r="M23" s="344">
+      <c r="M23" s="340">
         <v>45</v>
       </c>
-      <c r="N23" s="345">
+      <c r="N23" s="341">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1">
       <c r="A24" s="277" t="s">
         <v>302</v>
       </c>
-      <c r="I24" s="351"/>
-      <c r="J24" s="341" t="s">
+      <c r="I24" s="347"/>
+      <c r="J24" s="337" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="342"/>
-      <c r="L24" s="342">
+      <c r="K24" s="338"/>
+      <c r="L24" s="338">
         <v>83</v>
       </c>
-      <c r="M24" s="342">
+      <c r="M24" s="338">
         <v>71</v>
       </c>
-      <c r="N24" s="346">
+      <c r="N24" s="342">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="16"/>
-      <c r="B25" s="484" t="s">
+      <c r="B25" s="483" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="484"/>
-      <c r="D25" s="484"/>
-      <c r="E25" s="484"/>
-      <c r="F25" s="485"/>
-      <c r="I25" s="351"/>
-      <c r="J25" s="341" t="s">
+      <c r="C25" s="483"/>
+      <c r="D25" s="483"/>
+      <c r="E25" s="483"/>
+      <c r="F25" s="484"/>
+      <c r="I25" s="347"/>
+      <c r="J25" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="K25" s="342"/>
-      <c r="L25" s="342">
+      <c r="K25" s="338"/>
+      <c r="L25" s="338">
         <v>77</v>
       </c>
-      <c r="M25" s="342">
+      <c r="M25" s="338">
         <v>68</v>
       </c>
-      <c r="N25" s="346">
+      <c r="N25" s="342">
         <v>58</v>
       </c>
     </row>
@@ -10226,18 +10309,18 @@
       <c r="F26" s="21">
         <v>2050</v>
       </c>
-      <c r="I26" s="351"/>
-      <c r="J26" s="341" t="s">
+      <c r="I26" s="347"/>
+      <c r="J26" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="342"/>
-      <c r="L26" s="342">
+      <c r="K26" s="338"/>
+      <c r="L26" s="338">
         <v>97</v>
       </c>
-      <c r="M26" s="342">
+      <c r="M26" s="338">
         <v>84</v>
       </c>
-      <c r="N26" s="346">
+      <c r="N26" s="342">
         <v>71</v>
       </c>
     </row>
@@ -10257,25 +10340,25 @@
       <c r="E27" s="275">
         <v>56553</v>
       </c>
-      <c r="F27" s="334">
+      <c r="F27" s="330">
         <v>71164</v>
       </c>
-      <c r="I27" s="351"/>
-      <c r="J27" s="341" t="s">
+      <c r="I27" s="347"/>
+      <c r="J27" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="K27" s="342"/>
-      <c r="L27" s="342">
+      <c r="K27" s="338"/>
+      <c r="L27" s="338">
         <v>53</v>
       </c>
-      <c r="M27" s="342">
+      <c r="M27" s="338">
         <v>52</v>
       </c>
-      <c r="N27" s="346">
+      <c r="N27" s="342">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1">
       <c r="A28" s="19" t="s">
         <v>284</v>
       </c>
@@ -10291,21 +10374,21 @@
       <c r="E28" s="275">
         <v>47521</v>
       </c>
-      <c r="F28" s="334">
+      <c r="F28" s="330">
         <v>62333</v>
       </c>
-      <c r="I28" s="352"/>
-      <c r="J28" s="347" t="s">
+      <c r="I28" s="348"/>
+      <c r="J28" s="343" t="s">
         <v>263</v>
       </c>
-      <c r="K28" s="348"/>
-      <c r="L28" s="348">
+      <c r="K28" s="344"/>
+      <c r="L28" s="344">
         <v>127</v>
       </c>
-      <c r="M28" s="348">
+      <c r="M28" s="344">
         <v>120</v>
       </c>
-      <c r="N28" s="349">
+      <c r="N28" s="345">
         <v>117</v>
       </c>
     </row>
@@ -10325,31 +10408,31 @@
       <c r="E29" s="275">
         <v>17031</v>
       </c>
-      <c r="F29" s="334">
+      <c r="F29" s="330">
         <v>23469</v>
       </c>
-      <c r="I29" s="362" t="s">
+      <c r="I29" s="358" t="s">
         <v>323</v>
       </c>
-      <c r="J29" s="363"/>
-      <c r="K29" s="364">
+      <c r="J29" s="359"/>
+      <c r="K29" s="360">
         <f>MEDIAN(K7:K28)</f>
         <v>61</v>
       </c>
-      <c r="L29" s="364">
+      <c r="L29" s="360">
         <f t="shared" ref="L29:N29" si="0">MEDIAN(L7:L28)</f>
         <v>57.5</v>
       </c>
-      <c r="M29" s="364">
+      <c r="M29" s="360">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="N29" s="365">
+      <c r="N29" s="361">
         <f t="shared" si="0"/>
         <v>45.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="28.8">
+    <row r="30" spans="1:14" ht="30">
       <c r="A30" s="19" t="s">
         <v>246</v>
       </c>
@@ -10365,25 +10448,25 @@
       <c r="E30" s="275">
         <v>18787</v>
       </c>
-      <c r="F30" s="334">
+      <c r="F30" s="330">
         <v>24785</v>
       </c>
-      <c r="I30" s="350" t="s">
+      <c r="I30" s="346" t="s">
         <v>269</v>
       </c>
-      <c r="J30" s="343" t="s">
+      <c r="J30" s="339" t="s">
         <v>257</v>
       </c>
-      <c r="K30" s="344">
+      <c r="K30" s="340">
         <v>48</v>
       </c>
-      <c r="L30" s="344">
+      <c r="L30" s="340">
         <v>34</v>
       </c>
-      <c r="M30" s="344">
+      <c r="M30" s="340">
         <v>30</v>
       </c>
-      <c r="N30" s="345">
+      <c r="N30" s="341">
         <v>26</v>
       </c>
     </row>
@@ -10403,23 +10486,23 @@
       <c r="E31" s="275">
         <v>7445</v>
       </c>
-      <c r="F31" s="334">
+      <c r="F31" s="330">
         <v>8461</v>
       </c>
-      <c r="I31" s="351"/>
-      <c r="J31" s="341" t="s">
+      <c r="I31" s="347"/>
+      <c r="J31" s="337" t="s">
         <v>258</v>
       </c>
-      <c r="K31" s="342">
+      <c r="K31" s="338">
         <v>48</v>
       </c>
-      <c r="L31" s="342">
+      <c r="L31" s="338">
         <v>37</v>
       </c>
-      <c r="M31" s="342">
+      <c r="M31" s="338">
         <v>35</v>
       </c>
-      <c r="N31" s="346">
+      <c r="N31" s="342">
         <v>32</v>
       </c>
     </row>
@@ -10439,23 +10522,23 @@
       <c r="E32" s="275">
         <v>2676</v>
       </c>
-      <c r="F32" s="334">
+      <c r="F32" s="330">
         <v>3279</v>
       </c>
-      <c r="I32" s="351"/>
-      <c r="J32" s="341" t="s">
+      <c r="I32" s="347"/>
+      <c r="J32" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="K32" s="342">
+      <c r="K32" s="338">
         <v>45</v>
       </c>
-      <c r="L32" s="342">
+      <c r="L32" s="338">
         <v>35</v>
       </c>
-      <c r="M32" s="342">
+      <c r="M32" s="338">
         <v>29</v>
       </c>
-      <c r="N32" s="346">
+      <c r="N32" s="342">
         <v>23</v>
       </c>
     </row>
@@ -10478,20 +10561,20 @@
       <c r="F33" s="21">
         <v>842</v>
       </c>
-      <c r="I33" s="351"/>
-      <c r="J33" s="341" t="s">
+      <c r="I33" s="347"/>
+      <c r="J33" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="K33" s="342">
+      <c r="K33" s="338">
         <v>81</v>
       </c>
-      <c r="L33" s="342">
+      <c r="L33" s="338">
         <v>47</v>
       </c>
-      <c r="M33" s="342">
+      <c r="M33" s="338">
         <v>40</v>
       </c>
-      <c r="N33" s="346">
+      <c r="N33" s="342">
         <v>32</v>
       </c>
     </row>
@@ -10511,23 +10594,23 @@
       <c r="E34" s="20">
         <v>880</v>
       </c>
-      <c r="F34" s="334">
+      <c r="F34" s="330">
         <v>1386</v>
       </c>
-      <c r="I34" s="351"/>
-      <c r="J34" s="341" t="s">
+      <c r="I34" s="347"/>
+      <c r="J34" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="K34" s="342">
+      <c r="K34" s="338">
         <v>49</v>
       </c>
-      <c r="L34" s="342">
+      <c r="L34" s="338">
         <v>31</v>
       </c>
-      <c r="M34" s="342">
+      <c r="M34" s="338">
         <v>27</v>
       </c>
-      <c r="N34" s="346">
+      <c r="N34" s="342">
         <v>22</v>
       </c>
     </row>
@@ -10550,20 +10633,20 @@
       <c r="F35" s="21">
         <v>821</v>
       </c>
-      <c r="I35" s="351"/>
-      <c r="J35" s="341" t="s">
+      <c r="I35" s="347"/>
+      <c r="J35" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="K35" s="342">
+      <c r="K35" s="338">
         <v>34</v>
       </c>
-      <c r="L35" s="342">
+      <c r="L35" s="338">
         <v>19</v>
       </c>
-      <c r="M35" s="342">
+      <c r="M35" s="338">
         <v>16</v>
       </c>
-      <c r="N35" s="346">
+      <c r="N35" s="342">
         <v>14</v>
       </c>
     </row>
@@ -10586,20 +10669,20 @@
       <c r="F36" s="21">
         <v>132</v>
       </c>
-      <c r="I36" s="351"/>
-      <c r="J36" s="341" t="s">
+      <c r="I36" s="347"/>
+      <c r="J36" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="K36" s="342">
+      <c r="K36" s="338">
         <v>58</v>
       </c>
-      <c r="L36" s="342">
+      <c r="L36" s="338">
         <v>36</v>
       </c>
-      <c r="M36" s="342">
+      <c r="M36" s="338">
         <v>28</v>
       </c>
-      <c r="N36" s="346">
+      <c r="N36" s="342">
         <v>25</v>
       </c>
     </row>
@@ -10619,19 +10702,19 @@
       <c r="E37" s="275">
         <v>4855</v>
       </c>
-      <c r="F37" s="334">
+      <c r="F37" s="330">
         <v>5497</v>
       </c>
-      <c r="I37" s="351"/>
-      <c r="J37" s="341" t="s">
+      <c r="I37" s="347"/>
+      <c r="J37" s="337" t="s">
         <v>270</v>
       </c>
-      <c r="K37" s="342">
+      <c r="K37" s="338">
         <v>51</v>
       </c>
-      <c r="L37" s="342"/>
-      <c r="M37" s="342"/>
-      <c r="N37" s="346"/>
+      <c r="L37" s="338"/>
+      <c r="M37" s="338"/>
+      <c r="N37" s="342"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="19" t="s">
@@ -10649,21 +10732,21 @@
       <c r="E38" s="275">
         <v>1857</v>
       </c>
-      <c r="F38" s="334">
+      <c r="F38" s="330">
         <v>1713</v>
       </c>
-      <c r="I38" s="352"/>
-      <c r="J38" s="347" t="s">
+      <c r="I38" s="348"/>
+      <c r="J38" s="343" t="s">
         <v>265</v>
       </c>
-      <c r="K38" s="348">
+      <c r="K38" s="344">
         <v>58</v>
       </c>
-      <c r="L38" s="348"/>
-      <c r="M38" s="348"/>
-      <c r="N38" s="349"/>
-    </row>
-    <row r="39" spans="1:14" ht="43.2">
+      <c r="L38" s="344"/>
+      <c r="M38" s="344"/>
+      <c r="N38" s="345"/>
+    </row>
+    <row r="39" spans="1:14" ht="45">
       <c r="A39" s="19" t="s">
         <v>293</v>
       </c>
@@ -10679,25 +10762,25 @@
       <c r="E39" s="275">
         <v>1659</v>
       </c>
-      <c r="F39" s="334">
+      <c r="F39" s="330">
         <v>1332</v>
       </c>
-      <c r="I39" s="350" t="s">
+      <c r="I39" s="346" t="s">
         <v>271</v>
       </c>
-      <c r="J39" s="343" t="s">
+      <c r="J39" s="339" t="s">
         <v>257</v>
       </c>
-      <c r="K39" s="344">
+      <c r="K39" s="340">
         <v>72</v>
       </c>
-      <c r="L39" s="344">
+      <c r="L39" s="340">
         <v>51</v>
       </c>
-      <c r="M39" s="344">
+      <c r="M39" s="340">
         <v>45</v>
       </c>
-      <c r="N39" s="345">
+      <c r="N39" s="341">
         <v>41</v>
       </c>
     </row>
@@ -10720,20 +10803,20 @@
       <c r="F40" s="21">
         <v>663</v>
       </c>
-      <c r="I40" s="351"/>
-      <c r="J40" s="341" t="s">
+      <c r="I40" s="347"/>
+      <c r="J40" s="337" t="s">
         <v>258</v>
       </c>
-      <c r="K40" s="342">
+      <c r="K40" s="338">
         <v>72</v>
       </c>
-      <c r="L40" s="342">
+      <c r="L40" s="338">
         <v>59</v>
       </c>
-      <c r="M40" s="342">
+      <c r="M40" s="338">
         <v>55</v>
       </c>
-      <c r="N40" s="346">
+      <c r="N40" s="342">
         <v>53</v>
       </c>
     </row>
@@ -10756,20 +10839,20 @@
       <c r="F41" s="21">
         <v>669</v>
       </c>
-      <c r="I41" s="351"/>
-      <c r="J41" s="341" t="s">
+      <c r="I41" s="347"/>
+      <c r="J41" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="K41" s="342">
+      <c r="K41" s="338">
         <v>61</v>
       </c>
-      <c r="L41" s="342">
+      <c r="L41" s="338">
         <v>41</v>
       </c>
-      <c r="M41" s="342">
+      <c r="M41" s="338">
         <v>33</v>
       </c>
-      <c r="N41" s="346">
+      <c r="N41" s="342">
         <v>25</v>
       </c>
     </row>
@@ -10792,20 +10875,20 @@
       <c r="F42" s="21">
         <v>259</v>
       </c>
-      <c r="I42" s="351"/>
-      <c r="J42" s="341" t="s">
+      <c r="I42" s="347"/>
+      <c r="J42" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="K42" s="342">
+      <c r="K42" s="338">
         <v>104</v>
       </c>
-      <c r="L42" s="342">
+      <c r="L42" s="338">
         <v>62</v>
       </c>
-      <c r="M42" s="342">
+      <c r="M42" s="338">
         <v>50</v>
       </c>
-      <c r="N42" s="346">
+      <c r="N42" s="342">
         <v>38</v>
       </c>
     </row>
@@ -10828,20 +10911,20 @@
       <c r="F43" s="21">
         <v>0</v>
       </c>
-      <c r="I43" s="351"/>
-      <c r="J43" s="341" t="s">
+      <c r="I43" s="347"/>
+      <c r="J43" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="K43" s="361">
+      <c r="K43" s="357">
         <v>43</v>
       </c>
-      <c r="L43" s="361">
+      <c r="L43" s="357">
         <v>25</v>
       </c>
-      <c r="M43" s="342">
+      <c r="M43" s="338">
         <v>20</v>
       </c>
-      <c r="N43" s="366">
+      <c r="N43" s="362">
         <v>18</v>
       </c>
     </row>
@@ -10864,20 +10947,20 @@
       <c r="F44" s="21">
         <v>253</v>
       </c>
-      <c r="I44" s="351"/>
-      <c r="J44" s="341" t="s">
+      <c r="I44" s="347"/>
+      <c r="J44" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="K44" s="361">
+      <c r="K44" s="357">
         <v>84</v>
       </c>
-      <c r="L44" s="361">
+      <c r="L44" s="357">
         <v>52</v>
       </c>
-      <c r="M44" s="342">
+      <c r="M44" s="338">
         <v>41</v>
       </c>
-      <c r="N44" s="366">
+      <c r="N44" s="362">
         <v>36</v>
       </c>
     </row>
@@ -10900,74 +10983,74 @@
       <c r="F45" s="24">
         <v>6</v>
       </c>
-      <c r="I45" s="352"/>
-      <c r="J45" s="347" t="s">
+      <c r="I45" s="348"/>
+      <c r="J45" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="K45" s="367">
+      <c r="K45" s="363">
         <v>77</v>
       </c>
-      <c r="L45" s="367"/>
-      <c r="M45" s="348"/>
-      <c r="N45" s="368"/>
-    </row>
-    <row r="46" spans="1:14" ht="29.4" thickBot="1">
-      <c r="I46" s="362" t="s">
+      <c r="L45" s="363"/>
+      <c r="M45" s="344"/>
+      <c r="N45" s="364"/>
+    </row>
+    <row r="46" spans="1:14" ht="30.75" thickBot="1">
+      <c r="I46" s="358" t="s">
         <v>324</v>
       </c>
-      <c r="J46" s="363"/>
-      <c r="K46" s="364">
+      <c r="J46" s="359"/>
+      <c r="K46" s="360">
         <f>MEDIAN(K30:K45)</f>
         <v>58</v>
       </c>
-      <c r="L46" s="364">
+      <c r="L46" s="360">
         <f t="shared" ref="L46:N46" si="1">MEDIAN(L30:L45)</f>
         <v>37</v>
       </c>
-      <c r="M46" s="364">
+      <c r="M46" s="360">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="N46" s="365">
+      <c r="N46" s="361">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="28.8">
-      <c r="I47" s="357" t="s">
+    <row r="47" spans="1:14" ht="30">
+      <c r="I47" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="J47" s="358" t="s">
+      <c r="J47" s="354" t="s">
         <v>275</v>
       </c>
-      <c r="K47" s="359">
+      <c r="K47" s="355">
         <v>44</v>
       </c>
-      <c r="L47" s="359">
+      <c r="L47" s="355">
         <v>44</v>
       </c>
-      <c r="M47" s="359">
+      <c r="M47" s="355">
         <v>44</v>
       </c>
-      <c r="N47" s="360">
+      <c r="N47" s="356">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1">
-      <c r="I48" s="351"/>
-      <c r="J48" s="341" t="s">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+      <c r="I48" s="347"/>
+      <c r="J48" s="337" t="s">
         <v>276</v>
       </c>
-      <c r="K48" s="342">
+      <c r="K48" s="338">
         <v>70</v>
       </c>
-      <c r="L48" s="342">
+      <c r="L48" s="338">
         <v>70</v>
       </c>
-      <c r="M48" s="342">
+      <c r="M48" s="338">
         <v>70</v>
       </c>
-      <c r="N48" s="346">
+      <c r="N48" s="342">
         <v>70</v>
       </c>
     </row>
@@ -10984,25 +11067,25 @@
       <c r="D49" s="18">
         <v>2050</v>
       </c>
-      <c r="I49" s="351"/>
-      <c r="J49" s="341" t="s">
+      <c r="I49" s="347"/>
+      <c r="J49" s="337" t="s">
         <v>277</v>
       </c>
-      <c r="K49" s="342">
+      <c r="K49" s="338">
         <v>108</v>
       </c>
-      <c r="L49" s="342">
+      <c r="L49" s="338">
         <v>108</v>
       </c>
-      <c r="M49" s="342">
+      <c r="M49" s="338">
         <v>108</v>
       </c>
-      <c r="N49" s="346">
+      <c r="N49" s="342">
         <v>108</v>
       </c>
-      <c r="O49" s="332"/>
-    </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1">
+      <c r="O49" s="328"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" s="19" t="s">
         <v>303</v>
       </c>
@@ -11015,27 +11098,27 @@
       <c r="D50" s="21">
         <v>70</v>
       </c>
-      <c r="I50" s="353"/>
-      <c r="J50" s="354" t="s">
+      <c r="I50" s="349"/>
+      <c r="J50" s="350" t="s">
         <v>267</v>
       </c>
-      <c r="K50" s="355">
+      <c r="K50" s="351">
         <f>150/Monetary!V4</f>
         <v>131.57894736842107</v>
       </c>
-      <c r="L50" s="355">
+      <c r="L50" s="351">
         <f>120/Monetary!V4</f>
         <v>105.26315789473685</v>
       </c>
-      <c r="M50" s="355">
+      <c r="M50" s="351">
         <v>103</v>
       </c>
-      <c r="N50" s="356">
+      <c r="N50" s="352">
         <f>115/Monetary!V4</f>
         <v>100.87719298245615</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="43.8" thickBot="1">
+    <row r="51" spans="1:15" ht="45.75" thickBot="1">
       <c r="A51" s="19" t="s">
         <v>304</v>
       </c>
@@ -11048,28 +11131,28 @@
       <c r="D51" s="21">
         <v>14</v>
       </c>
-      <c r="I51" s="369" t="s">
+      <c r="I51" s="365" t="s">
         <v>325</v>
       </c>
-      <c r="J51" s="370"/>
-      <c r="K51" s="370">
+      <c r="J51" s="366"/>
+      <c r="K51" s="366">
         <f>MEDIAN(K47:K50)</f>
         <v>89</v>
       </c>
-      <c r="L51" s="370">
+      <c r="L51" s="366">
         <f t="shared" ref="L51:N51" si="2">MEDIAN(L47:L50)</f>
         <v>87.631578947368425</v>
       </c>
-      <c r="M51" s="370">
+      <c r="M51" s="366">
         <f t="shared" si="2"/>
         <v>86.5</v>
       </c>
-      <c r="N51" s="371">
+      <c r="N51" s="367">
         <f t="shared" si="2"/>
         <v>85.438596491228083</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1">
+    <row r="52" spans="1:15" ht="15.75" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>305</v>
       </c>
@@ -11082,26 +11165,26 @@
       <c r="D52" s="21">
         <v>31</v>
       </c>
-      <c r="I52" s="372" t="s">
+      <c r="I52" s="368" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="373" t="s">
+      <c r="J52" s="369" t="s">
         <v>326</v>
       </c>
-      <c r="K52" s="373">
+      <c r="K52" s="369">
         <v>30</v>
       </c>
-      <c r="L52" s="373">
+      <c r="L52" s="369">
         <v>30</v>
       </c>
-      <c r="M52" s="373">
+      <c r="M52" s="369">
         <v>30</v>
       </c>
-      <c r="N52" s="374">
+      <c r="N52" s="370">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1">
+    <row r="53" spans="1:15" ht="15.75" thickBot="1">
       <c r="A53" s="22" t="s">
         <v>306</v>
       </c>
@@ -11115,14 +11198,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1">
-      <c r="I54" s="323" t="s">
+    <row r="54" spans="1:15" ht="15.75" thickBot="1">
+      <c r="I54" s="319" t="s">
         <v>329</v>
       </c>
-      <c r="J54" s="335" t="s">
+      <c r="J54" s="331" t="s">
         <v>328</v>
       </c>
-      <c r="K54" s="331">
+      <c r="K54" s="327">
         <v>0.3</v>
       </c>
     </row>
@@ -11130,20 +11213,20 @@
       <c r="I55" t="s">
         <v>308</v>
       </c>
-      <c r="J55" s="333" t="s">
+      <c r="J55" s="329" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="475" t="s">
+      <c r="A57" s="474" t="s">
         <v>310</v>
       </c>
-      <c r="B57" s="476"/>
-      <c r="C57" s="476"/>
-      <c r="D57" s="476"/>
-      <c r="E57" s="476"/>
-    </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1"/>
+      <c r="B57" s="475"/>
+      <c r="C57" s="475"/>
+      <c r="D57" s="475"/>
+      <c r="E57" s="475"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:15">
       <c r="A59" s="16" t="s">
         <v>311</v>
@@ -11187,19 +11270,19 @@
       <c r="B61" s="20">
         <v>43</v>
       </c>
-      <c r="C61" s="336">
+      <c r="C61" s="332">
         <f>B61+(G61-B61)/30*10</f>
         <v>38</v>
       </c>
-      <c r="D61" s="336">
+      <c r="D61" s="332">
         <f>B61+(H61-B61)/30*10</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="E61" s="336">
+      <c r="E61" s="332">
         <f>B61+(G61-B61)/30*20</f>
         <v>33</v>
       </c>
-      <c r="F61" s="336">
+      <c r="F61" s="332">
         <f>B61+(H61-C61)/30*20</f>
         <v>27</v>
       </c>
@@ -11217,19 +11300,19 @@
       <c r="B62" s="20">
         <v>16</v>
       </c>
-      <c r="C62" s="336">
+      <c r="C62" s="332">
         <f t="shared" ref="C62:C65" si="3">B62+(G62-B62)/30*10</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="D62" s="336">
+      <c r="D62" s="332">
         <f t="shared" ref="D62:D65" si="4">B62+(H62-B62)/30*10</f>
         <v>15</v>
       </c>
-      <c r="E62" s="336">
+      <c r="E62" s="332">
         <f t="shared" ref="E62:E65" si="5">B62+(G62-B62)/30*20</f>
         <v>15.333333333333334</v>
       </c>
-      <c r="F62" s="336">
+      <c r="F62" s="332">
         <f t="shared" ref="F62:F65" si="6">B62+(H62-C62)/30*20</f>
         <v>14.222222222222223</v>
       </c>
@@ -11247,19 +11330,19 @@
       <c r="B63" s="20">
         <v>14</v>
       </c>
-      <c r="C63" s="336">
+      <c r="C63" s="332">
         <f t="shared" si="3"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="D63" s="336">
+      <c r="D63" s="332">
         <f t="shared" si="4"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="E63" s="336">
+      <c r="E63" s="332">
         <f t="shared" si="5"/>
         <v>11.333333333333334</v>
       </c>
-      <c r="F63" s="336">
+      <c r="F63" s="332">
         <f t="shared" si="6"/>
         <v>10.222222222222223</v>
       </c>
@@ -11277,19 +11360,19 @@
       <c r="B64" s="20">
         <v>6</v>
       </c>
-      <c r="C64" s="336">
+      <c r="C64" s="332">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D64" s="336">
+      <c r="D64" s="332">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="E64" s="336">
+      <c r="E64" s="332">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F64" s="336">
+      <c r="F64" s="332">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -11300,26 +11383,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1">
       <c r="A65" s="22" t="s">
         <v>250</v>
       </c>
       <c r="B65" s="23">
         <v>7</v>
       </c>
-      <c r="C65" s="337">
+      <c r="C65" s="333">
         <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D65" s="337">
+      <c r="D65" s="333">
         <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="E65" s="337">
+      <c r="E65" s="333">
         <f t="shared" si="5"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F65" s="337">
+      <c r="F65" s="333">
         <f t="shared" si="6"/>
         <v>6.5555555555555554</v>
       </c>
@@ -11330,7 +11413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1"/>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:9">
       <c r="A70" s="16" t="s">
         <v>344</v>
@@ -11393,19 +11476,19 @@
         <f>C37/(C31+C30+C29+C37)</f>
         <v>0.28313569104837866</v>
       </c>
-      <c r="F72" s="375">
+      <c r="F72" s="371">
         <f>B72*B61+C72*(B62+B63)/2+D72*B64+E72*B65</f>
         <v>10.974603840906706</v>
       </c>
-      <c r="G72" s="376">
+      <c r="G72" s="372">
         <f>(B72*B61+C72*(B62+B63)/2+D72*B64)/(B72+C72+D72)</f>
         <v>12.544429805299371</v>
       </c>
-      <c r="H72" s="375">
+      <c r="H72" s="371">
         <f>B72*B61+C72*(B62+B63)/2+D72*B64+E72*B65</f>
         <v>10.974603840906706</v>
       </c>
-      <c r="I72" s="377">
+      <c r="I72" s="373">
         <f>(B72*B61+C72*(B62+B63)/2+D72*B64)/(B72+D72+C72)</f>
         <v>12.544429805299371</v>
       </c>
@@ -11430,19 +11513,19 @@
         <f>D37/(D31+D30+D29+D37)</f>
         <v>0.15338071065989847</v>
       </c>
-      <c r="F73" s="375">
+      <c r="F73" s="371">
         <f>B73*C61+C73*(C62+C63)/2+D73*C64+E73*C65</f>
         <v>17.815499153976315</v>
       </c>
-      <c r="G73" s="376">
+      <c r="G73" s="372">
         <f>(B73*C61+C73*(C62+C63)/2+D73*C64)/(B73+C73+D73)</f>
         <v>19.835315937579942</v>
       </c>
-      <c r="H73" s="375">
+      <c r="H73" s="371">
         <f>B73*D61+C73*(D62+D63)/2+D73*D64+E73*D65</f>
         <v>16.22362098138748</v>
       </c>
-      <c r="I73" s="377">
+      <c r="I73" s="373">
         <f>(B73*E61+C73*(E62+E63)/2+D73*E64)/(B73+C73+D73)</f>
         <v>17.843598106932717</v>
       </c>
@@ -11467,61 +11550,61 @@
         <f>E37/(E31+E30+E29+E37)</f>
         <v>0.10089779292572426</v>
       </c>
-      <c r="F74" s="375">
+      <c r="F74" s="371">
         <f>B74*E61+C74*(E62+E63)/2+D74*E64+E74*E65</f>
         <v>17.583434029809265</v>
       </c>
-      <c r="G74" s="376">
+      <c r="G74" s="372">
         <f>(B74*E61+C74*(E62+E63)/2+D74*E64)/(B74+C74+D74)</f>
         <v>20.320353581394002</v>
       </c>
-      <c r="H74" s="375">
+      <c r="H74" s="371">
         <f>B74*F61+C74*(F62+F63)/2+D74*F64+E74*F65</f>
         <v>15.120870334576775</v>
       </c>
-      <c r="I74" s="377">
+      <c r="I74" s="373">
         <f>(B74*G61+C74*(G62+G63)/2+D74*G64)/(B74+C74+D74)</f>
         <v>17.873060183554756</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1">
+    <row r="75" spans="1:9" ht="15.75" thickBot="1">
       <c r="A75" s="22">
         <v>2050</v>
       </c>
-      <c r="B75" s="378">
+      <c r="B75" s="374">
         <f>F29/(F31+F30+F29+F37)</f>
         <v>0.37724233266893847</v>
       </c>
-      <c r="C75" s="378">
+      <c r="C75" s="374">
         <f>F30/(F31+F30+F29+F37)</f>
         <v>0.39839580788272361</v>
       </c>
-      <c r="D75" s="378">
+      <c r="D75" s="374">
         <f>F31/(F31+F30+F29+F37)</f>
         <v>0.13600270044364432</v>
       </c>
-      <c r="E75" s="378">
+      <c r="E75" s="374">
         <f>F37/(F31+F30+F29+F37)</f>
         <v>8.8359159004693627E-2</v>
       </c>
-      <c r="F75" s="379">
+      <c r="F75" s="375">
         <f>B75*G61+C75*(G62+G63)/2+D75*G64+E75*G65</f>
         <v>16.88890406995435</v>
       </c>
-      <c r="G75" s="380">
+      <c r="G75" s="376">
         <f>(B75*G61+C75*(G62+G63)/2+D75*G64)/(B75+C75+D75)</f>
         <v>17.944291633606625</v>
       </c>
-      <c r="H75" s="379">
+      <c r="H75" s="375">
         <f>B75*H61+C75*(H62+H63)/2+D75*H64+E75*H65</f>
         <v>10.611521892882401</v>
       </c>
-      <c r="I75" s="381">
+      <c r="I75" s="377">
         <f>(B75*H61+C75*(H62+H63)/2+D75*H64)/(B75+C75+D75)</f>
         <v>11.058485409503657</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" thickBot="1"/>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="79" spans="1:9">
       <c r="A79" s="16" t="s">
         <v>345</v>
@@ -11560,19 +11643,19 @@
       <c r="A81" s="19">
         <v>2020</v>
       </c>
-      <c r="B81" s="382">
+      <c r="B81" s="378">
         <f t="shared" ref="B81:E84" si="7">B72</f>
         <v>8.6158043866092979E-2</v>
       </c>
-      <c r="C81" s="382">
+      <c r="C81" s="378">
         <f t="shared" si="7"/>
         <v>0.16706894742365411</v>
       </c>
-      <c r="D81" s="382">
+      <c r="D81" s="378">
         <f t="shared" si="7"/>
         <v>0.46363731766187427</v>
       </c>
-      <c r="E81" s="382">
+      <c r="E81" s="378">
         <f t="shared" si="7"/>
         <v>0.28313569104837866</v>
       </c>
@@ -11580,7 +11663,7 @@
         <f>(1+$K$54)*(B81*K46+C81*K29+D81*K52+E81*K51)</f>
         <v>70.585538881309688</v>
       </c>
-      <c r="G81" s="383">
+      <c r="G81" s="379">
         <f>(1+$K$54)*(B81*K46+C81*K29+D81*K52)/(B81+C81+D81)</f>
         <v>52.76694481042307</v>
       </c>
@@ -11589,19 +11672,19 @@
       <c r="A82" s="19">
         <v>2030</v>
       </c>
-      <c r="B82" s="382">
+      <c r="B82" s="378">
         <f t="shared" si="7"/>
         <v>0.28304568527918783</v>
       </c>
-      <c r="C82" s="382">
+      <c r="C82" s="378">
         <f t="shared" si="7"/>
         <v>0.32519796954314723</v>
       </c>
-      <c r="D82" s="382">
+      <c r="D82" s="378">
         <f t="shared" si="7"/>
         <v>0.2383756345177665</v>
       </c>
-      <c r="E82" s="382">
+      <c r="E82" s="378">
         <f t="shared" si="7"/>
         <v>0.15338071065989847</v>
       </c>
@@ -11609,7 +11692,7 @@
         <f>(1+$K$54)*(B82*L46+C82*L29+D82*L52+E82*L51)</f>
         <v>64.692987443227366</v>
       </c>
-      <c r="G82" s="383">
+      <c r="G82" s="379">
         <f>(1+$K$54)*(B82*L46+C82*L29+D82*L52)/(B82+C82+D82)</f>
         <v>55.77441481197237</v>
       </c>
@@ -11618,19 +11701,19 @@
       <c r="A83" s="19">
         <v>2040</v>
       </c>
-      <c r="B83" s="382">
+      <c r="B83" s="378">
         <f t="shared" si="7"/>
         <v>0.35394239162059937</v>
       </c>
-      <c r="C83" s="382">
+      <c r="C83" s="378">
         <f t="shared" si="7"/>
         <v>0.32519796954314723</v>
       </c>
-      <c r="D83" s="382">
+      <c r="D83" s="378">
         <f t="shared" si="7"/>
         <v>0.15472380398187788</v>
       </c>
-      <c r="E83" s="382">
+      <c r="E83" s="378">
         <f t="shared" si="7"/>
         <v>0.10089779292572426</v>
       </c>
@@ -11638,80 +11721,80 @@
         <f>(1+$K$54)*(B83*M46+C83*M29+D83*M52+E83*M51)</f>
         <v>54.547696511431404</v>
       </c>
-      <c r="G83" s="383">
+      <c r="G83" s="379">
         <f>(1+$K$54)*(B83*M46+C83*M29+D83*M52)/(B83+C83+D83)</f>
         <v>51.80908534352119</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="22">
         <v>2050</v>
       </c>
-      <c r="B84" s="384">
+      <c r="B84" s="380">
         <f t="shared" si="7"/>
         <v>0.37724233266893847</v>
       </c>
-      <c r="C84" s="384">
+      <c r="C84" s="380">
         <f t="shared" si="7"/>
         <v>0.39839580788272361</v>
       </c>
-      <c r="D84" s="384">
+      <c r="D84" s="380">
         <f t="shared" si="7"/>
         <v>0.13600270044364432</v>
       </c>
-      <c r="E84" s="384">
+      <c r="E84" s="380">
         <f t="shared" si="7"/>
         <v>8.8359159004693627E-2</v>
       </c>
-      <c r="F84" s="385">
+      <c r="F84" s="381">
         <f>(1+$K$54)*(B84*N46+C84*N29+D84*N52+E84*N51)</f>
         <v>51.434075490033521</v>
       </c>
-      <c r="G84" s="386">
+      <c r="G84" s="382">
         <f>(1+$K$54)*(B84*N46+C84*N29+D84*N52)/(B84+D84+C84)</f>
         <v>45.653953098827472</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1"/>
-    <row r="87" spans="1:8" ht="15" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="277" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="28.8">
-      <c r="A88" s="392" t="s">
+    <row r="88" spans="1:8" ht="30">
+      <c r="A88" s="388" t="s">
         <v>340</v>
       </c>
-      <c r="B88" s="393" t="s">
+      <c r="B88" s="389" t="s">
         <v>352</v>
       </c>
-      <c r="C88" s="393" t="s">
+      <c r="C88" s="389" t="s">
         <v>353</v>
       </c>
-      <c r="D88" s="393" t="s">
+      <c r="D88" s="389" t="s">
         <v>341</v>
       </c>
-      <c r="E88" s="394" t="s">
+      <c r="E88" s="390" t="s">
         <v>354</v>
       </c>
-      <c r="F88" s="394" t="s">
+      <c r="F88" s="390" t="s">
         <v>356</v>
       </c>
-      <c r="G88" s="394" t="s">
+      <c r="G88" s="390" t="s">
         <v>357</v>
       </c>
-      <c r="H88" s="395" t="s">
+      <c r="H88" s="391" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="396" t="s">
+      <c r="A89" s="392" t="s">
         <v>346</v>
       </c>
-      <c r="B89" s="391">
+      <c r="B89" s="387">
         <v>10.948748124</v>
       </c>
-      <c r="C89" s="391">
+      <c r="C89" s="387">
         <v>14.759758720500001</v>
       </c>
       <c r="D89" s="20">
@@ -11721,27 +11804,27 @@
       <c r="E89" s="20">
         <v>80</v>
       </c>
-      <c r="F89" s="387">
+      <c r="F89" s="383">
         <f>B89/D89*1000</f>
         <v>16.647024667781665</v>
       </c>
-      <c r="G89" s="387">
+      <c r="G89" s="383">
         <f>C89/D89*1000</f>
         <v>22.441475932035882</v>
       </c>
-      <c r="H89" s="397">
+      <c r="H89" s="393">
         <f>E89/D89*1000</f>
         <v>121.63600425726014</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="398" t="s">
+      <c r="A90" s="394" t="s">
         <v>347</v>
       </c>
-      <c r="B90" s="390">
+      <c r="B90" s="386">
         <v>10.409618129799998</v>
       </c>
-      <c r="C90" s="390">
+      <c r="C90" s="386">
         <v>13.9677876093</v>
       </c>
       <c r="D90" s="20">
@@ -11751,27 +11834,27 @@
       <c r="E90" s="20">
         <v>83</v>
       </c>
-      <c r="F90" s="387">
+      <c r="F90" s="383">
         <f t="shared" ref="F90:F94" si="8">B90/D90*1000</f>
         <v>15.637100991137146</v>
       </c>
-      <c r="G90" s="387">
+      <c r="G90" s="383">
         <f t="shared" ref="G90:G94" si="9">C90/D90*1000</f>
         <v>20.982105466876973</v>
       </c>
-      <c r="H90" s="397">
+      <c r="H90" s="393">
         <f t="shared" ref="H90:H94" si="10">E90/D90*1000</f>
         <v>124.68078714135495</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="399" t="s">
+      <c r="A91" s="395" t="s">
         <v>348</v>
       </c>
-      <c r="B91" s="390">
+      <c r="B91" s="386">
         <v>8.8974150963999996</v>
       </c>
-      <c r="C91" s="390">
+      <c r="C91" s="386">
         <v>11.628483397899998</v>
       </c>
       <c r="D91" s="20">
@@ -11781,27 +11864,27 @@
       <c r="E91" s="20">
         <v>75</v>
       </c>
-      <c r="F91" s="387">
+      <c r="F91" s="383">
         <f t="shared" si="8"/>
         <v>13.436144814859556</v>
       </c>
-      <c r="G91" s="387">
+      <c r="G91" s="383">
         <f t="shared" si="9"/>
         <v>17.560379640440953</v>
       </c>
-      <c r="H91" s="397">
+      <c r="H91" s="393">
         <f t="shared" si="10"/>
         <v>113.25883418906673</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="400" t="s">
+      <c r="A92" s="396" t="s">
         <v>349</v>
       </c>
-      <c r="B92" s="390">
+      <c r="B92" s="386">
         <v>8.3845403883999996</v>
       </c>
-      <c r="C92" s="390">
+      <c r="C92" s="386">
         <v>11.067652837749998</v>
       </c>
       <c r="D92" s="20">
@@ -11811,27 +11894,27 @@
       <c r="E92" s="20">
         <v>70</v>
       </c>
-      <c r="F92" s="387">
+      <c r="F92" s="383">
         <f t="shared" si="8"/>
         <v>12.648273326896968</v>
       </c>
-      <c r="G92" s="387">
+      <c r="G92" s="383">
         <f t="shared" si="9"/>
         <v>16.695810586438377</v>
       </c>
-      <c r="H92" s="397">
+      <c r="H92" s="393">
         <f t="shared" si="10"/>
         <v>105.59662090813094</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="401" t="s">
+      <c r="A93" s="397" t="s">
         <v>350</v>
       </c>
-      <c r="B93" s="390">
+      <c r="B93" s="386">
         <v>7.4719139180999985</v>
       </c>
-      <c r="C93" s="390">
+      <c r="C93" s="386">
         <v>9.7593745485000003</v>
       </c>
       <c r="D93" s="20">
@@ -11841,27 +11924,27 @@
       <c r="E93" s="20">
         <v>65</v>
       </c>
-      <c r="F93" s="387">
+      <c r="F93" s="383">
         <f t="shared" si="8"/>
         <v>11.269855080090496</v>
       </c>
-      <c r="G93" s="387">
+      <c r="G93" s="383">
         <f t="shared" si="9"/>
         <v>14.720021943438915</v>
       </c>
-      <c r="H93" s="397">
+      <c r="H93" s="393">
         <f t="shared" si="10"/>
         <v>98.039215686274503</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1">
-      <c r="A94" s="402" t="s">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A94" s="398" t="s">
         <v>351</v>
       </c>
-      <c r="B94" s="403">
+      <c r="B94" s="399">
         <v>6.8236093632999992</v>
       </c>
-      <c r="C94" s="403">
+      <c r="C94" s="399">
         <v>8.7048183375499999</v>
       </c>
       <c r="D94" s="23">
@@ -11871,90 +11954,90 @@
       <c r="E94" s="23">
         <v>64</v>
       </c>
-      <c r="F94" s="388">
+      <c r="F94" s="384">
         <f t="shared" si="8"/>
         <v>10.341935985601697</v>
       </c>
-      <c r="G94" s="388">
+      <c r="G94" s="384">
         <f t="shared" si="9"/>
         <v>13.193116607381025</v>
       </c>
-      <c r="H94" s="404">
+      <c r="H94" s="400">
         <f t="shared" si="10"/>
         <v>96.999090633525313</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="389"/>
-      <c r="C96" s="389"/>
-      <c r="D96" s="389"/>
-      <c r="E96" s="389"/>
-      <c r="F96" s="389"/>
-      <c r="G96" s="389"/>
+      <c r="B96" s="385"/>
+      <c r="C96" s="385"/>
+      <c r="D96" s="385"/>
+      <c r="E96" s="385"/>
+      <c r="F96" s="385"/>
+      <c r="G96" s="385"/>
       <c r="H96" s="280"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" s="389"/>
-      <c r="C97" s="389"/>
-      <c r="D97" s="389"/>
-      <c r="E97" s="389"/>
-      <c r="F97" s="389"/>
-      <c r="G97" s="389"/>
+      <c r="B97" s="385"/>
+      <c r="C97" s="385"/>
+      <c r="D97" s="385"/>
+      <c r="E97" s="385"/>
+      <c r="F97" s="385"/>
+      <c r="G97" s="385"/>
       <c r="H97" s="280"/>
     </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1"/>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="102" spans="1:8" ht="24" thickBot="1">
-      <c r="A102" s="477" t="s">
+      <c r="A102" s="476" t="s">
         <v>309</v>
       </c>
-      <c r="B102" s="478"/>
-      <c r="C102" s="478"/>
-      <c r="D102" s="478"/>
-      <c r="E102" s="478"/>
-      <c r="F102" s="479"/>
-    </row>
-    <row r="103" spans="1:8" ht="29.4" thickBot="1">
-      <c r="A103" s="425" t="s">
+      <c r="B102" s="477"/>
+      <c r="C102" s="477"/>
+      <c r="D102" s="477"/>
+      <c r="E102" s="477"/>
+      <c r="F102" s="478"/>
+    </row>
+    <row r="103" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A103" s="421" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="405" t="s">
+      <c r="B103" s="401" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="405" t="s">
+      <c r="C103" s="401" t="s">
         <v>333</v>
       </c>
-      <c r="D103" s="426" t="s">
+      <c r="D103" s="422" t="s">
         <v>355</v>
       </c>
-      <c r="E103" s="405" t="s">
+      <c r="E103" s="401" t="s">
         <v>332</v>
       </c>
-      <c r="F103" s="408" t="s">
+      <c r="F103" s="404" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="422" t="s">
+      <c r="A104" s="418" t="s">
         <v>334</v>
       </c>
-      <c r="B104" s="405">
+      <c r="B104" s="401">
         <v>2020</v>
       </c>
-      <c r="C104" s="405" t="s">
+      <c r="C104" s="401" t="s">
         <v>165</v>
       </c>
-      <c r="D104" s="406">
+      <c r="D104" s="402">
         <v>43</v>
       </c>
-      <c r="E104" s="406">
+      <c r="E104" s="402">
         <v>58</v>
       </c>
-      <c r="F104" s="408">
+      <c r="F104" s="404">
         <v>23469</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="423" t="s">
+      <c r="A105" s="419" t="s">
         <v>334</v>
       </c>
       <c r="B105" s="280">
@@ -11963,10 +12046,10 @@
       <c r="C105" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D105" s="407">
+      <c r="D105" s="403">
         <v>43</v>
       </c>
-      <c r="E105" s="407">
+      <c r="E105" s="403">
         <v>58</v>
       </c>
       <c r="F105" s="308">
@@ -11974,7 +12057,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="423" t="s">
+      <c r="A106" s="419" t="s">
         <v>334</v>
       </c>
       <c r="B106" s="280">
@@ -11983,11 +12066,11 @@
       <c r="C106" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="407">
+      <c r="D106" s="403">
         <f>D105+(D110-D105)/30*10</f>
         <v>38</v>
       </c>
-      <c r="E106" s="407">
+      <c r="E106" s="403">
         <v>37</v>
       </c>
       <c r="F106" s="308">
@@ -11995,7 +12078,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="423" t="s">
+      <c r="A107" s="419" t="s">
         <v>334</v>
       </c>
       <c r="B107" s="280">
@@ -12004,11 +12087,11 @@
       <c r="C107" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="407">
+      <c r="D107" s="403">
         <f>D105+(D111-D105)/30*10</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="E107" s="407">
+      <c r="E107" s="403">
         <v>37</v>
       </c>
       <c r="F107" s="308">
@@ -12016,7 +12099,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="423" t="s">
+      <c r="A108" s="419" t="s">
         <v>334</v>
       </c>
       <c r="B108" s="280">
@@ -12025,11 +12108,11 @@
       <c r="C108" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D108" s="407">
+      <c r="D108" s="403">
         <f>D105+(D110-D105)/30*20</f>
         <v>33</v>
       </c>
-      <c r="E108" s="407">
+      <c r="E108" s="403">
         <v>33</v>
       </c>
       <c r="F108" s="308">
@@ -12037,7 +12120,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="423" t="s">
+      <c r="A109" s="419" t="s">
         <v>334</v>
       </c>
       <c r="B109" s="280">
@@ -12046,11 +12129,11 @@
       <c r="C109" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D109" s="407">
+      <c r="D109" s="403">
         <f>D105+(D111-D106)/30*20</f>
         <v>27</v>
       </c>
-      <c r="E109" s="407">
+      <c r="E109" s="403">
         <v>33</v>
       </c>
       <c r="F109" s="308">
@@ -12058,7 +12141,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="423" t="s">
+      <c r="A110" s="419" t="s">
         <v>334</v>
       </c>
       <c r="B110" s="280">
@@ -12067,18 +12150,18 @@
       <c r="C110" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D110" s="407">
+      <c r="D110" s="403">
         <v>28</v>
       </c>
-      <c r="E110" s="407">
+      <c r="E110" s="403">
         <v>26</v>
       </c>
       <c r="F110" s="308">
         <v>23469</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1">
-      <c r="A111" s="424" t="s">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A111" s="420" t="s">
         <v>334</v>
       </c>
       <c r="B111" s="306">
@@ -12087,10 +12170,10 @@
       <c r="C111" s="306" t="s">
         <v>163</v>
       </c>
-      <c r="D111" s="409">
+      <c r="D111" s="405">
         <v>14</v>
       </c>
-      <c r="E111" s="409">
+      <c r="E111" s="405">
         <v>26</v>
       </c>
       <c r="F111" s="308">
@@ -12098,27 +12181,27 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="422" t="s">
+      <c r="A112" s="418" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="405">
+      <c r="B112" s="401">
         <v>2020</v>
       </c>
-      <c r="C112" s="405" t="s">
+      <c r="C112" s="401" t="s">
         <v>165</v>
       </c>
-      <c r="D112" s="406">
+      <c r="D112" s="402">
         <v>15</v>
       </c>
-      <c r="E112" s="406">
+      <c r="E112" s="402">
         <v>61</v>
       </c>
-      <c r="F112" s="408">
+      <c r="F112" s="404">
         <v>24785</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="423" t="s">
+      <c r="A113" s="419" t="s">
         <v>335</v>
       </c>
       <c r="B113" s="280">
@@ -12127,10 +12210,10 @@
       <c r="C113" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D113" s="407">
+      <c r="D113" s="403">
         <v>15</v>
       </c>
-      <c r="E113" s="407">
+      <c r="E113" s="403">
         <v>61</v>
       </c>
       <c r="F113" s="308">
@@ -12138,7 +12221,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="423" t="s">
+      <c r="A114" s="419" t="s">
         <v>335</v>
       </c>
       <c r="B114" s="280">
@@ -12147,10 +12230,10 @@
       <c r="C114" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D114" s="407">
+      <c r="D114" s="403">
         <v>14.166666666666666</v>
       </c>
-      <c r="E114" s="407">
+      <c r="E114" s="403">
         <v>57.5</v>
       </c>
       <c r="F114" s="308">
@@ -12158,7 +12241,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="423" t="s">
+      <c r="A115" s="419" t="s">
         <v>335</v>
       </c>
       <c r="B115" s="280">
@@ -12167,10 +12250,10 @@
       <c r="C115" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D115" s="407">
+      <c r="D115" s="403">
         <v>13.333333333333332</v>
       </c>
-      <c r="E115" s="407">
+      <c r="E115" s="403">
         <v>57.5</v>
       </c>
       <c r="F115" s="308">
@@ -12178,7 +12261,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="423" t="s">
+      <c r="A116" s="419" t="s">
         <v>335</v>
       </c>
       <c r="B116" s="280">
@@ -12187,10 +12270,10 @@
       <c r="C116" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D116" s="407">
+      <c r="D116" s="403">
         <v>13.333333333333334</v>
       </c>
-      <c r="E116" s="407">
+      <c r="E116" s="403">
         <v>52</v>
       </c>
       <c r="F116" s="308">
@@ -12198,7 +12281,7 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="423" t="s">
+      <c r="A117" s="419" t="s">
         <v>335</v>
       </c>
       <c r="B117" s="280">
@@ -12207,10 +12290,10 @@
       <c r="C117" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D117" s="407">
+      <c r="D117" s="403">
         <v>12.222222222222223</v>
       </c>
-      <c r="E117" s="407">
+      <c r="E117" s="403">
         <v>52</v>
       </c>
       <c r="F117" s="308">
@@ -12218,7 +12301,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="423" t="s">
+      <c r="A118" s="419" t="s">
         <v>335</v>
       </c>
       <c r="B118" s="280">
@@ -12227,18 +12310,18 @@
       <c r="C118" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D118" s="407">
+      <c r="D118" s="403">
         <v>12.5</v>
       </c>
-      <c r="E118" s="407">
+      <c r="E118" s="403">
         <v>45.5</v>
       </c>
       <c r="F118" s="308">
         <v>24785</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" thickBot="1">
-      <c r="A119" s="424" t="s">
+    <row r="119" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A119" s="420" t="s">
         <v>335</v>
       </c>
       <c r="B119" s="306">
@@ -12247,10 +12330,10 @@
       <c r="C119" s="306" t="s">
         <v>163</v>
       </c>
-      <c r="D119" s="409">
+      <c r="D119" s="405">
         <v>10</v>
       </c>
-      <c r="E119" s="409">
+      <c r="E119" s="405">
         <v>45.5</v>
       </c>
       <c r="F119" s="308">
@@ -12258,22 +12341,22 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="415" t="s">
+      <c r="A120" s="411" t="s">
         <v>336</v>
       </c>
-      <c r="B120" s="412">
+      <c r="B120" s="408">
         <v>2020</v>
       </c>
-      <c r="C120" s="412" t="s">
+      <c r="C120" s="408" t="s">
         <v>165</v>
       </c>
-      <c r="D120" s="413">
+      <c r="D120" s="409">
         <v>12.544429805299371</v>
       </c>
-      <c r="E120" s="413">
+      <c r="E120" s="409">
         <v>52.76694481042307</v>
       </c>
-      <c r="F120" s="416">
+      <c r="F120" s="412">
         <v>62333</v>
       </c>
       <c r="G120" t="s">
@@ -12281,327 +12364,327 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="417" t="s">
+      <c r="A121" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="B121" s="410">
+      <c r="B121" s="406">
         <v>2020</v>
       </c>
-      <c r="C121" s="410" t="s">
+      <c r="C121" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="D121" s="411">
+      <c r="D121" s="407">
         <v>12.544429805299371</v>
       </c>
-      <c r="E121" s="411">
+      <c r="E121" s="407">
         <v>52.76694481042307</v>
       </c>
-      <c r="F121" s="418">
+      <c r="F121" s="414">
         <v>62333</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="417" t="s">
+      <c r="A122" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="B122" s="410">
+      <c r="B122" s="406">
         <v>2030</v>
       </c>
-      <c r="C122" s="410" t="s">
+      <c r="C122" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="411">
+      <c r="D122" s="407">
         <v>19.835315937579942</v>
       </c>
-      <c r="E122" s="411">
+      <c r="E122" s="407">
         <v>55.77441481197237</v>
       </c>
-      <c r="F122" s="418">
+      <c r="F122" s="414">
         <v>62333</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="417" t="s">
+      <c r="A123" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="B123" s="410">
+      <c r="B123" s="406">
         <v>2030</v>
       </c>
-      <c r="C123" s="410" t="s">
+      <c r="C123" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="D123" s="411">
+      <c r="D123" s="407">
         <v>17.843598106932717</v>
       </c>
-      <c r="E123" s="411">
+      <c r="E123" s="407">
         <v>55.77441481197237</v>
       </c>
-      <c r="F123" s="418">
+      <c r="F123" s="414">
         <v>62333</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="417" t="s">
+      <c r="A124" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="B124" s="410">
+      <c r="B124" s="406">
         <v>2040</v>
       </c>
-      <c r="C124" s="410" t="s">
+      <c r="C124" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="D124" s="411">
+      <c r="D124" s="407">
         <v>20.320353581394002</v>
       </c>
-      <c r="E124" s="411">
+      <c r="E124" s="407">
         <v>51.80908534352119</v>
       </c>
-      <c r="F124" s="418">
+      <c r="F124" s="414">
         <v>62333</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="417" t="s">
+      <c r="A125" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="B125" s="410">
+      <c r="B125" s="406">
         <v>2040</v>
       </c>
-      <c r="C125" s="410" t="s">
+      <c r="C125" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="D125" s="411">
+      <c r="D125" s="407">
         <v>17.873060183554756</v>
       </c>
-      <c r="E125" s="411">
+      <c r="E125" s="407">
         <v>51.80908534352119</v>
       </c>
-      <c r="F125" s="418">
+      <c r="F125" s="414">
         <v>62333</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="417" t="s">
+      <c r="A126" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="B126" s="410">
+      <c r="B126" s="406">
         <v>2050</v>
       </c>
-      <c r="C126" s="410" t="s">
+      <c r="C126" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="D126" s="411">
+      <c r="D126" s="407">
         <v>17.944291633606625</v>
       </c>
-      <c r="E126" s="411">
+      <c r="E126" s="407">
         <v>45.653953098827472</v>
       </c>
-      <c r="F126" s="418">
+      <c r="F126" s="414">
         <v>62333</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" thickBot="1">
-      <c r="A127" s="419" t="s">
+    <row r="127" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A127" s="415" t="s">
         <v>336</v>
       </c>
-      <c r="B127" s="414">
+      <c r="B127" s="410">
         <v>2050</v>
       </c>
-      <c r="C127" s="414" t="s">
+      <c r="C127" s="410" t="s">
         <v>163</v>
       </c>
-      <c r="D127" s="420">
+      <c r="D127" s="416">
         <v>11.058485409503657</v>
       </c>
-      <c r="E127" s="420">
+      <c r="E127" s="416">
         <v>45.653953098827472</v>
       </c>
-      <c r="F127" s="418">
+      <c r="F127" s="414">
         <v>62333</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="415" t="s">
+      <c r="A128" s="411" t="s">
         <v>337</v>
       </c>
-      <c r="B128" s="412">
+      <c r="B128" s="408">
         <v>2020</v>
       </c>
-      <c r="C128" s="412" t="s">
+      <c r="C128" s="408" t="s">
         <v>165</v>
       </c>
-      <c r="D128" s="413">
+      <c r="D128" s="409">
         <v>10.974603840906706</v>
       </c>
-      <c r="E128" s="413">
+      <c r="E128" s="409">
         <v>70.585538881309688</v>
       </c>
-      <c r="F128" s="416">
+      <c r="F128" s="412">
         <v>67830</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="417" t="s">
+      <c r="A129" s="413" t="s">
         <v>337</v>
       </c>
-      <c r="B129" s="410">
+      <c r="B129" s="406">
         <v>2020</v>
       </c>
-      <c r="C129" s="410" t="s">
+      <c r="C129" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="411">
+      <c r="D129" s="407">
         <v>10.974603840906706</v>
       </c>
-      <c r="E129" s="411">
+      <c r="E129" s="407">
         <v>70.585538881309688</v>
       </c>
-      <c r="F129" s="418">
+      <c r="F129" s="414">
         <v>67830</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="417" t="s">
+      <c r="A130" s="413" t="s">
         <v>337</v>
       </c>
-      <c r="B130" s="410">
+      <c r="B130" s="406">
         <v>2030</v>
       </c>
-      <c r="C130" s="410" t="s">
+      <c r="C130" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="D130" s="411">
+      <c r="D130" s="407">
         <v>17.815499153976315</v>
       </c>
-      <c r="E130" s="411">
+      <c r="E130" s="407">
         <v>64.692987443227366</v>
       </c>
-      <c r="F130" s="418">
+      <c r="F130" s="414">
         <v>67830</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="417" t="s">
+      <c r="A131" s="413" t="s">
         <v>337</v>
       </c>
-      <c r="B131" s="410">
+      <c r="B131" s="406">
         <v>2030</v>
       </c>
-      <c r="C131" s="410" t="s">
+      <c r="C131" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="D131" s="411">
+      <c r="D131" s="407">
         <v>16.22362098138748</v>
       </c>
-      <c r="E131" s="411">
+      <c r="E131" s="407">
         <v>64.692987443227366</v>
       </c>
-      <c r="F131" s="418">
+      <c r="F131" s="414">
         <v>67830</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="417" t="s">
+      <c r="A132" s="413" t="s">
         <v>337</v>
       </c>
-      <c r="B132" s="410">
+      <c r="B132" s="406">
         <v>2040</v>
       </c>
-      <c r="C132" s="410" t="s">
+      <c r="C132" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="D132" s="411">
+      <c r="D132" s="407">
         <v>17.583434029809265</v>
       </c>
-      <c r="E132" s="411">
+      <c r="E132" s="407">
         <v>54.547696511431404</v>
       </c>
-      <c r="F132" s="418">
+      <c r="F132" s="414">
         <v>67830</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="417" t="s">
+      <c r="A133" s="413" t="s">
         <v>337</v>
       </c>
-      <c r="B133" s="410">
+      <c r="B133" s="406">
         <v>2040</v>
       </c>
-      <c r="C133" s="410" t="s">
+      <c r="C133" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="D133" s="411">
+      <c r="D133" s="407">
         <v>15.120870334576775</v>
       </c>
-      <c r="E133" s="411">
+      <c r="E133" s="407">
         <v>54.547696511431404</v>
       </c>
-      <c r="F133" s="418">
+      <c r="F133" s="414">
         <v>67830</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="417" t="s">
+      <c r="A134" s="413" t="s">
         <v>337</v>
       </c>
-      <c r="B134" s="410">
+      <c r="B134" s="406">
         <v>2050</v>
       </c>
-      <c r="C134" s="410" t="s">
+      <c r="C134" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="D134" s="411">
+      <c r="D134" s="407">
         <v>16.88890406995435</v>
       </c>
-      <c r="E134" s="411">
+      <c r="E134" s="407">
         <v>51.434075490033521</v>
       </c>
-      <c r="F134" s="418">
+      <c r="F134" s="414">
         <v>67830</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" thickBot="1">
-      <c r="A135" s="419" t="s">
+    <row r="135" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A135" s="415" t="s">
         <v>337</v>
       </c>
-      <c r="B135" s="414">
+      <c r="B135" s="410">
         <v>2050</v>
       </c>
-      <c r="C135" s="414" t="s">
+      <c r="C135" s="410" t="s">
         <v>163</v>
       </c>
-      <c r="D135" s="420">
+      <c r="D135" s="416">
         <v>10.611521892882401</v>
       </c>
-      <c r="E135" s="420">
+      <c r="E135" s="416">
         <v>51.434075490033521</v>
       </c>
-      <c r="F135" s="421">
+      <c r="F135" s="417">
         <v>67830</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="434" t="s">
+      <c r="A136" s="430" t="s">
         <v>346</v>
       </c>
-      <c r="B136" s="405">
+      <c r="B136" s="401">
         <v>2050</v>
       </c>
-      <c r="C136" s="405" t="s">
+      <c r="C136" s="401" t="s">
         <v>163</v>
       </c>
-      <c r="D136" s="406">
+      <c r="D136" s="402">
         <v>16.647024667781665</v>
       </c>
-      <c r="E136" s="406">
+      <c r="E136" s="402">
         <v>121.63600425726014</v>
       </c>
-      <c r="F136" s="408">
+      <c r="F136" s="404">
         <v>71164</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="428" t="s">
+      <c r="A137" s="424" t="s">
         <v>347</v>
       </c>
       <c r="B137" s="280">
@@ -12610,10 +12693,10 @@
       <c r="C137" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D137" s="407">
+      <c r="D137" s="403">
         <v>15.637100991137146</v>
       </c>
-      <c r="E137" s="407">
+      <c r="E137" s="403">
         <v>124.68078714135495</v>
       </c>
       <c r="F137" s="308">
@@ -12621,7 +12704,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="429" t="s">
+      <c r="A138" s="425" t="s">
         <v>348</v>
       </c>
       <c r="B138" s="280">
@@ -12630,10 +12713,10 @@
       <c r="C138" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D138" s="407">
+      <c r="D138" s="403">
         <v>13.436144814859556</v>
       </c>
-      <c r="E138" s="407">
+      <c r="E138" s="403">
         <v>113.25883418906673</v>
       </c>
       <c r="F138" s="308">
@@ -12641,7 +12724,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="430" t="s">
+      <c r="A139" s="426" t="s">
         <v>349</v>
       </c>
       <c r="B139" s="280">
@@ -12650,10 +12733,10 @@
       <c r="C139" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D139" s="407">
+      <c r="D139" s="403">
         <v>12.648273326896968</v>
       </c>
-      <c r="E139" s="407">
+      <c r="E139" s="403">
         <v>105.59662090813094</v>
       </c>
       <c r="F139" s="308">
@@ -12661,7 +12744,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="431" t="s">
+      <c r="A140" s="427" t="s">
         <v>350</v>
       </c>
       <c r="B140" s="280">
@@ -12670,10 +12753,10 @@
       <c r="C140" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D140" s="407">
+      <c r="D140" s="403">
         <v>11.269855080090496</v>
       </c>
-      <c r="E140" s="407">
+      <c r="E140" s="403">
         <v>98.039215686274503</v>
       </c>
       <c r="F140" s="308">
@@ -12681,7 +12764,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="432" t="s">
+      <c r="A141" s="428" t="s">
         <v>351</v>
       </c>
       <c r="B141" s="280">
@@ -12690,10 +12773,10 @@
       <c r="C141" s="280" t="s">
         <v>163</v>
       </c>
-      <c r="D141" s="407">
+      <c r="D141" s="403">
         <v>10.341935985601697</v>
       </c>
-      <c r="E141" s="407">
+      <c r="E141" s="403">
         <v>96.999090633525313</v>
       </c>
       <c r="F141" s="308">
@@ -12701,7 +12784,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="427" t="s">
+      <c r="A142" s="423" t="s">
         <v>346</v>
       </c>
       <c r="B142" s="280">
@@ -12710,10 +12793,10 @@
       <c r="C142" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D142" s="407">
+      <c r="D142" s="403">
         <v>22.441475932035882</v>
       </c>
-      <c r="E142" s="407">
+      <c r="E142" s="403">
         <v>121.63600425726014</v>
       </c>
       <c r="F142" s="308">
@@ -12722,7 +12805,7 @@
       <c r="G142" s="20"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="428" t="s">
+      <c r="A143" s="424" t="s">
         <v>347</v>
       </c>
       <c r="B143" s="280">
@@ -12731,10 +12814,10 @@
       <c r="C143" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D143" s="407">
+      <c r="D143" s="403">
         <v>20.982105466876973</v>
       </c>
-      <c r="E143" s="407">
+      <c r="E143" s="403">
         <v>124.68078714135495</v>
       </c>
       <c r="F143" s="308">
@@ -12743,7 +12826,7 @@
       <c r="G143" s="20"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="429" t="s">
+      <c r="A144" s="425" t="s">
         <v>348</v>
       </c>
       <c r="B144" s="280">
@@ -12752,10 +12835,10 @@
       <c r="C144" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D144" s="407">
+      <c r="D144" s="403">
         <v>17.560379640440953</v>
       </c>
-      <c r="E144" s="407">
+      <c r="E144" s="403">
         <v>113.25883418906673</v>
       </c>
       <c r="F144" s="308">
@@ -12764,7 +12847,7 @@
       <c r="G144" s="20"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="430" t="s">
+      <c r="A145" s="426" t="s">
         <v>349</v>
       </c>
       <c r="B145" s="280">
@@ -12773,10 +12856,10 @@
       <c r="C145" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D145" s="407">
+      <c r="D145" s="403">
         <v>16.695810586438377</v>
       </c>
-      <c r="E145" s="407">
+      <c r="E145" s="403">
         <v>105.59662090813094</v>
       </c>
       <c r="F145" s="308">
@@ -12785,7 +12868,7 @@
       <c r="G145" s="20"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="431" t="s">
+      <c r="A146" s="427" t="s">
         <v>350</v>
       </c>
       <c r="B146" s="280">
@@ -12794,10 +12877,10 @@
       <c r="C146" s="280" t="s">
         <v>165</v>
       </c>
-      <c r="D146" s="407">
+      <c r="D146" s="403">
         <v>14.720021943438915</v>
       </c>
-      <c r="E146" s="407">
+      <c r="E146" s="403">
         <v>98.039215686274503</v>
       </c>
       <c r="F146" s="308">
@@ -12805,8 +12888,8 @@
       </c>
       <c r="G146" s="20"/>
     </row>
-    <row r="147" spans="1:7" ht="15" thickBot="1">
-      <c r="A147" s="433" t="s">
+    <row r="147" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A147" s="429" t="s">
         <v>351</v>
       </c>
       <c r="B147" s="306">
@@ -12815,24 +12898,24 @@
       <c r="C147" s="306" t="s">
         <v>165</v>
       </c>
-      <c r="D147" s="409">
+      <c r="D147" s="405">
         <v>13.193116607381025</v>
       </c>
-      <c r="E147" s="409">
+      <c r="E147" s="405">
         <v>96.999090633525313</v>
       </c>
       <c r="F147" s="310">
         <v>71164</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" thickBot="1">
+    <row r="150" spans="1:7" ht="15.75" thickBot="1">
       <c r="A150" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B151" s="17">
         <v>2019</v>
@@ -12849,12 +12932,12 @@
         <v>363</v>
       </c>
       <c r="G151" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B152" s="20">
         <v>2019</v>
@@ -12869,10 +12952,10 @@
       </c>
       <c r="F152" s="21"/>
       <c r="G152" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1">
       <c r="A153" s="22" t="s">
         <v>361</v>
       </c>
@@ -12891,7 +12974,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="280" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B154" s="280">
         <v>2019</v>
@@ -12927,6 +13010,112 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFC9A2-5CA9-43A8-90DC-EC81B9F357D1}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="435" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="444" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="444" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="445" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="446">
+        <f>Liquefaction!A15</f>
+        <v>6.6234460426675756</v>
+      </c>
+      <c r="C4" s="446">
+        <f>Liquefaction!C15</f>
+        <v>898.71175410670628</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="446">
+        <f>Liquefaction!A16</f>
+        <v>7.5419409122863197</v>
+      </c>
+      <c r="C5" s="446">
+        <f>Liquefaction!C16</f>
+        <v>1457.3319410253862</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="447">
+        <f>Liquefaction!A17</f>
+        <v>11.05947017021135</v>
+      </c>
+      <c r="C6" s="447">
+        <f>Liquefaction!C17</f>
+        <v>2248.1722603411317</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB8E62-6909-4AFE-A3D7-87E22BB963C2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12934,17 +13123,17 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12952,9 +13141,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" s="280"/>
       <c r="C2" s="280"/>
@@ -12965,22 +13154,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="F3" s="458" t="s">
-        <v>399</v>
+      <c r="F3" s="454" t="s">
+        <v>398</v>
       </c>
       <c r="G3" s="280"/>
     </row>
@@ -12988,21 +13177,21 @@
       <c r="A4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="450">
-        <f>PtL!O36</f>
+      <c r="B4" s="446">
+        <f>PtL!O38</f>
         <v>3.18508162745024</v>
       </c>
-      <c r="C4" s="336">
-        <f>PtL!P36</f>
+      <c r="C4" s="332">
+        <f>PtL!P38</f>
         <v>21.872206563977958</v>
       </c>
-      <c r="D4" s="387">
-        <f>PtL!Q36</f>
-        <v>1677.9075954240034</v>
-      </c>
-      <c r="E4" s="450">
-        <f>PtL!R36</f>
-        <v>0.30859827670034085</v>
+      <c r="D4" s="383">
+        <f>PtL!Q38</f>
+        <v>510.12731481481478</v>
+      </c>
+      <c r="E4" s="446">
+        <f>PtL!R38</f>
+        <v>0.2518853677463927</v>
       </c>
       <c r="F4" s="308">
         <v>0.13400000000000001</v>
@@ -13013,21 +13202,21 @@
       <c r="A5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="450">
-        <f>PtL!O37</f>
+      <c r="B5" s="446">
+        <f>PtL!O39</f>
         <v>4.4689655172413794</v>
       </c>
-      <c r="C5" s="336">
-        <f>PtL!P37</f>
+      <c r="C5" s="332">
+        <f>PtL!P39</f>
         <v>22.885457189258602</v>
       </c>
-      <c r="D5" s="387">
-        <f>PtL!Q37</f>
-        <v>2311.4687473523682</v>
-      </c>
-      <c r="E5" s="450">
-        <f>PtL!R37</f>
-        <v>0.38222222222222224</v>
+      <c r="D5" s="383">
+        <f>PtL!Q39</f>
+        <v>1528.3978666956059</v>
+      </c>
+      <c r="E5" s="446">
+        <f>PtL!R39</f>
+        <v>0.37225487299573168</v>
       </c>
       <c r="F5" s="308">
         <f>F4+F6/2</f>
@@ -13035,25 +13224,25 @@
       </c>
       <c r="G5" s="280"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="451">
-        <f>PtL!O38</f>
+      <c r="B6" s="447">
+        <f>PtL!O40</f>
         <v>5.3709999999999996</v>
       </c>
-      <c r="C6" s="337">
-        <f>PtL!P38</f>
+      <c r="C6" s="333">
+        <f>PtL!P40</f>
         <v>27.504827586206897</v>
       </c>
-      <c r="D6" s="388">
-        <f>PtL!Q38</f>
-        <v>4547.8751782738855</v>
-      </c>
-      <c r="E6" s="451">
-        <f>PtL!R38</f>
-        <v>0.50783453966911463</v>
+      <c r="D6" s="384">
+        <f>PtL!Q40</f>
+        <v>2496.500713095541</v>
+      </c>
+      <c r="E6" s="447">
+        <f>PtL!R40</f>
+        <v>0.42409299470451967</v>
       </c>
       <c r="F6" s="310">
         <v>0.34200000000000003</v>
@@ -13146,33 +13335,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26F017-CC42-450F-80A8-08EC0C761360}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="Q2" s="329"/>
-      <c r="R2" s="329"/>
-      <c r="S2" s="329"/>
-      <c r="T2" s="329"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="Q2" s="325"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="325"/>
+      <c r="T2" s="325"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="296" t="s">
@@ -13320,12 +13509,12 @@
       <c r="P6" s="297"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="329" t="s">
+      <c r="A7" s="325" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="329"/>
-      <c r="C7" s="329"/>
-      <c r="D7" s="329"/>
+      <c r="B7" s="325"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="296" t="s">
@@ -13579,7 +13768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D296CB4A-CF45-4286-BF69-0D6C9ADD9FC9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -13587,17 +13776,17 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="A1:J16"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -13629,7 +13818,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -13666,25 +13855,25 @@
       <c r="C3" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="518">
+      <c r="D3" s="471">
         <v>60.0456</v>
       </c>
-      <c r="E3" s="518">
+      <c r="E3" s="471">
         <v>57.543699999999994</v>
       </c>
-      <c r="F3" s="518">
+      <c r="F3" s="471">
         <v>56.042559999999995</v>
       </c>
-      <c r="G3" s="518">
+      <c r="G3" s="471">
         <v>55.041800000000002</v>
       </c>
-      <c r="H3" s="518">
+      <c r="H3" s="471">
         <v>54.041039999999995</v>
       </c>
-      <c r="I3" s="518">
+      <c r="I3" s="471">
         <v>53.540659999999995</v>
       </c>
-      <c r="J3" s="518">
+      <c r="J3" s="471">
         <v>53.040280000000003</v>
       </c>
     </row>
@@ -13698,25 +13887,25 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="518">
+      <c r="D4" s="471">
         <v>51.038759999999996</v>
       </c>
-      <c r="E4" s="518">
+      <c r="E4" s="471">
         <v>50.037999999999997</v>
       </c>
-      <c r="F4" s="518">
+      <c r="F4" s="471">
         <v>49.287430000000001</v>
       </c>
-      <c r="G4" s="518">
+      <c r="G4" s="471">
         <v>48.912144999999995</v>
       </c>
-      <c r="H4" s="518">
+      <c r="H4" s="471">
         <v>48.536859999999997</v>
       </c>
-      <c r="I4" s="518">
+      <c r="I4" s="471">
         <v>48.286669999999994</v>
       </c>
-      <c r="J4" s="518">
+      <c r="J4" s="471">
         <v>48.036479999999997</v>
       </c>
     </row>
@@ -13730,25 +13919,25 @@
       <c r="C5" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="518">
+      <c r="D5" s="471">
         <v>49.037239999999997</v>
       </c>
-      <c r="E5" s="518">
+      <c r="E5" s="471">
         <v>48.036479999999997</v>
       </c>
-      <c r="F5" s="518">
+      <c r="F5" s="471">
         <v>47.536099999999998</v>
       </c>
-      <c r="G5" s="518">
+      <c r="G5" s="471">
         <v>47.285910000000001</v>
       </c>
-      <c r="H5" s="518">
+      <c r="H5" s="471">
         <v>47.035719999999998</v>
       </c>
-      <c r="I5" s="518">
+      <c r="I5" s="471">
         <v>47.035719999999998</v>
       </c>
-      <c r="J5" s="518">
+      <c r="J5" s="471">
         <v>47.035719999999998</v>
       </c>
     </row>
@@ -13759,25 +13948,25 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="518">
+      <c r="D6" s="471">
         <v>30</v>
       </c>
-      <c r="E6" s="518">
+      <c r="E6" s="471">
         <v>30</v>
       </c>
-      <c r="F6" s="518">
+      <c r="F6" s="471">
         <v>30</v>
       </c>
-      <c r="G6" s="518">
+      <c r="G6" s="471">
         <v>30</v>
       </c>
-      <c r="H6" s="518">
+      <c r="H6" s="471">
         <v>30</v>
       </c>
-      <c r="I6" s="518">
+      <c r="I6" s="471">
         <v>30</v>
       </c>
-      <c r="J6" s="518">
+      <c r="J6" s="471">
         <v>30</v>
       </c>
     </row>
@@ -13791,25 +13980,25 @@
       <c r="C7" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="518">
+      <c r="D7" s="471">
         <v>499.30196695515349</v>
       </c>
-      <c r="E7" s="518">
+      <c r="E7" s="471">
         <v>396.82541306058221</v>
       </c>
-      <c r="F7" s="518">
+      <c r="F7" s="471">
         <v>337.90361919748233</v>
       </c>
-      <c r="G7" s="518">
+      <c r="G7" s="471">
         <v>320.222974036192</v>
       </c>
-      <c r="H7" s="518">
+      <c r="H7" s="471">
         <v>302.71345397324944</v>
       </c>
-      <c r="I7" s="518">
+      <c r="I7" s="471">
         <v>298.1957513768686</v>
       </c>
-      <c r="J7" s="518">
+      <c r="J7" s="471">
         <v>293.67804878048781</v>
       </c>
     </row>
@@ -13823,25 +14012,25 @@
       <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="518">
+      <c r="D8" s="471">
         <v>588.3212431156569</v>
       </c>
-      <c r="E8" s="518">
+      <c r="E8" s="471">
         <v>509.49417781274587</v>
       </c>
-      <c r="F8" s="518">
+      <c r="F8" s="471">
         <v>459.24500393391025</v>
       </c>
-      <c r="G8" s="518">
+      <c r="G8" s="471">
         <v>446.34901652242337</v>
       </c>
-      <c r="H8" s="518">
+      <c r="H8" s="471">
         <v>433.59677419354841</v>
       </c>
-      <c r="I8" s="518">
+      <c r="I8" s="471">
         <v>426.72439024390241</v>
       </c>
-      <c r="J8" s="518">
+      <c r="J8" s="471">
         <v>419.8999213217939</v>
       </c>
     </row>
@@ -13855,25 +14044,25 @@
       <c r="C9" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="518">
+      <c r="D9" s="471">
         <v>807.49826907946499</v>
       </c>
-      <c r="E9" s="518">
+      <c r="E9" s="471">
         <v>707.52698662470493</v>
       </c>
-      <c r="F9" s="518">
+      <c r="F9" s="471">
         <v>667.53162863886701</v>
       </c>
-      <c r="G9" s="518">
+      <c r="G9" s="471">
         <v>645.03894571203784</v>
       </c>
-      <c r="H9" s="518">
+      <c r="H9" s="471">
         <v>622.92958300550754</v>
       </c>
-      <c r="I9" s="518">
+      <c r="I9" s="471">
         <v>612.01864673485443</v>
       </c>
-      <c r="J9" s="518">
+      <c r="J9" s="471">
         <v>601.2035405192762</v>
       </c>
     </row>
@@ -13887,25 +14076,25 @@
       <c r="C10" t="s">
         <v>238</v>
       </c>
-      <c r="D10" s="518">
+      <c r="D10" s="471">
         <v>533.07289346501364</v>
       </c>
-      <c r="E10" s="518">
+      <c r="E10" s="471">
         <v>430.06015864677448</v>
       </c>
-      <c r="F10" s="518">
+      <c r="F10" s="471">
         <v>355.1418060516915</v>
       </c>
-      <c r="G10" s="518">
+      <c r="G10" s="471">
         <v>295.3511977306157</v>
       </c>
-      <c r="H10" s="518">
+      <c r="H10" s="471">
         <v>260.77349653288508</v>
       </c>
-      <c r="I10" s="518">
+      <c r="I10" s="471">
         <v>233.39948308468163</v>
       </c>
-      <c r="J10" s="518">
+      <c r="J10" s="471">
         <v>209.62731351124185</v>
       </c>
     </row>
@@ -14074,7 +14263,7 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -14106,41 +14295,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03ED4D2-F1D1-4658-B74E-E71729BD2765}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="515" t="s">
+      <c r="A1" s="508" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="515"/>
+      <c r="B1" s="508"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="291" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21">
-      <c r="A5" s="515" t="s">
+      <c r="A5" s="508" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="515"/>
+      <c r="B5" s="508"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -14162,7 +14351,7 @@
       <c r="A8" t="s">
         <v>216</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="291" t="s">
         <v>368</v>
       </c>
     </row>
@@ -14171,20 +14360,20 @@
         <v>224</v>
       </c>
       <c r="B9" s="291" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
-      <c r="A18" s="515" t="s">
+      <c r="A18" s="508" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="515"/>
+      <c r="B18" s="508"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="291" t="s">
         <v>208</v>
       </c>
       <c r="C19" t="s">
@@ -14234,11 +14423,19 @@
         <v>144</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="291" t="s">
+        <v>413</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" ht="21">
-      <c r="A29" s="515" t="s">
+      <c r="A29" s="508" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="515" t="s">
+      <c r="B29" s="508" t="s">
         <v>153</v>
       </c>
     </row>
@@ -14246,11 +14443,11 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="516" t="s">
+      <c r="B30" s="509" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="517"/>
-      <c r="D30" s="517"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
@@ -14300,8 +14497,55 @@
         <v>365</v>
       </c>
     </row>
+    <row r="40" spans="1:2" ht="21">
+      <c r="A40" s="508" t="s">
+        <v>427</v>
+      </c>
+      <c r="B40" s="508"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="291" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="291" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="291" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="291" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
@@ -14319,13 +14563,139 @@
     <hyperlink ref="B22" r:id="rId8" xr:uid="{F2AFD795-622D-4E44-91F9-8056031B4EA6}"/>
     <hyperlink ref="B23" r:id="rId9" xr:uid="{6C0D9118-0025-4752-B80E-37DE23859B49}"/>
     <hyperlink ref="B24" r:id="rId10" location="133_SynKost_EN_gesamt.indd%3AAnker%20154%3A1377" xr:uid="{811321C0-750E-4AFB-8780-504606212E5A}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{881C8292-F079-4ED5-AD4A-83D8C93CA5B5}"/>
+    <hyperlink ref="B25" r:id="rId12" display="https://www.nature.com/articles/s41558-021-01032-7" xr:uid="{CB0AC2AD-EC48-4D24-8CA3-5DBA910A550E}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{2CE317FC-1404-4488-A976-077FD6AAE1EC}"/>
+    <hyperlink ref="B2" r:id="rId14" xr:uid="{3A9EFA5F-8BD5-4CDA-B90B-ADED56F184F2}"/>
+    <hyperlink ref="B41" r:id="rId15" display="https://www.nature.com/articles/s41558-021-01032-7" xr:uid="{6A34D3F8-3CC7-4ED7-A65C-F770921320C7}"/>
+    <hyperlink ref="B43" r:id="rId16" location="sec3" xr:uid="{61A657FD-D482-4606-8C11-14C9D6C7F16F}"/>
+    <hyperlink ref="B44" r:id="rId17" xr:uid="{56967096-A0E3-4E0F-86D6-5AFC2E31A69B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD8C5B-5048-458A-A041-7369E8B77BFA}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2">
+        <v>460</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3">
+        <f>341/Monetary!$V$4</f>
+        <v>299.12280701754389</v>
+      </c>
+      <c r="F3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4">
+        <f>335/Monetary!$V$4</f>
+        <v>293.85964912280707</v>
+      </c>
+      <c r="C4">
+        <f>100/Monetary!$V$4</f>
+        <v>87.719298245614041</v>
+      </c>
+      <c r="D4">
+        <f>100/Monetary!$V$4</f>
+        <v>87.719298245614041</v>
+      </c>
+      <c r="F4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5">
+        <f>600/Monetary!$V$4</f>
+        <v>526.31578947368428</v>
+      </c>
+      <c r="D5">
+        <f>100/Monetary!$V$4</f>
+        <v>87.719298245614041</v>
+      </c>
+      <c r="F5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6">
+        <f>1000/Monetary!$V$4</f>
+        <v>877.19298245614038</v>
+      </c>
+      <c r="D6">
+        <f>300/Monetary!$V$4</f>
+        <v>263.15789473684214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C86A3-D003-4BE0-8099-A310892599D2}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -14336,22 +14706,22 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="27" customWidth="1"/>
-    <col min="5" max="24" width="8.44140625" style="27" customWidth="1"/>
-    <col min="25" max="64" width="7.5546875" style="27" customWidth="1"/>
-    <col min="65" max="65" width="8.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="66" max="69" width="8.33203125" style="27" customWidth="1"/>
-    <col min="70" max="74" width="8.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="75" max="102" width="5.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="8.88671875" style="29"/>
+    <col min="5" max="24" width="8.42578125" style="27" customWidth="1"/>
+    <col min="25" max="64" width="7.5703125" style="27" customWidth="1"/>
+    <col min="65" max="65" width="8.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="66" max="69" width="8.28515625" style="27" customWidth="1"/>
+    <col min="70" max="74" width="8.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="75" max="102" width="5.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="13.8" thickBot="1">
+    <row r="1" spans="1:102" ht="13.5" thickBot="1">
       <c r="A1" s="25" t="s">
         <v>369</v>
       </c>
@@ -15436,10 +15806,10 @@
       <c r="CX6" s="68"/>
     </row>
     <row r="7" spans="1:102">
-      <c r="A7" s="488" t="s">
+      <c r="A7" s="487" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="489" t="s">
+      <c r="B7" s="488" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -15556,8 +15926,8 @@
       <c r="CX7" s="68"/>
     </row>
     <row r="8" spans="1:102">
-      <c r="A8" s="486"/>
-      <c r="B8" s="489"/>
+      <c r="A8" s="485"/>
+      <c r="B8" s="488"/>
       <c r="C8" s="36" t="s">
         <v>52</v>
       </c>
@@ -15772,8 +16142,8 @@
       <c r="CX8" s="68"/>
     </row>
     <row r="9" spans="1:102">
-      <c r="A9" s="486"/>
-      <c r="B9" s="489"/>
+      <c r="A9" s="485"/>
+      <c r="B9" s="488"/>
       <c r="C9" s="36" t="s">
         <v>53</v>
       </c>
@@ -15888,10 +16258,10 @@
       <c r="CX9" s="68"/>
     </row>
     <row r="10" spans="1:102">
-      <c r="A10" s="488" t="s">
+      <c r="A10" s="487" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="489" t="s">
+      <c r="B10" s="488" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -16036,8 +16406,8 @@
       <c r="CX10" s="68"/>
     </row>
     <row r="11" spans="1:102">
-      <c r="A11" s="488"/>
-      <c r="B11" s="487"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="486"/>
       <c r="C11" s="36" t="s">
         <v>52</v>
       </c>
@@ -16232,8 +16602,8 @@
       <c r="CX11" s="68"/>
     </row>
     <row r="12" spans="1:102">
-      <c r="A12" s="488"/>
-      <c r="B12" s="487"/>
+      <c r="A12" s="487"/>
+      <c r="B12" s="486"/>
       <c r="C12" s="36" t="s">
         <v>53</v>
       </c>
@@ -16622,10 +16992,10 @@
       <c r="CX13" s="121"/>
     </row>
     <row r="14" spans="1:102">
-      <c r="A14" s="486" t="s">
+      <c r="A14" s="485" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="487" t="s">
+      <c r="B14" s="486" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -16774,8 +17144,8 @@
       <c r="CX14" s="51"/>
     </row>
     <row r="15" spans="1:102">
-      <c r="A15" s="486"/>
-      <c r="B15" s="487"/>
+      <c r="A15" s="485"/>
+      <c r="B15" s="486"/>
       <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
@@ -17022,8 +17392,8 @@
       <c r="CX15" s="29"/>
     </row>
     <row r="16" spans="1:102">
-      <c r="A16" s="486"/>
-      <c r="B16" s="487"/>
+      <c r="A16" s="485"/>
+      <c r="B16" s="486"/>
       <c r="C16" s="36" t="s">
         <v>53</v>
       </c>
@@ -17416,7 +17786,7 @@
       <c r="CX17" s="51"/>
     </row>
     <row r="18" spans="1:102">
-      <c r="A18" s="488" t="s">
+      <c r="A18" s="487" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -17668,7 +18038,7 @@
       <c r="CX18" s="138"/>
     </row>
     <row r="19" spans="1:102">
-      <c r="A19" s="488"/>
+      <c r="A19" s="487"/>
       <c r="B19" s="35" t="s">
         <v>47</v>
       </c>
@@ -17918,7 +18288,7 @@
       <c r="CX19" s="138"/>
     </row>
     <row r="20" spans="1:102">
-      <c r="A20" s="488"/>
+      <c r="A20" s="487"/>
       <c r="B20" s="35" t="s">
         <v>47</v>
       </c>
@@ -18168,10 +18538,10 @@
       <c r="CX20" s="138"/>
     </row>
     <row r="21" spans="1:102" s="140" customFormat="1">
-      <c r="A21" s="486" t="s">
+      <c r="A21" s="485" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="487" t="s">
+      <c r="B21" s="486" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -18320,8 +18690,8 @@
       <c r="CX21" s="51"/>
     </row>
     <row r="22" spans="1:102" s="140" customFormat="1">
-      <c r="A22" s="486"/>
-      <c r="B22" s="487"/>
+      <c r="A22" s="485"/>
+      <c r="B22" s="486"/>
       <c r="C22" s="36" t="s">
         <v>52</v>
       </c>
@@ -18566,8 +18936,8 @@
       <c r="CV22" s="51"/>
     </row>
     <row r="23" spans="1:102" s="140" customFormat="1">
-      <c r="A23" s="486"/>
-      <c r="B23" s="487"/>
+      <c r="A23" s="485"/>
+      <c r="B23" s="486"/>
       <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
@@ -18714,10 +19084,10 @@
       <c r="CX23" s="51"/>
     </row>
     <row r="24" spans="1:102">
-      <c r="A24" s="486" t="s">
+      <c r="A24" s="485" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="487" t="s">
+      <c r="B24" s="486" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -18862,8 +19232,8 @@
       <c r="CX24" s="51"/>
     </row>
     <row r="25" spans="1:102">
-      <c r="A25" s="486"/>
-      <c r="B25" s="487"/>
+      <c r="A25" s="485"/>
+      <c r="B25" s="486"/>
       <c r="C25" s="36" t="s">
         <v>52</v>
       </c>
@@ -19107,8 +19477,8 @@
       <c r="CX25" s="51"/>
     </row>
     <row r="26" spans="1:102">
-      <c r="A26" s="486"/>
-      <c r="B26" s="487"/>
+      <c r="A26" s="485"/>
+      <c r="B26" s="486"/>
       <c r="C26" s="36" t="s">
         <v>53</v>
       </c>
@@ -19250,7 +19620,7 @@
       <c r="CW26" s="51"/>
       <c r="CX26" s="51"/>
     </row>
-    <row r="27" spans="1:102" ht="13.8" thickBot="1">
+    <row r="27" spans="1:102" ht="13.5" thickBot="1">
       <c r="A27" s="169" t="s">
         <v>69</v>
       </c>
@@ -19568,7 +19938,7 @@
       <c r="BK29" s="178"/>
       <c r="BL29" s="178"/>
     </row>
-    <row r="33" spans="1:79" ht="13.8" thickBot="1">
+    <row r="33" spans="1:79" ht="13.5" thickBot="1">
       <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
@@ -20308,10 +20678,10 @@
       <c r="CA38" s="192"/>
     </row>
     <row r="39" spans="1:79">
-      <c r="A39" s="488" t="s">
+      <c r="A39" s="487" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="489" t="s">
+      <c r="B39" s="488" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -20416,8 +20786,8 @@
       <c r="CA39" s="192"/>
     </row>
     <row r="40" spans="1:79">
-      <c r="A40" s="486"/>
-      <c r="B40" s="489"/>
+      <c r="A40" s="485"/>
+      <c r="B40" s="488"/>
       <c r="C40" s="36" t="s">
         <v>52</v>
       </c>
@@ -20562,8 +20932,8 @@
       <c r="CA40" s="192"/>
     </row>
     <row r="41" spans="1:79">
-      <c r="A41" s="486"/>
-      <c r="B41" s="489"/>
+      <c r="A41" s="485"/>
+      <c r="B41" s="488"/>
       <c r="C41" s="36" t="s">
         <v>53</v>
       </c>
@@ -20666,10 +21036,10 @@
       <c r="CA41" s="192"/>
     </row>
     <row r="42" spans="1:79">
-      <c r="A42" s="488" t="s">
+      <c r="A42" s="487" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="489" t="s">
+      <c r="B42" s="488" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -20816,8 +21186,8 @@
       <c r="CA42" s="192"/>
     </row>
     <row r="43" spans="1:79">
-      <c r="A43" s="488"/>
-      <c r="B43" s="487"/>
+      <c r="A43" s="487"/>
+      <c r="B43" s="486"/>
       <c r="C43" s="36" t="s">
         <v>52</v>
       </c>
@@ -20962,8 +21332,8 @@
       <c r="CA43" s="192"/>
     </row>
     <row r="44" spans="1:79">
-      <c r="A44" s="488"/>
-      <c r="B44" s="487"/>
+      <c r="A44" s="487"/>
+      <c r="B44" s="486"/>
       <c r="C44" s="36" t="s">
         <v>53</v>
       </c>
@@ -21263,10 +21633,10 @@
       <c r="CA45" s="192"/>
     </row>
     <row r="46" spans="1:79">
-      <c r="A46" s="490" t="s">
+      <c r="A46" s="489" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="493" t="s">
+      <c r="B46" s="492" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -21413,8 +21783,8 @@
       <c r="CA46" s="192"/>
     </row>
     <row r="47" spans="1:79">
-      <c r="A47" s="491"/>
-      <c r="B47" s="494"/>
+      <c r="A47" s="490"/>
+      <c r="B47" s="493"/>
       <c r="C47" s="36" t="s">
         <v>52</v>
       </c>
@@ -21601,8 +21971,8 @@
       <c r="CA47" s="192"/>
     </row>
     <row r="48" spans="1:79">
-      <c r="A48" s="491"/>
-      <c r="B48" s="494"/>
+      <c r="A48" s="490"/>
+      <c r="B48" s="493"/>
       <c r="C48" s="36" t="s">
         <v>239</v>
       </c>
@@ -21747,8 +22117,8 @@
       <c r="CA48" s="192"/>
     </row>
     <row r="49" spans="1:79">
-      <c r="A49" s="492"/>
-      <c r="B49" s="495"/>
+      <c r="A49" s="491"/>
+      <c r="B49" s="494"/>
       <c r="C49" s="36" t="s">
         <v>238</v>
       </c>
@@ -22027,7 +22397,7 @@
       <c r="CA50" s="192"/>
     </row>
     <row r="51" spans="1:79">
-      <c r="A51" s="488" t="s">
+      <c r="A51" s="487" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="35" t="s">
@@ -22184,7 +22554,7 @@
       <c r="CA51" s="192"/>
     </row>
     <row r="52" spans="1:79">
-      <c r="A52" s="488"/>
+      <c r="A52" s="487"/>
       <c r="B52" s="35" t="s">
         <v>47</v>
       </c>
@@ -22339,7 +22709,7 @@
       <c r="CA52" s="192"/>
     </row>
     <row r="53" spans="1:79">
-      <c r="A53" s="488"/>
+      <c r="A53" s="487"/>
       <c r="B53" s="35" t="s">
         <v>47</v>
       </c>
@@ -22494,10 +22864,10 @@
       <c r="CA53" s="192"/>
     </row>
     <row r="54" spans="1:79">
-      <c r="A54" s="486" t="s">
+      <c r="A54" s="485" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="487" t="s">
+      <c r="B54" s="486" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -22644,8 +23014,8 @@
       <c r="CA54" s="192"/>
     </row>
     <row r="55" spans="1:79">
-      <c r="A55" s="486"/>
-      <c r="B55" s="487"/>
+      <c r="A55" s="485"/>
+      <c r="B55" s="486"/>
       <c r="C55" s="36" t="s">
         <v>52</v>
       </c>
@@ -22832,8 +23202,8 @@
       <c r="CA55" s="192"/>
     </row>
     <row r="56" spans="1:79">
-      <c r="A56" s="486"/>
-      <c r="B56" s="487"/>
+      <c r="A56" s="485"/>
+      <c r="B56" s="486"/>
       <c r="C56" s="36" t="s">
         <v>53</v>
       </c>
@@ -22978,10 +23348,10 @@
       <c r="CA56" s="192"/>
     </row>
     <row r="57" spans="1:79">
-      <c r="A57" s="486" t="s">
+      <c r="A57" s="485" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="487" t="s">
+      <c r="B57" s="486" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -23128,8 +23498,8 @@
       <c r="CA57" s="192"/>
     </row>
     <row r="58" spans="1:79">
-      <c r="A58" s="486"/>
-      <c r="B58" s="487"/>
+      <c r="A58" s="485"/>
+      <c r="B58" s="486"/>
       <c r="C58" s="36" t="s">
         <v>52</v>
       </c>
@@ -23316,8 +23686,8 @@
       <c r="CA58" s="192"/>
     </row>
     <row r="59" spans="1:79">
-      <c r="A59" s="486"/>
-      <c r="B59" s="487"/>
+      <c r="A59" s="485"/>
+      <c r="B59" s="486"/>
       <c r="C59" s="36" t="s">
         <v>53</v>
       </c>
@@ -23461,7 +23831,7 @@
       <c r="BZ59" s="192"/>
       <c r="CA59" s="192"/>
     </row>
-    <row r="60" spans="1:79" ht="13.8" thickBot="1">
+    <row r="60" spans="1:79" ht="13.5" thickBot="1">
       <c r="A60" s="169" t="s">
         <v>69</v>
       </c>
@@ -23659,7 +24029,7 @@
       <c r="BZ61" s="192"/>
       <c r="CA61" s="192"/>
     </row>
-    <row r="62" spans="1:79" ht="13.8" thickBot="1">
+    <row r="62" spans="1:79" ht="13.5" thickBot="1">
       <c r="AM62" s="192"/>
       <c r="AN62" s="192"/>
       <c r="AO62" s="192"/>
@@ -23801,7 +24171,7 @@
       <c r="BZ64" s="192"/>
       <c r="CA64" s="192"/>
     </row>
-    <row r="65" spans="1:79" ht="13.8" thickBot="1">
+    <row r="65" spans="1:79" ht="13.5" thickBot="1">
       <c r="A65" s="219" t="s">
         <v>71</v>
       </c>
@@ -23849,7 +24219,7 @@
       <c r="BZ65" s="192"/>
       <c r="CA65" s="192"/>
     </row>
-    <row r="66" spans="1:79" ht="13.8" thickBot="1"/>
+    <row r="66" spans="1:79" ht="13.5" thickBot="1"/>
     <row r="67" spans="1:79">
       <c r="A67" s="214" t="s">
         <v>74</v>
@@ -23866,7 +24236,7 @@
       </c>
       <c r="C68" s="218"/>
     </row>
-    <row r="69" spans="1:79" ht="13.8" thickBot="1">
+    <row r="69" spans="1:79" ht="13.5" thickBot="1">
       <c r="A69" s="219">
         <v>39.4</v>
       </c>
@@ -23875,7 +24245,7 @@
       </c>
       <c r="C69" s="221"/>
     </row>
-    <row r="70" spans="1:79" ht="13.8" thickBot="1"/>
+    <row r="70" spans="1:79" ht="13.5" thickBot="1"/>
     <row r="71" spans="1:79">
       <c r="A71" s="214" t="s">
         <v>77</v>
@@ -23883,7 +24253,7 @@
       <c r="B71" s="215"/>
       <c r="C71" s="216"/>
     </row>
-    <row r="72" spans="1:79" ht="13.8" thickBot="1">
+    <row r="72" spans="1:79" ht="13.5" thickBot="1">
       <c r="A72" s="219">
         <v>0.60899999999999999</v>
       </c>
@@ -23911,8 +24281,8 @@
       </c>
     </row>
     <row r="79" spans="1:79">
-      <c r="A79" s="454" t="s">
-        <v>392</v>
+      <c r="A79" s="450" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -23945,24 +24315,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B21090-CC9B-4FAF-9800-8BF6111E3051}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="15" thickBot="1"/>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="D4" s="259">
         <v>2020</v>
       </c>
@@ -23986,10 +24356,10 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="495" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="497" t="s">
+      <c r="B5" s="496" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="185" t="s">
@@ -24025,8 +24395,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="486"/>
-      <c r="B6" s="487"/>
+      <c r="A6" s="485"/>
+      <c r="B6" s="486"/>
       <c r="C6" s="263" t="s">
         <v>52</v>
       </c>
@@ -24060,8 +24430,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="486"/>
-      <c r="B7" s="487"/>
+      <c r="A7" s="485"/>
+      <c r="B7" s="486"/>
       <c r="C7" s="263" t="s">
         <v>53</v>
       </c>
@@ -24094,9 +24464,9 @@
         <v>987.197931887153</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="A8" s="486"/>
-      <c r="B8" s="487"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="485"/>
+      <c r="B8" s="486"/>
       <c r="C8" s="264" t="s">
         <v>93</v>
       </c>
@@ -24123,10 +24493,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="496" t="s">
+      <c r="A9" s="495" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="497" t="s">
+      <c r="B9" s="496" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="185" t="s">
@@ -24162,8 +24532,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="486"/>
-      <c r="B10" s="487"/>
+      <c r="A10" s="485"/>
+      <c r="B10" s="486"/>
       <c r="C10" s="263" t="s">
         <v>52</v>
       </c>
@@ -24197,8 +24567,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="486"/>
-      <c r="B11" s="487"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="486"/>
       <c r="C11" s="263" t="s">
         <v>53</v>
       </c>
@@ -24231,9 +24601,9 @@
         <v>1008.0364167696977</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="A12" s="498"/>
-      <c r="B12" s="499"/>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="497"/>
+      <c r="B12" s="498"/>
       <c r="C12" s="272" t="s">
         <v>93</v>
       </c>
@@ -24271,29 +24641,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53463636-B6C6-4874-A090-5FA17CB093A9}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="43.2">
+    <row r="1" spans="1:18" ht="45">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -24931,7 +25301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1"/>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:13">
       <c r="I20" s="16" t="s">
         <v>31</v>
@@ -24968,7 +25338,7 @@
         <v>1.9249999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="I22" s="22" t="s">
@@ -24995,6 +25365,9 @@
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>426</v>
+      </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:13">
@@ -25009,34 +25382,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B3A976-EC4D-4AC4-814D-BEED3E369574}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="89" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1">
       <c r="A1" s="277" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -25046,8 +25424,11 @@
       <c r="C2" s="294">
         <v>2014</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="19" t="s">
         <v>95</v>
       </c>
@@ -25058,7 +25439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="19" t="s">
         <v>96</v>
       </c>
@@ -25069,7 +25450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1">
+    <row r="5" spans="1:22">
       <c r="A5" s="19" t="s">
         <v>108</v>
       </c>
@@ -25081,7 +25462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="19" t="s">
         <v>98</v>
       </c>
@@ -25091,19 +25472,22 @@
       <c r="C6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="500" t="s">
+      <c r="K6" s="513" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="501"/>
-      <c r="M6" s="501"/>
-      <c r="N6" s="501"/>
-      <c r="O6" s="501"/>
-      <c r="P6" s="501"/>
-      <c r="Q6" s="501"/>
-      <c r="R6" s="501"/>
-      <c r="S6" s="502"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+      <c r="L6" s="514"/>
+      <c r="M6" s="514"/>
+      <c r="N6" s="514"/>
+      <c r="O6" s="514"/>
+      <c r="P6" s="514"/>
+      <c r="Q6" s="514"/>
+      <c r="R6" s="514"/>
+      <c r="S6" s="514"/>
+      <c r="T6" s="514"/>
+      <c r="U6" s="514"/>
+      <c r="V6" s="514"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>65</v>
       </c>
@@ -25135,11 +25519,20 @@
       <c r="R7" s="303">
         <v>2020</v>
       </c>
-      <c r="S7" s="307">
+      <c r="S7" s="303">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="303">
+        <v>2020</v>
+      </c>
+      <c r="U7" s="303">
+        <v>2020</v>
+      </c>
+      <c r="V7" s="307">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="19" t="s">
         <v>101</v>
       </c>
@@ -25176,11 +25569,20 @@
       <c r="R8" s="280" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="308" t="s">
+      <c r="S8" s="280" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="280" t="s">
+        <v>420</v>
+      </c>
+      <c r="U8" s="280" t="s">
+        <v>421</v>
+      </c>
+      <c r="V8" s="308" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="19" t="s">
         <v>103</v>
       </c>
@@ -25227,12 +25629,15 @@
         <f>12/2.5</f>
         <v>4.8</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <f>12/2.9</f>
         <v>4.1379310344827589</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="19" t="s">
         <v>105</v>
       </c>
@@ -25280,12 +25685,15 @@
         <f>B71*1000/(B75*1000)</f>
         <v>28.88</v>
       </c>
-      <c r="S10" s="309">
+      <c r="S10" s="289">
         <f>C71*1000/(C75*1000)</f>
         <v>23.379310344827587</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1">
+      <c r="T10" s="20"/>
+      <c r="U10" s="289"/>
+      <c r="V10" s="309"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="19" t="s">
         <v>99</v>
       </c>
@@ -25326,11 +25734,14 @@
       <c r="R11" s="280">
         <v>0</v>
       </c>
-      <c r="S11" s="308">
+      <c r="S11" s="280">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="20"/>
+      <c r="U11" s="280"/>
+      <c r="V11" s="308"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="19" t="s">
         <v>109</v>
       </c>
@@ -25368,12 +25779,24 @@
         <f>B69/(B75*1000*24)</f>
         <v>5231.666666666667</v>
       </c>
-      <c r="S12" s="309">
+      <c r="S12" s="289">
         <f>C69/(C75*1000*24)</f>
         <v>2126.4367816091954</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="20">
+        <f>B102</f>
+        <v>945.60185185185173</v>
+      </c>
+      <c r="U12" s="289">
+        <f t="shared" ref="U12:V12" si="0">C102</f>
+        <v>510.12731481481478</v>
+      </c>
+      <c r="V12" s="309">
+        <f t="shared" si="0"/>
+        <v>315.53240740740739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="19" t="s">
         <v>116</v>
       </c>
@@ -25415,11 +25838,20 @@
       <c r="R13" s="20">
         <v>0</v>
       </c>
-      <c r="S13" s="308">
+      <c r="S13" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="302" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="V13" s="308" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="19" t="s">
         <v>118</v>
       </c>
@@ -25462,12 +25894,15 @@
         <f>B72*1000/3600*43</f>
         <v>0.38222222222222224</v>
       </c>
-      <c r="S14" s="309">
+      <c r="S14" s="289">
         <f>C72*1000/3600*43</f>
         <v>0.38222222222222224</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="20"/>
+      <c r="U14" s="289"/>
+      <c r="V14" s="309"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1">
       <c r="A15" s="19" t="s">
         <v>110</v>
       </c>
@@ -25501,11 +25936,20 @@
       <c r="R15" s="280">
         <v>3.1</v>
       </c>
-      <c r="S15" s="308">
+      <c r="S15" s="280">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1">
+      <c r="T15" s="306">
+        <v>2.5</v>
+      </c>
+      <c r="U15" s="306">
+        <v>1.19</v>
+      </c>
+      <c r="V15" s="310">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="22" t="s">
         <v>111</v>
       </c>
@@ -25539,11 +25983,11 @@
       <c r="R16" s="306">
         <v>3.21</v>
       </c>
-      <c r="S16" s="310">
+      <c r="S16" s="306">
         <v>2.16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -25551,7 +25995,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1">
+    <row r="18" spans="1:22">
       <c r="B18" t="s">
         <v>136</v>
       </c>
@@ -25564,7 +26008,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" ht="21.6" thickBot="1">
+    <row r="19" spans="1:22" ht="21.75" thickBot="1">
       <c r="F19" s="19" t="s">
         <v>151</v>
       </c>
@@ -25572,19 +26016,22 @@
         <v>152</v>
       </c>
       <c r="H19" s="21"/>
-      <c r="K19" s="503" t="s">
+      <c r="K19" s="511" t="s">
         <v>231</v>
       </c>
-      <c r="L19" s="504"/>
-      <c r="M19" s="504"/>
-      <c r="N19" s="504"/>
-      <c r="O19" s="504"/>
-      <c r="P19" s="504"/>
-      <c r="Q19" s="504"/>
-      <c r="R19" s="504"/>
-      <c r="S19" s="505"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1">
+      <c r="L19" s="512"/>
+      <c r="M19" s="512"/>
+      <c r="N19" s="512"/>
+      <c r="O19" s="512"/>
+      <c r="P19" s="512"/>
+      <c r="Q19" s="512"/>
+      <c r="R19" s="512"/>
+      <c r="S19" s="512"/>
+      <c r="T19" s="512"/>
+      <c r="U19" s="512"/>
+      <c r="V19" s="512"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1">
       <c r="F20" s="19" t="s">
         <v>153</v>
       </c>
@@ -25614,11 +26061,20 @@
       <c r="R20" s="314">
         <v>2020</v>
       </c>
-      <c r="S20" s="315">
+      <c r="S20" s="314">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="T20" s="314">
+        <v>2020</v>
+      </c>
+      <c r="U20" s="314">
+        <v>2020</v>
+      </c>
+      <c r="V20" s="314">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="281" t="s">
         <v>58</v>
       </c>
@@ -25633,7 +26089,7 @@
         <v>144</v>
       </c>
       <c r="H21" s="21"/>
-      <c r="K21" s="316" t="s">
+      <c r="K21" s="315" t="s">
         <v>130</v>
       </c>
       <c r="L21" s="311"/>
@@ -25655,14 +26111,20 @@
       <c r="R21" s="311" t="s">
         <v>228</v>
       </c>
-      <c r="S21" s="317" t="s">
+      <c r="S21" s="311" t="s">
         <v>229</v>
       </c>
-      <c r="T21" s="321" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="T21" s="311" t="s">
+        <v>420</v>
+      </c>
+      <c r="U21" s="311" t="s">
+        <v>421</v>
+      </c>
+      <c r="V21" s="311" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="284" t="s">
         <v>95</v>
       </c>
@@ -25679,7 +26141,7 @@
         <v>157</v>
       </c>
       <c r="H22" s="21"/>
-      <c r="K22" s="316" t="s">
+      <c r="K22" s="315" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="311" t="s">
@@ -25703,11 +26165,14 @@
       <c r="R22" s="311">
         <v>4.8</v>
       </c>
-      <c r="S22" s="317">
+      <c r="S22" s="311">
         <v>4.1379310344827589</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="T22" s="311"/>
+      <c r="U22" s="311"/>
+      <c r="V22" s="472"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="284" t="s">
         <v>96</v>
       </c>
@@ -25717,14 +26182,14 @@
       <c r="C23" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="326" t="s">
+      <c r="F23" s="322" t="s">
         <v>155</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>144</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="K23" s="316" t="s">
+      <c r="K23" s="315" t="s">
         <v>124</v>
       </c>
       <c r="L23" s="311" t="s">
@@ -25748,11 +26213,14 @@
       <c r="R23" s="311">
         <v>28.88</v>
       </c>
-      <c r="S23" s="317">
+      <c r="S23" s="311">
         <v>23.379310344827587</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="T23" s="311"/>
+      <c r="U23" s="311"/>
+      <c r="V23" s="472"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="284" t="s">
         <v>108</v>
       </c>
@@ -25772,7 +26240,7 @@
       <c r="H24" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="K24" s="316" t="s">
+      <c r="K24" s="315" t="s">
         <v>125</v>
       </c>
       <c r="L24" s="311" t="s">
@@ -25796,11 +26264,14 @@
       <c r="R24" s="311">
         <v>0</v>
       </c>
-      <c r="S24" s="317">
+      <c r="S24" s="311">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1">
+      <c r="T24" s="311"/>
+      <c r="U24" s="311"/>
+      <c r="V24" s="472"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1">
       <c r="A25" s="284" t="s">
         <v>98</v>
       </c>
@@ -25818,7 +26289,7 @@
       <c r="H25" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="K25" s="316" t="s">
+      <c r="K25" s="315" t="s">
         <v>58</v>
       </c>
       <c r="L25" s="311" t="s">
@@ -25847,11 +26318,20 @@
       <c r="R25" s="311">
         <v>5231.666666666667</v>
       </c>
-      <c r="S25" s="317">
+      <c r="S25" s="311">
         <v>2126.4367816091954</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="T25" s="311">
+        <v>945.60185185185173</v>
+      </c>
+      <c r="U25" s="311">
+        <v>510.12731481481478</v>
+      </c>
+      <c r="V25" s="472">
+        <v>315.53240740740739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="284" t="s">
         <v>65</v>
       </c>
@@ -25861,8 +26341,8 @@
       <c r="C26" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="325"/>
-      <c r="K26" s="316" t="s">
+      <c r="F26" s="321"/>
+      <c r="K26" s="315" t="s">
         <v>65</v>
       </c>
       <c r="L26" s="311" t="s">
@@ -25891,11 +26371,14 @@
       <c r="R26" s="311">
         <v>0</v>
       </c>
-      <c r="S26" s="317">
+      <c r="S26" s="311">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="T26" s="311"/>
+      <c r="U26" s="311"/>
+      <c r="V26" s="472"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="284" t="s">
         <v>139</v>
       </c>
@@ -25905,7 +26388,7 @@
       <c r="C27" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="316" t="s">
+      <c r="K27" s="315" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="311" t="s">
@@ -25934,11 +26417,14 @@
       <c r="R27" s="311">
         <v>0.38222222222222224</v>
       </c>
-      <c r="S27" s="317">
+      <c r="S27" s="311">
         <v>0.38222222222222224</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="T27" s="311"/>
+      <c r="U27" s="311"/>
+      <c r="V27" s="472"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="284" t="s">
         <v>99</v>
       </c>
@@ -25946,7 +26432,7 @@
         <v>2016</v>
       </c>
       <c r="C28" s="285"/>
-      <c r="K28" s="316" t="s">
+      <c r="K28" s="315" t="s">
         <v>385</v>
       </c>
       <c r="L28" s="311" t="s">
@@ -25957,31 +26443,34 @@
         <v>0.54970531215141205</v>
       </c>
       <c r="N28" s="311">
-        <f t="shared" ref="N28:S28" si="0">N26/(365*0.9)+N27</f>
+        <f t="shared" ref="N28:S28" si="1">N26/(365*0.9)+N27</f>
         <v>0.22730389144670587</v>
       </c>
       <c r="O28" s="311">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28405696152638038</v>
       </c>
       <c r="P28" s="311">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36228752376924117</v>
       </c>
       <c r="Q28" s="311">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15537058640642956</v>
       </c>
       <c r="R28" s="311">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38222222222222224</v>
       </c>
       <c r="S28" s="311">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38222222222222224</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="T28" s="311"/>
+      <c r="U28" s="311"/>
+      <c r="V28" s="472"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickBot="1">
       <c r="A29" s="284" t="s">
         <v>142</v>
       </c>
@@ -25991,7 +26480,7 @@
       <c r="C29" s="285" t="s">
         <v>143</v>
       </c>
-      <c r="K29" s="316" t="s">
+      <c r="K29" s="315" t="s">
         <v>204</v>
       </c>
       <c r="L29" s="311" t="s">
@@ -26021,12 +26510,24 @@
         <f>R15</f>
         <v>3.1</v>
       </c>
-      <c r="S29" s="317">
+      <c r="S29" s="311">
         <f>S15</f>
         <v>2.38</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1">
+      <c r="T29" s="317">
+        <f>T15</f>
+        <v>2.5</v>
+      </c>
+      <c r="U29" s="317">
+        <f>U15</f>
+        <v>1.19</v>
+      </c>
+      <c r="V29" s="473">
+        <f>V15</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="A30" s="284" t="s">
         <v>116</v>
       </c>
@@ -26036,42 +26537,42 @@
       <c r="C30" s="285" t="s">
         <v>145</v>
       </c>
-      <c r="K30" s="318" t="s">
+      <c r="K30" s="316" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="319" t="s">
+      <c r="L30" s="317" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="319">
+      <c r="M30" s="317">
         <f>M16/Monetary!T$9*Monetary!Z$9</f>
         <v>3.7419819819819815</v>
       </c>
-      <c r="N30" s="319">
+      <c r="N30" s="317">
         <f>N16/Monetary!R$4/Monetary!V$9*Monetary!Z$9</f>
         <v>1.7655860349127179</v>
       </c>
-      <c r="O30" s="319">
+      <c r="O30" s="317">
         <f>O16/Monetary!K$4/Monetary!O$9*Monetary!Z$9</f>
         <v>1.9733193577588262</v>
       </c>
-      <c r="P30" s="319">
+      <c r="P30" s="317">
         <f>P16/Monetary!$X$9*Monetary!$Z$9</f>
         <v>4.4467224949465773</v>
       </c>
-      <c r="Q30" s="319">
+      <c r="Q30" s="317">
         <f>Q16/Monetary!$X$9*Monetary!$Z$9</f>
         <v>1.6764654923476754</v>
       </c>
-      <c r="R30" s="319">
+      <c r="R30" s="317">
         <f>R16</f>
         <v>3.21</v>
       </c>
-      <c r="S30" s="320">
+      <c r="S30" s="317">
         <f>S16</f>
         <v>2.16</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:22">
       <c r="A31" s="284" t="s">
         <v>118</v>
       </c>
@@ -26081,11 +26582,11 @@
       <c r="C31" s="285" t="s">
         <v>141</v>
       </c>
-      <c r="K31" s="328" t="s">
+      <c r="K31" s="324" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:22">
       <c r="A32" s="284" t="s">
         <v>110</v>
       </c>
@@ -26100,7 +26601,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1">
+    <row r="33" spans="1:18" ht="15.75" thickBot="1">
       <c r="A33" s="286" t="s">
         <v>111</v>
       </c>
@@ -26114,7 +26615,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -26122,44 +26623,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
-      <c r="N35" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R35" s="18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1">
-      <c r="N36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="450">
-        <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),1)</f>
-        <v>3.18508162745024</v>
-      </c>
-      <c r="P36" s="450">
-        <f>_xlfn.QUARTILE.EXC((M23,O23,R23,S23),1)</f>
-        <v>21.872206563977958</v>
-      </c>
-      <c r="Q36" s="450">
-        <f>_xlfn.QUARTILE.EXC((M25,O25,R25,S25),1)</f>
-        <v>1677.9075954240034</v>
-      </c>
-      <c r="R36" s="452">
-        <f>_xlfn.QUARTILE.EXC((M28,O28,R28,S28),1)</f>
-        <v>0.30859827670034085</v>
-      </c>
-    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:18">
       <c r="A37" s="281" t="s">
         <v>58</v>
@@ -26171,27 +26635,23 @@
       <c r="C37" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="O37" s="450">
-        <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),2)</f>
-        <v>4.4689655172413794</v>
-      </c>
-      <c r="P37" s="450">
-        <f>_xlfn.QUARTILE.EXC((M23,O23,R23,S23),2)</f>
-        <v>22.885457189258602</v>
-      </c>
-      <c r="Q37" s="450">
-        <f>_xlfn.QUARTILE.EXC((M25,O25,R25,S25),2)</f>
-        <v>2311.4687473523682</v>
-      </c>
-      <c r="R37" s="452">
-        <f>_xlfn.QUARTILE.EXC((M28,O28,R28,S28),2)</f>
-        <v>0.38222222222222224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1">
+      <c r="N37" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="284" t="s">
         <v>95</v>
       </c>
@@ -26201,24 +26661,24 @@
       <c r="C38" s="285" t="s">
         <v>161</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="451">
-        <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),3)</f>
-        <v>5.3709999999999996</v>
-      </c>
-      <c r="P38" s="451">
-        <f>_xlfn.QUARTILE.EXC((M23,O23,R23,S23),3)</f>
-        <v>27.504827586206897</v>
-      </c>
-      <c r="Q38" s="451">
-        <f>_xlfn.QUARTILE.EXC((M25,O25,R25,S25),3)</f>
-        <v>4547.8751782738855</v>
-      </c>
-      <c r="R38" s="453">
-        <f>_xlfn.QUARTILE.EXC((M28,O28,R28,S28),3)</f>
-        <v>0.50783453966911463</v>
+      <c r="N38" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="446">
+        <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),1)</f>
+        <v>3.18508162745024</v>
+      </c>
+      <c r="P38" s="446">
+        <f>_xlfn.QUARTILE.EXC((M23,O23,R23,S23),1)</f>
+        <v>21.872206563977958</v>
+      </c>
+      <c r="Q38" s="446">
+        <f>_xlfn.QUARTILE.EXC((M25,O25,R25,S25:V25),1)</f>
+        <v>510.12731481481478</v>
+      </c>
+      <c r="R38" s="448">
+        <f>_xlfn.QUARTILE.EXC((M28,O28:Q28,R28,S28),1)</f>
+        <v>0.2518853677463927</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -26231,8 +26691,27 @@
       <c r="C39" s="285" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="N39" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="O39" s="446">
+        <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),2)</f>
+        <v>4.4689655172413794</v>
+      </c>
+      <c r="P39" s="446">
+        <f>_xlfn.QUARTILE.EXC((M23,O23,R23,S23),2)</f>
+        <v>22.885457189258602</v>
+      </c>
+      <c r="Q39" s="446">
+        <f>_xlfn.QUARTILE.EXC((M25,O25,R25,S25:V25),2)</f>
+        <v>1528.3978666956059</v>
+      </c>
+      <c r="R39" s="448">
+        <f>_xlfn.QUARTILE.EXC((M28,O28:Q28,R28,S28),2)</f>
+        <v>0.37225487299573168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" thickBot="1">
       <c r="A40" s="284" t="s">
         <v>108</v>
       </c>
@@ -26240,8 +26719,24 @@
       <c r="C40" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="N40" t="s">
-        <v>390</v>
+      <c r="N40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="447">
+        <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),3)</f>
+        <v>5.3709999999999996</v>
+      </c>
+      <c r="P40" s="447">
+        <f>_xlfn.QUARTILE.EXC((M23,O23,R23,S23),3)</f>
+        <v>27.504827586206897</v>
+      </c>
+      <c r="Q40" s="447">
+        <f>_xlfn.QUARTILE.EXC((M25,O25,R25,S25:V25),3)</f>
+        <v>2496.500713095541</v>
+      </c>
+      <c r="R40" s="449">
+        <f>_xlfn.QUARTILE.EXC((M28,O28:Q28,R28,S28),3)</f>
+        <v>0.42409299470451967</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -26265,6 +26760,9 @@
       <c r="C42" s="285" t="s">
         <v>140</v>
       </c>
+      <c r="N42" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="284" t="s">
@@ -26285,6 +26783,9 @@
         <v>2009</v>
       </c>
       <c r="C44" s="285"/>
+      <c r="N44" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="284" t="s">
@@ -26294,6 +26795,9 @@
       <c r="C45" s="285" t="s">
         <v>143</v>
       </c>
+      <c r="N45" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="284" t="s">
@@ -26326,7 +26830,7 @@
       </c>
       <c r="C48" s="285"/>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
       <c r="A49" s="286" t="s">
         <v>111</v>
       </c>
@@ -26345,7 +26849,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
       <c r="B52">
         <v>2020</v>
       </c>
@@ -26520,7 +27024,7 @@
       </c>
       <c r="D64" s="285"/>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1">
       <c r="A65" s="286" t="s">
         <v>111</v>
       </c>
@@ -26542,7 +27046,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1">
       <c r="B68" t="s">
         <v>170</v>
       </c>
@@ -26714,7 +27218,7 @@
       </c>
       <c r="D80" s="285"/>
     </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
       <c r="A81" s="286" t="s">
         <v>111</v>
       </c>
@@ -26736,17 +27240,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1"/>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:6">
       <c r="A84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="322">
+      <c r="B84" s="318">
         <v>732</v>
       </c>
-      <c r="C84" s="17">
-        <f>B84*24/1000*3600/43</f>
-        <v>1470.8093023255815</v>
+      <c r="C84" s="318">
+        <f>B84/(24/1000*3600/43)</f>
+        <v>364.30555555555554</v>
       </c>
       <c r="D84" s="17">
         <v>2020</v>
@@ -26766,8 +27270,8 @@
         <v>788</v>
       </c>
       <c r="C85" s="20">
-        <f t="shared" ref="C85:C92" si="1">B85*24/1000*3600/43</f>
-        <v>1583.3302325581394</v>
+        <f t="shared" ref="C85:C92" si="2">B85/(24/1000*3600/43)</f>
+        <v>392.17592592592587</v>
       </c>
       <c r="D85" s="20">
         <v>2020</v>
@@ -26785,8 +27289,8 @@
         <v>843</v>
       </c>
       <c r="C86" s="20">
-        <f t="shared" si="1"/>
-        <v>1693.8418604651163</v>
+        <f>B86/(24/1000*3600/43)</f>
+        <v>419.54861111111109</v>
       </c>
       <c r="D86" s="20">
         <v>2020</v>
@@ -26803,9 +27307,9 @@
       <c r="B87" s="278">
         <v>544</v>
       </c>
-      <c r="C87" s="20">
-        <f t="shared" si="1"/>
-        <v>1093.0604651162791</v>
+      <c r="C87" s="278">
+        <f t="shared" si="2"/>
+        <v>270.7407407407407</v>
       </c>
       <c r="D87" s="20">
         <v>2030</v>
@@ -26822,9 +27326,9 @@
       <c r="B88" s="280">
         <v>677</v>
       </c>
-      <c r="C88" s="20">
-        <f t="shared" si="1"/>
-        <v>1360.2976744186046</v>
+      <c r="C88" s="280">
+        <f t="shared" si="2"/>
+        <v>336.93287037037032</v>
       </c>
       <c r="D88" s="20">
         <v>2030</v>
@@ -26841,9 +27345,9 @@
       <c r="B89" s="278">
         <v>828</v>
       </c>
-      <c r="C89" s="20">
-        <f t="shared" si="1"/>
-        <v>1663.7023255813954</v>
+      <c r="C89" s="278">
+        <f t="shared" si="2"/>
+        <v>412.08333333333331</v>
       </c>
       <c r="D89" s="20">
         <v>2030</v>
@@ -26860,9 +27364,9 @@
       <c r="B90" s="275">
         <v>300</v>
       </c>
-      <c r="C90" s="20">
-        <f t="shared" si="1"/>
-        <v>602.79069767441865</v>
+      <c r="C90" s="275">
+        <f t="shared" si="2"/>
+        <v>149.30555555555554</v>
       </c>
       <c r="D90" s="20">
         <v>2050</v>
@@ -26880,8 +27384,8 @@
         <v>500</v>
       </c>
       <c r="C91" s="20">
-        <f t="shared" si="1"/>
-        <v>1004.6511627906976</v>
+        <f t="shared" si="2"/>
+        <v>248.84259259259258</v>
       </c>
       <c r="D91" s="20">
         <v>2050</v>
@@ -26891,16 +27395,16 @@
       </c>
       <c r="F91" s="21"/>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1">
       <c r="A92" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B92" s="306">
         <v>800</v>
       </c>
-      <c r="C92" s="23">
-        <f t="shared" si="1"/>
-        <v>1607.4418604651162</v>
+      <c r="C92" s="306">
+        <f t="shared" si="2"/>
+        <v>398.1481481481481</v>
       </c>
       <c r="D92" s="23">
         <v>2050</v>
@@ -26910,29 +27414,144 @@
       </c>
       <c r="F92" s="24"/>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1">
-      <c r="A93" s="323" t="s">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A93" s="319" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="324" t="s">
+      <c r="B93" s="320" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="327" t="s">
+      <c r="C93" s="323" t="s">
         <v>233</v>
       </c>
       <c r="D93" s="280" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="7:7" ht="15" thickBot="1"/>
-    <row r="98" spans="7:7" ht="15" thickBot="1">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C97" s="17">
+        <v>2030</v>
+      </c>
+      <c r="D97" s="18">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A98" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" s="20">
+        <f>1100</f>
+        <v>1100</v>
+      </c>
+      <c r="C98" s="20">
+        <f>625</f>
+        <v>625</v>
+      </c>
+      <c r="D98" s="21">
+        <f>334</f>
+        <v>334</v>
+      </c>
       <c r="G98" s="277"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99" s="20">
+        <f>B98/(24*3.6/43)</f>
+        <v>547.4537037037037</v>
+      </c>
+      <c r="C99" s="20">
+        <f t="shared" ref="C99:D99" si="3">C98/(24*3.6/43)</f>
+        <v>311.0532407407407</v>
+      </c>
+      <c r="D99" s="20">
+        <f t="shared" si="3"/>
+        <v>166.22685185185185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" s="20">
+        <v>800</v>
+      </c>
+      <c r="C100" s="20">
+        <v>400</v>
+      </c>
+      <c r="D100" s="21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" s="20">
+        <f>B100/(24*3.6/43)</f>
+        <v>398.1481481481481</v>
+      </c>
+      <c r="C101" s="20">
+        <f t="shared" ref="C101:D101" si="4">C100/(24*3.6/43)</f>
+        <v>199.07407407407405</v>
+      </c>
+      <c r="D101" s="20">
+        <f t="shared" si="4"/>
+        <v>149.30555555555554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A102" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" s="23">
+        <f>B99+B101</f>
+        <v>945.60185185185173</v>
+      </c>
+      <c r="C102" s="23">
+        <f t="shared" ref="C102:D102" si="5">C99+C101</f>
+        <v>510.12731481481478</v>
+      </c>
+      <c r="D102" s="24">
+        <f t="shared" si="5"/>
+        <v>315.53240740740739</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A104" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B104" s="23">
+        <v>460</v>
+      </c>
+      <c r="C104" s="23">
+        <v>150</v>
+      </c>
+      <c r="D104" s="24">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K6:S6"/>
-    <mergeCell ref="K19:S19"/>
+    <mergeCell ref="K19:V19"/>
+    <mergeCell ref="K6:V6"/>
   </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1" xr:uid="{D031FF33-73C8-4CC8-B550-A2F9A166F0F5}"/>
     <hyperlink ref="F23" r:id="rId2" xr:uid="{6423ADB3-2A0E-4152-B67F-5851BD0D44F2}"/>
@@ -26944,7 +27563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F72F168-B670-4077-A444-8EF9678B8241}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26955,13 +27574,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="277" t="s">
         <v>94</v>
       </c>
@@ -27124,7 +27743,7 @@
       </c>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="22" t="s">
         <v>111</v>
       </c>
@@ -27148,7 +27767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72575295-7ABB-41D3-9259-8E647301DA88}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -27159,70 +27778,70 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="499" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="507"/>
-      <c r="G1" s="508"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="509"/>
-      <c r="B2" s="510"/>
-      <c r="C2" s="510"/>
-      <c r="D2" s="510"/>
-      <c r="E2" s="510"/>
-      <c r="F2" s="510"/>
-      <c r="G2" s="511"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
-      <c r="A3" s="512" t="s">
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="501"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="502"/>
+      <c r="B2" s="503"/>
+      <c r="C2" s="503"/>
+      <c r="D2" s="503"/>
+      <c r="E2" s="503"/>
+      <c r="F2" s="503"/>
+      <c r="G2" s="504"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="505" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="513"/>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="513"/>
-      <c r="F3" s="513"/>
-      <c r="G3" s="514"/>
-    </row>
-    <row r="4" spans="1:8" ht="58.2" thickBot="1">
-      <c r="A4" s="435" t="s">
+      <c r="B3" s="506"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="507"/>
+    </row>
+    <row r="4" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A4" s="431" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="436" t="s">
+      <c r="B4" s="432" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="436" t="s">
+      <c r="C4" s="432" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="437" t="s">
+      <c r="D4" s="433" t="s">
         <v>355</v>
       </c>
-      <c r="E4" s="436" t="s">
-        <v>410</v>
-      </c>
-      <c r="F4" s="436" t="s">
+      <c r="E4" s="432" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="432" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="438" t="s">
-        <v>400</v>
+      <c r="G4" s="434" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="435" t="s">
         <v>371</v>
       </c>
       <c r="B5" s="17"/>
@@ -27245,11 +27864,11 @@
         <f>Electricity!C151</f>
         <v>0</v>
       </c>
-      <c r="D6" s="336">
+      <c r="D6" s="332">
         <f>Electricity!D151</f>
         <v>255</v>
       </c>
-      <c r="E6" s="336">
+      <c r="E6" s="332">
         <f>Electricity!E151</f>
         <v>80.591918042117257</v>
       </c>
@@ -27277,11 +27896,11 @@
         <f>Electricity!C152</f>
         <v>0</v>
       </c>
-      <c r="D7" s="336">
+      <c r="D7" s="332">
         <f>Electricity!D152</f>
         <v>347</v>
       </c>
-      <c r="E7" s="336">
+      <c r="E7" s="332">
         <f>Electricity!E152</f>
         <v>71.525327262379051</v>
       </c>
@@ -27305,11 +27924,11 @@
         <f>Electricity!C153</f>
         <v>0</v>
       </c>
-      <c r="D8" s="336">
+      <c r="D8" s="332">
         <f>Electricity!D153</f>
         <v>370</v>
       </c>
-      <c r="E8" s="336">
+      <c r="E8" s="332">
         <f>Electricity!E153</f>
         <v>61.163509228392542</v>
       </c>
@@ -27321,13 +27940,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="440" t="s">
+      <c r="A9" s="436" t="s">
         <v>370</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
     </row>
@@ -27344,11 +27963,11 @@
         <f>Electricity!C104</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D10" s="336">
+      <c r="D10" s="332">
         <f>Electricity!D104</f>
         <v>43</v>
       </c>
-      <c r="E10" s="336">
+      <c r="E10" s="332">
         <f>Electricity!E104</f>
         <v>58</v>
       </c>
@@ -27376,11 +27995,11 @@
         <f>Electricity!C105</f>
         <v>Optimistic</v>
       </c>
-      <c r="D11" s="336">
+      <c r="D11" s="332">
         <f>Electricity!D105</f>
         <v>43</v>
       </c>
-      <c r="E11" s="336">
+      <c r="E11" s="332">
         <f>Electricity!E105</f>
         <v>58</v>
       </c>
@@ -27408,11 +28027,11 @@
         <f>Electricity!C106</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D12" s="336">
+      <c r="D12" s="332">
         <f>Electricity!D106</f>
         <v>38</v>
       </c>
-      <c r="E12" s="336">
+      <c r="E12" s="332">
         <f>Electricity!E106</f>
         <v>37</v>
       </c>
@@ -27440,11 +28059,11 @@
         <f>Electricity!C107</f>
         <v>Optimistic</v>
       </c>
-      <c r="D13" s="336">
+      <c r="D13" s="332">
         <f>Electricity!D107</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="E13" s="336">
+      <c r="E13" s="332">
         <f>Electricity!E107</f>
         <v>37</v>
       </c>
@@ -27469,11 +28088,11 @@
         <f>Electricity!C108</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D14" s="336">
+      <c r="D14" s="332">
         <f>Electricity!D108</f>
         <v>33</v>
       </c>
-      <c r="E14" s="336">
+      <c r="E14" s="332">
         <f>Electricity!E108</f>
         <v>33</v>
       </c>
@@ -27498,11 +28117,11 @@
         <f>Electricity!C109</f>
         <v>Optimistic</v>
       </c>
-      <c r="D15" s="336">
+      <c r="D15" s="332">
         <f>Electricity!D109</f>
         <v>27</v>
       </c>
-      <c r="E15" s="336">
+      <c r="E15" s="332">
         <f>Electricity!E109</f>
         <v>33</v>
       </c>
@@ -27527,11 +28146,11 @@
         <f>Electricity!C110</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D16" s="336">
+      <c r="D16" s="332">
         <f>Electricity!D110</f>
         <v>28</v>
       </c>
-      <c r="E16" s="336">
+      <c r="E16" s="332">
         <f>Electricity!E110</f>
         <v>26</v>
       </c>
@@ -27556,11 +28175,11 @@
         <f>Electricity!C111</f>
         <v>Optimistic</v>
       </c>
-      <c r="D17" s="336">
+      <c r="D17" s="332">
         <f>Electricity!D111</f>
         <v>14</v>
       </c>
-      <c r="E17" s="336">
+      <c r="E17" s="332">
         <f>Electricity!E111</f>
         <v>26</v>
       </c>
@@ -27585,11 +28204,11 @@
         <f>Electricity!C112</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D18" s="336">
+      <c r="D18" s="332">
         <f>Electricity!D112</f>
         <v>15</v>
       </c>
-      <c r="E18" s="336">
+      <c r="E18" s="332">
         <f>Electricity!E112</f>
         <v>61</v>
       </c>
@@ -27614,11 +28233,11 @@
         <f>Electricity!C113</f>
         <v>Optimistic</v>
       </c>
-      <c r="D19" s="336">
+      <c r="D19" s="332">
         <f>Electricity!D113</f>
         <v>15</v>
       </c>
-      <c r="E19" s="336">
+      <c r="E19" s="332">
         <f>Electricity!E113</f>
         <v>61</v>
       </c>
@@ -27643,11 +28262,11 @@
         <f>Electricity!C114</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D20" s="336">
+      <c r="D20" s="332">
         <f>Electricity!D114</f>
         <v>14.166666666666666</v>
       </c>
-      <c r="E20" s="336">
+      <c r="E20" s="332">
         <f>Electricity!E114</f>
         <v>57.5</v>
       </c>
@@ -27672,11 +28291,11 @@
         <f>Electricity!C115</f>
         <v>Optimistic</v>
       </c>
-      <c r="D21" s="336">
+      <c r="D21" s="332">
         <f>Electricity!D115</f>
         <v>13.333333333333332</v>
       </c>
-      <c r="E21" s="336">
+      <c r="E21" s="332">
         <f>Electricity!E115</f>
         <v>57.5</v>
       </c>
@@ -27701,11 +28320,11 @@
         <f>Electricity!C116</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D22" s="336">
+      <c r="D22" s="332">
         <f>Electricity!D116</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="E22" s="336">
+      <c r="E22" s="332">
         <f>Electricity!E116</f>
         <v>52</v>
       </c>
@@ -27730,11 +28349,11 @@
         <f>Electricity!C117</f>
         <v>Optimistic</v>
       </c>
-      <c r="D23" s="336">
+      <c r="D23" s="332">
         <f>Electricity!D117</f>
         <v>12.222222222222223</v>
       </c>
-      <c r="E23" s="336">
+      <c r="E23" s="332">
         <f>Electricity!E117</f>
         <v>52</v>
       </c>
@@ -27759,11 +28378,11 @@
         <f>Electricity!C118</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D24" s="336">
+      <c r="D24" s="332">
         <f>Electricity!D118</f>
         <v>12.5</v>
       </c>
-      <c r="E24" s="336">
+      <c r="E24" s="332">
         <f>Electricity!E118</f>
         <v>45.5</v>
       </c>
@@ -27788,11 +28407,11 @@
         <f>Electricity!C119</f>
         <v>Optimistic</v>
       </c>
-      <c r="D25" s="336">
+      <c r="D25" s="332">
         <f>Electricity!D119</f>
         <v>10</v>
       </c>
-      <c r="E25" s="336">
+      <c r="E25" s="332">
         <f>Electricity!E119</f>
         <v>45.5</v>
       </c>
@@ -27817,11 +28436,11 @@
         <f>Electricity!C136</f>
         <v>Optimistic</v>
       </c>
-      <c r="D26" s="336">
+      <c r="D26" s="332">
         <f>Electricity!D136</f>
         <v>16.647024667781665</v>
       </c>
-      <c r="E26" s="336">
+      <c r="E26" s="332">
         <f>Electricity!E136</f>
         <v>121.63600425726014</v>
       </c>
@@ -27849,11 +28468,11 @@
         <f>Electricity!C137</f>
         <v>Optimistic</v>
       </c>
-      <c r="D27" s="336">
+      <c r="D27" s="332">
         <f>Electricity!D137</f>
         <v>15.637100991137146</v>
       </c>
-      <c r="E27" s="336">
+      <c r="E27" s="332">
         <f>Electricity!E137</f>
         <v>124.68078714135495</v>
       </c>
@@ -27878,11 +28497,11 @@
         <f>Electricity!C138</f>
         <v>Optimistic</v>
       </c>
-      <c r="D28" s="336">
+      <c r="D28" s="332">
         <f>Electricity!D138</f>
         <v>13.436144814859556</v>
       </c>
-      <c r="E28" s="336">
+      <c r="E28" s="332">
         <f>Electricity!E138</f>
         <v>113.25883418906673</v>
       </c>
@@ -27907,11 +28526,11 @@
         <f>Electricity!C139</f>
         <v>Optimistic</v>
       </c>
-      <c r="D29" s="336">
+      <c r="D29" s="332">
         <f>Electricity!D139</f>
         <v>12.648273326896968</v>
       </c>
-      <c r="E29" s="336">
+      <c r="E29" s="332">
         <f>Electricity!E139</f>
         <v>105.59662090813094</v>
       </c>
@@ -27936,11 +28555,11 @@
         <f>Electricity!C140</f>
         <v>Optimistic</v>
       </c>
-      <c r="D30" s="336">
+      <c r="D30" s="332">
         <f>Electricity!D140</f>
         <v>11.269855080090496</v>
       </c>
-      <c r="E30" s="336">
+      <c r="E30" s="332">
         <f>Electricity!E140</f>
         <v>98.039215686274503</v>
       </c>
@@ -27965,11 +28584,11 @@
         <f>Electricity!C141</f>
         <v>Optimistic</v>
       </c>
-      <c r="D31" s="336">
+      <c r="D31" s="332">
         <f>Electricity!D141</f>
         <v>10.341935985601697</v>
       </c>
-      <c r="E31" s="336">
+      <c r="E31" s="332">
         <f>Electricity!E141</f>
         <v>96.999090633525313</v>
       </c>
@@ -27994,11 +28613,11 @@
         <f>Electricity!C142</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D32" s="336">
+      <c r="D32" s="332">
         <f>Electricity!D142</f>
         <v>22.441475932035882</v>
       </c>
-      <c r="E32" s="336">
+      <c r="E32" s="332">
         <f>Electricity!E142</f>
         <v>121.63600425726014</v>
       </c>
@@ -28023,11 +28642,11 @@
         <f>Electricity!C143</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D33" s="336">
+      <c r="D33" s="332">
         <f>Electricity!D143</f>
         <v>20.982105466876973</v>
       </c>
-      <c r="E33" s="336">
+      <c r="E33" s="332">
         <f>Electricity!E143</f>
         <v>124.68078714135495</v>
       </c>
@@ -28052,11 +28671,11 @@
         <f>Electricity!C144</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D34" s="336">
+      <c r="D34" s="332">
         <f>Electricity!D144</f>
         <v>17.560379640440953</v>
       </c>
-      <c r="E34" s="336">
+      <c r="E34" s="332">
         <f>Electricity!E144</f>
         <v>113.25883418906673</v>
       </c>
@@ -28081,11 +28700,11 @@
         <f>Electricity!C145</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D35" s="336">
+      <c r="D35" s="332">
         <f>Electricity!D145</f>
         <v>16.695810586438377</v>
       </c>
-      <c r="E35" s="336">
+      <c r="E35" s="332">
         <f>Electricity!E145</f>
         <v>105.59662090813094</v>
       </c>
@@ -28110,11 +28729,11 @@
         <f>Electricity!C146</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D36" s="336">
+      <c r="D36" s="332">
         <f>Electricity!D146</f>
         <v>14.720021943438915</v>
       </c>
-      <c r="E36" s="336">
+      <c r="E36" s="332">
         <f>Electricity!E146</f>
         <v>98.039215686274503</v>
       </c>
@@ -28126,7 +28745,7 @@
         <v>71164</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1">
       <c r="A37" s="22" t="str">
         <f>Electricity!A147</f>
         <v>N03</v>
@@ -28139,11 +28758,11 @@
         <f>Electricity!C147</f>
         <v>Pessimistic</v>
       </c>
-      <c r="D37" s="337">
+      <c r="D37" s="333">
         <f>Electricity!D147</f>
         <v>13.193116607381025</v>
       </c>
-      <c r="E37" s="337">
+      <c r="E37" s="333">
         <f>Electricity!E147</f>
         <v>96.999090633525313</v>
       </c>
@@ -28165,7 +28784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD612917-55EE-47FD-943A-41A60A475EC7}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -28173,886 +28792,886 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="437" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="442" t="s">
+      <c r="B1" s="437"/>
+      <c r="C1" s="437"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="438" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="459" t="s">
+      <c r="B2" s="438"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
+      <c r="G2" s="438"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A3" s="455" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="444" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="440" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="472">
+      <c r="E3" s="468">
         <f>'H2 production UK'!D35</f>
         <v>2020</v>
       </c>
-      <c r="F3" s="472">
+      <c r="F3" s="468">
         <f>'H2 production UK'!E35</f>
         <v>2025</v>
       </c>
-      <c r="G3" s="472">
+      <c r="G3" s="468">
         <f>'H2 production UK'!F35</f>
         <v>2030</v>
       </c>
-      <c r="H3" s="472">
+      <c r="H3" s="468">
         <f>'H2 production UK'!G35</f>
         <v>2035</v>
       </c>
-      <c r="I3" s="472">
+      <c r="I3" s="468">
         <f>'H2 production UK'!H35</f>
         <v>2040</v>
       </c>
-      <c r="J3" s="473">
+      <c r="J3" s="469">
         <f>'H2 production UK'!I35</f>
         <v>2045</v>
       </c>
-      <c r="K3" s="474">
+      <c r="K3" s="470">
         <f>'H2 production UK'!J35</f>
         <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="469" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" s="446" t="s">
+      <c r="A4" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="465" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="442" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="54"/>
-      <c r="E4" s="443">
+      <c r="E4" s="439">
         <f>'H2 production UK'!D37</f>
         <v>0.98</v>
       </c>
-      <c r="F4" s="443">
+      <c r="F4" s="439">
         <f>'H2 production UK'!E37</f>
         <v>0.98</v>
       </c>
-      <c r="G4" s="443">
+      <c r="G4" s="439">
         <f>'H2 production UK'!F37</f>
         <v>0.98</v>
       </c>
-      <c r="H4" s="443">
+      <c r="H4" s="439">
         <f>'H2 production UK'!G37</f>
         <v>0.98</v>
       </c>
-      <c r="I4" s="443">
+      <c r="I4" s="439">
         <f>'H2 production UK'!H37</f>
         <v>0.98</v>
       </c>
-      <c r="J4" s="445">
+      <c r="J4" s="441">
         <f>'H2 production UK'!I37</f>
         <v>0.98</v>
       </c>
-      <c r="K4" s="461">
+      <c r="K4" s="457">
         <f>'H2 production UK'!J37</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="460" t="s">
-        <v>403</v>
+      <c r="A5" s="456" t="s">
+        <v>402</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="446" t="s">
+      <c r="C5" s="442" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="54"/>
-      <c r="E5" s="443">
+      <c r="E5" s="439">
         <f>'H2 production UK'!D38</f>
         <v>0</v>
       </c>
-      <c r="F5" s="443">
+      <c r="F5" s="439">
         <f>'H2 production UK'!E38</f>
         <v>0</v>
       </c>
-      <c r="G5" s="443">
+      <c r="G5" s="439">
         <f>'H2 production UK'!F38</f>
         <v>0</v>
       </c>
-      <c r="H5" s="443">
+      <c r="H5" s="439">
         <f>'H2 production UK'!G38</f>
         <v>0</v>
       </c>
-      <c r="I5" s="443">
+      <c r="I5" s="439">
         <f>'H2 production UK'!H38</f>
         <v>0</v>
       </c>
-      <c r="J5" s="445">
+      <c r="J5" s="441">
         <f>'H2 production UK'!I38</f>
         <v>0</v>
       </c>
-      <c r="K5" s="461">
+      <c r="K5" s="457">
         <f>'H2 production UK'!J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="455" t="s">
+      <c r="A6" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="455" t="s">
+      <c r="C6" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="443">
+      <c r="E6" s="439">
         <f>'H2 production UK'!D39</f>
         <v>0</v>
       </c>
-      <c r="F6" s="443">
+      <c r="F6" s="439">
         <f>'H2 production UK'!E39</f>
         <v>0</v>
       </c>
-      <c r="G6" s="443">
+      <c r="G6" s="439">
         <f>'H2 production UK'!F39</f>
         <v>0</v>
       </c>
-      <c r="H6" s="443">
+      <c r="H6" s="439">
         <f>'H2 production UK'!G39</f>
         <v>0</v>
       </c>
-      <c r="I6" s="443">
+      <c r="I6" s="439">
         <f>'H2 production UK'!H39</f>
         <v>0</v>
       </c>
-      <c r="J6" s="445">
+      <c r="J6" s="441">
         <f>'H2 production UK'!I39</f>
         <v>0</v>
       </c>
-      <c r="K6" s="461">
+      <c r="K6" s="457">
         <f>'H2 production UK'!J39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4">
-      <c r="A7" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="455" t="s">
+    <row r="7" spans="1:11" ht="25.5">
+      <c r="A7" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C7" s="455" t="s">
+      <c r="C7" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="443">
+      <c r="E7" s="439">
         <f>'H2 production UK'!D40</f>
         <v>0</v>
       </c>
-      <c r="F7" s="443">
+      <c r="F7" s="439">
         <f>'H2 production UK'!E40</f>
         <v>0</v>
       </c>
-      <c r="G7" s="443">
+      <c r="G7" s="439">
         <f>'H2 production UK'!F40</f>
         <v>0</v>
       </c>
-      <c r="H7" s="443">
+      <c r="H7" s="439">
         <f>'H2 production UK'!G40</f>
         <v>0</v>
       </c>
-      <c r="I7" s="443">
+      <c r="I7" s="439">
         <f>'H2 production UK'!H40</f>
         <v>0</v>
       </c>
-      <c r="J7" s="445">
+      <c r="J7" s="441">
         <f>'H2 production UK'!I40</f>
         <v>0</v>
       </c>
-      <c r="K7" s="461">
+      <c r="K7" s="457">
         <f>'H2 production UK'!J40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4">
-      <c r="A8" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" s="455" t="s">
+    <row r="8" spans="1:11" ht="25.5">
+      <c r="A8" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="455" t="s">
+      <c r="C8" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="443">
+      <c r="E8" s="439">
         <f>'H2 production UK'!D41</f>
         <v>0</v>
       </c>
-      <c r="F8" s="443">
+      <c r="F8" s="439">
         <f>'H2 production UK'!E41</f>
         <v>0</v>
       </c>
-      <c r="G8" s="443">
+      <c r="G8" s="439">
         <f>'H2 production UK'!F41</f>
         <v>0</v>
       </c>
-      <c r="H8" s="443">
+      <c r="H8" s="439">
         <f>'H2 production UK'!G41</f>
         <v>0</v>
       </c>
-      <c r="I8" s="443">
+      <c r="I8" s="439">
         <f>'H2 production UK'!H41</f>
         <v>0</v>
       </c>
-      <c r="J8" s="445">
+      <c r="J8" s="441">
         <f>'H2 production UK'!I41</f>
         <v>0</v>
       </c>
-      <c r="K8" s="461">
+      <c r="K8" s="457">
         <f>'H2 production UK'!J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="455" t="s">
+      <c r="A9" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="455" t="s">
+      <c r="C9" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="443">
+      <c r="E9" s="439">
         <f>'H2 production UK'!D42</f>
         <v>60.0456</v>
       </c>
-      <c r="F9" s="443">
+      <c r="F9" s="439">
         <f>'H2 production UK'!E42</f>
         <v>57.543699999999994</v>
       </c>
-      <c r="G9" s="443">
+      <c r="G9" s="439">
         <f>'H2 production UK'!F42</f>
         <v>56.042559999999995</v>
       </c>
-      <c r="H9" s="443">
+      <c r="H9" s="439">
         <f>'H2 production UK'!G42</f>
         <v>55.041800000000002</v>
       </c>
-      <c r="I9" s="443">
+      <c r="I9" s="439">
         <f>'H2 production UK'!H42</f>
         <v>54.041039999999995</v>
       </c>
-      <c r="J9" s="445">
+      <c r="J9" s="441">
         <f>'H2 production UK'!I42</f>
         <v>53.540659999999995</v>
       </c>
-      <c r="K9" s="461">
+      <c r="K9" s="457">
         <f>'H2 production UK'!J42</f>
         <v>53.040280000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4">
-      <c r="A10" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10" s="455" t="s">
+    <row r="10" spans="1:11" ht="25.5">
+      <c r="A10" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="455" t="s">
+      <c r="C10" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="443">
+      <c r="E10" s="439">
         <f>'H2 production UK'!D43</f>
         <v>51.038759999999996</v>
       </c>
-      <c r="F10" s="443">
+      <c r="F10" s="439">
         <f>'H2 production UK'!E43</f>
         <v>50.037999999999997</v>
       </c>
-      <c r="G10" s="443">
+      <c r="G10" s="439">
         <f>'H2 production UK'!F43</f>
         <v>49.287430000000001</v>
       </c>
-      <c r="H10" s="443">
+      <c r="H10" s="439">
         <f>'H2 production UK'!G43</f>
         <v>48.912144999999995</v>
       </c>
-      <c r="I10" s="443">
+      <c r="I10" s="439">
         <f>'H2 production UK'!H43</f>
         <v>48.536859999999997</v>
       </c>
-      <c r="J10" s="445">
+      <c r="J10" s="441">
         <f>'H2 production UK'!I43</f>
         <v>48.286669999999994</v>
       </c>
-      <c r="K10" s="461">
+      <c r="K10" s="457">
         <f>'H2 production UK'!J43</f>
         <v>48.036479999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.4">
-      <c r="A11" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="455" t="s">
+    <row r="11" spans="1:11" ht="25.5">
+      <c r="A11" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="455" t="s">
+      <c r="C11" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="443">
+      <c r="E11" s="439">
         <f>'H2 production UK'!D44</f>
         <v>49.037239999999997</v>
       </c>
-      <c r="F11" s="443">
+      <c r="F11" s="439">
         <f>'H2 production UK'!E44</f>
         <v>48.036479999999997</v>
       </c>
-      <c r="G11" s="443">
+      <c r="G11" s="439">
         <f>'H2 production UK'!F44</f>
         <v>47.536099999999998</v>
       </c>
-      <c r="H11" s="443">
+      <c r="H11" s="439">
         <f>'H2 production UK'!G44</f>
         <v>47.285910000000001</v>
       </c>
-      <c r="I11" s="443">
+      <c r="I11" s="439">
         <f>'H2 production UK'!H44</f>
         <v>47.035719999999998</v>
       </c>
-      <c r="J11" s="445">
+      <c r="J11" s="441">
         <f>'H2 production UK'!I44</f>
         <v>47.035719999999998</v>
       </c>
-      <c r="K11" s="461">
+      <c r="K11" s="457">
         <f>'H2 production UK'!J44</f>
         <v>47.035719999999998</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="460" t="s">
-        <v>403</v>
+      <c r="A12" s="456" t="s">
+        <v>402</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="447" t="s">
+      <c r="C12" s="443" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="36"/>
-      <c r="E12" s="443">
+      <c r="E12" s="439">
         <f>'H2 production UK'!D45</f>
         <v>30</v>
       </c>
-      <c r="F12" s="443">
+      <c r="F12" s="439">
         <f>'H2 production UK'!E45</f>
         <v>30</v>
       </c>
-      <c r="G12" s="443">
+      <c r="G12" s="439">
         <f>'H2 production UK'!F45</f>
         <v>30</v>
       </c>
-      <c r="H12" s="443">
+      <c r="H12" s="439">
         <f>'H2 production UK'!G45</f>
         <v>30</v>
       </c>
-      <c r="I12" s="443">
+      <c r="I12" s="439">
         <f>'H2 production UK'!H45</f>
         <v>30</v>
       </c>
-      <c r="J12" s="445">
+      <c r="J12" s="441">
         <f>'H2 production UK'!I45</f>
         <v>30</v>
       </c>
-      <c r="K12" s="461">
+      <c r="K12" s="457">
         <f>'H2 production UK'!J45</f>
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="457" t="s">
+      <c r="A13" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="457" t="s">
+      <c r="C13" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="443">
+      <c r="E13" s="439">
         <f>'H2 production UK'!D46</f>
         <v>499.30196695515349</v>
       </c>
-      <c r="F13" s="443">
+      <c r="F13" s="439">
         <f>'H2 production UK'!E46</f>
         <v>396.82541306058221</v>
       </c>
-      <c r="G13" s="443">
+      <c r="G13" s="439">
         <f>'H2 production UK'!F46</f>
         <v>337.90361919748233</v>
       </c>
-      <c r="H13" s="443">
+      <c r="H13" s="439">
         <f>'H2 production UK'!G46</f>
         <v>320.222974036192</v>
       </c>
-      <c r="I13" s="443">
+      <c r="I13" s="439">
         <f>'H2 production UK'!H46</f>
         <v>302.71345397324944</v>
       </c>
-      <c r="J13" s="445">
+      <c r="J13" s="441">
         <f>'H2 production UK'!I46</f>
         <v>298.1957513768686</v>
       </c>
-      <c r="K13" s="461">
+      <c r="K13" s="457">
         <f>'H2 production UK'!J46</f>
         <v>293.67804878048781</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" s="457" t="s">
+      <c r="A14" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="457" t="s">
+      <c r="C14" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="443">
+      <c r="E14" s="439">
         <f>'H2 production UK'!D47</f>
         <v>588.3212431156569</v>
       </c>
-      <c r="F14" s="443">
+      <c r="F14" s="439">
         <f>'H2 production UK'!E47</f>
         <v>509.49417781274587</v>
       </c>
-      <c r="G14" s="443">
+      <c r="G14" s="439">
         <f>'H2 production UK'!F47</f>
         <v>459.24500393391025</v>
       </c>
-      <c r="H14" s="443">
+      <c r="H14" s="439">
         <f>'H2 production UK'!G47</f>
         <v>446.34901652242337</v>
       </c>
-      <c r="I14" s="443">
+      <c r="I14" s="439">
         <f>'H2 production UK'!H47</f>
         <v>433.59677419354841</v>
       </c>
-      <c r="J14" s="445">
+      <c r="J14" s="441">
         <f>'H2 production UK'!I47</f>
         <v>426.72439024390241</v>
       </c>
-      <c r="K14" s="461">
+      <c r="K14" s="457">
         <f>'H2 production UK'!J47</f>
         <v>419.8999213217939</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15" s="457" t="s">
+      <c r="A15" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="457" t="s">
+      <c r="C15" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="443">
+      <c r="E15" s="439">
         <f>'H2 production UK'!D48</f>
         <v>807.49826907946499</v>
       </c>
-      <c r="F15" s="443">
+      <c r="F15" s="439">
         <f>'H2 production UK'!E48</f>
         <v>707.52698662470493</v>
       </c>
-      <c r="G15" s="443">
+      <c r="G15" s="439">
         <f>'H2 production UK'!F48</f>
         <v>667.53162863886701</v>
       </c>
-      <c r="H15" s="443">
+      <c r="H15" s="439">
         <f>'H2 production UK'!G48</f>
         <v>645.03894571203784</v>
       </c>
-      <c r="I15" s="443">
+      <c r="I15" s="439">
         <f>'H2 production UK'!H48</f>
         <v>622.92958300550754</v>
       </c>
-      <c r="J15" s="445">
+      <c r="J15" s="441">
         <f>'H2 production UK'!I48</f>
         <v>612.01864673485443</v>
       </c>
-      <c r="K15" s="461">
+      <c r="K15" s="457">
         <f>'H2 production UK'!J48</f>
         <v>601.2035405192762</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B16" s="457" t="s">
+      <c r="A16" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="457" t="s">
+      <c r="C16" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="443">
+      <c r="E16" s="439">
         <f>'H2 production UK'!D49</f>
         <v>533.07289346501364</v>
       </c>
-      <c r="F16" s="443">
+      <c r="F16" s="439">
         <f>'H2 production UK'!E49</f>
         <v>430.06015864677448</v>
       </c>
-      <c r="G16" s="443">
+      <c r="G16" s="439">
         <f>'H2 production UK'!F49</f>
         <v>355.1418060516915</v>
       </c>
-      <c r="H16" s="443">
+      <c r="H16" s="439">
         <f>'H2 production UK'!G49</f>
         <v>295.3511977306157</v>
       </c>
-      <c r="I16" s="443">
+      <c r="I16" s="439">
         <f>'H2 production UK'!H49</f>
         <v>260.77349653288508</v>
       </c>
-      <c r="J16" s="445">
+      <c r="J16" s="441">
         <f>'H2 production UK'!I49</f>
         <v>233.39948308468163</v>
       </c>
-      <c r="K16" s="461">
+      <c r="K16" s="457">
         <f>'H2 production UK'!J49</f>
         <v>209.62731351124185</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="456" t="s">
+      <c r="A17" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="456" t="s">
+      <c r="C17" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="445">
+      <c r="E17" s="441">
         <f>'H2 production UK'!D54</f>
         <v>20.459716758457905</v>
       </c>
-      <c r="F17" s="445">
+      <c r="F17" s="441">
         <f>'H2 production UK'!E54</f>
         <v>20.042171518489379</v>
       </c>
-      <c r="G17" s="445">
+      <c r="G17" s="441">
         <f>'H2 production UK'!F54</f>
         <v>19.836821400472068</v>
       </c>
-      <c r="H17" s="445">
+      <c r="H17" s="441">
         <f>'H2 production UK'!G54</f>
         <v>19.734146341463415</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="441">
         <f>'H2 production UK'!H54</f>
         <v>19.624626278520854</v>
       </c>
-      <c r="J17" s="445">
+      <c r="J17" s="441">
         <f>'H2 production UK'!I54</f>
         <v>19.624626278520854</v>
       </c>
-      <c r="K17" s="461">
+      <c r="K17" s="457">
         <f>'H2 production UK'!J54</f>
         <v>19.624626278520854</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B18" s="456" t="s">
+      <c r="A18" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="456" t="s">
+      <c r="C18" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="445">
+      <c r="E18" s="441">
         <f>'H2 production UK'!D55</f>
         <v>21.294807238394963</v>
       </c>
-      <c r="F18" s="445">
+      <c r="F18" s="441">
         <f>'H2 production UK'!E55</f>
         <v>20.877261998426437</v>
       </c>
-      <c r="G18" s="445">
+      <c r="G18" s="441">
         <f>'H2 production UK'!F55</f>
         <v>20.569236821400473</v>
       </c>
-      <c r="H18" s="445">
+      <c r="H18" s="441">
         <f>'H2 production UK'!G55</f>
         <v>20.411801730920534</v>
       </c>
-      <c r="I18" s="445">
+      <c r="I18" s="441">
         <f>'H2 production UK'!H55</f>
         <v>20.254366640440598</v>
       </c>
-      <c r="J18" s="445">
+      <c r="J18" s="441">
         <f>'H2 production UK'!I55</f>
         <v>20.151691581431944</v>
       </c>
-      <c r="K18" s="461">
+      <c r="K18" s="457">
         <f>'H2 production UK'!J55</f>
         <v>20.042171518489379</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B19" s="456" t="s">
+      <c r="A19" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="456" t="s">
+      <c r="C19" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="445">
+      <c r="E19" s="441">
         <f>'H2 production UK'!D56</f>
         <v>25.052714398111725</v>
       </c>
-      <c r="F19" s="445">
+      <c r="F19" s="441">
         <f>'H2 production UK'!E56</f>
         <v>24.012273800157356</v>
       </c>
-      <c r="G19" s="445">
+      <c r="G19" s="441">
         <f>'H2 production UK'!F56</f>
         <v>23.382533438237608</v>
       </c>
-      <c r="H19" s="445">
+      <c r="H19" s="441">
         <f>'H2 production UK'!G56</f>
         <v>22.964988198269079</v>
       </c>
-      <c r="I19" s="445">
+      <c r="I19" s="441">
         <f>'H2 production UK'!H56</f>
         <v>22.547442958300547</v>
       </c>
-      <c r="J19" s="445">
+      <c r="J19" s="441">
         <f>'H2 production UK'!I56</f>
         <v>22.342092840283239</v>
       </c>
-      <c r="K19" s="461">
+      <c r="K19" s="457">
         <f>'H2 production UK'!J56</f>
         <v>22.129897718332021</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B20" s="456" t="s">
+      <c r="A20" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="452" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="456" t="s">
+      <c r="C20" s="452" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="445">
+      <c r="E20" s="441">
         <f>'H2 production UK'!D57</f>
         <v>0.14613914802742498</v>
       </c>
-      <c r="F20" s="445">
+      <c r="F20" s="441">
         <f>'H2 production UK'!E57</f>
         <v>0.13728222996515682</v>
       </c>
-      <c r="G20" s="445">
+      <c r="G20" s="441">
         <f>'H2 production UK'!F57</f>
         <v>0.12842531190288861</v>
       </c>
-      <c r="H20" s="445">
+      <c r="H20" s="441">
         <f>'H2 production UK'!G57</f>
         <v>0.12399685287175452</v>
       </c>
-      <c r="I20" s="445">
+      <c r="I20" s="441">
         <f>'H2 production UK'!H57</f>
         <v>0.12399685287175452</v>
       </c>
-      <c r="J20" s="445">
+      <c r="J20" s="441">
         <f>'H2 production UK'!I57</f>
         <v>0.12399685287175452</v>
       </c>
-      <c r="K20" s="461">
+      <c r="K20" s="457">
         <f>'H2 production UK'!J57</f>
         <v>0.12399685287175452</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="460" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" s="456" t="s">
+      <c r="A21" s="456" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="452" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="456" t="s">
+      <c r="C21" s="452" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="445">
+      <c r="E21" s="441">
         <f>'H2 production UK'!D58</f>
         <v>0.19928065640103407</v>
       </c>
-      <c r="F21" s="445">
+      <c r="F21" s="441">
         <f>'H2 production UK'!E58</f>
         <v>0.19042373833876586</v>
       </c>
-      <c r="G21" s="445">
+      <c r="G21" s="441">
         <f>'H2 production UK'!F58</f>
         <v>0.18599527930763179</v>
       </c>
-      <c r="H21" s="445">
+      <c r="H21" s="441">
         <f>'H2 production UK'!G58</f>
         <v>0.1815668202764977</v>
       </c>
-      <c r="I21" s="445">
+      <c r="I21" s="441">
         <f>'H2 production UK'!H58</f>
         <v>0.17713836124536358</v>
       </c>
-      <c r="J21" s="445">
+      <c r="J21" s="441">
         <f>'H2 production UK'!I58</f>
         <v>0.17713836124536358</v>
       </c>
-      <c r="K21" s="461">
+      <c r="K21" s="457">
         <f>'H2 production UK'!J58</f>
         <v>0.17713836124536358</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
-      <c r="A22" s="464" t="s">
-        <v>403</v>
-      </c>
-      <c r="B22" s="457" t="s">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A22" s="460" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="453" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="457" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" s="465" t="s">
+      <c r="C22" s="453" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="461" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="445">
+      <c r="E22" s="441">
         <f>'H2 production UK'!D59</f>
         <v>0.30113521411711813</v>
       </c>
-      <c r="F22" s="445">
+      <c r="F22" s="441">
         <f>'H2 production UK'!E59</f>
         <v>0.28342137799258177</v>
       </c>
-      <c r="G22" s="445">
+      <c r="G22" s="441">
         <f>'H2 production UK'!F59</f>
         <v>0.2701360008991795</v>
       </c>
-      <c r="H22" s="445">
+      <c r="H22" s="441">
         <f>'H2 production UK'!G59</f>
         <v>0.26127908283691131</v>
       </c>
-      <c r="I22" s="445">
+      <c r="I22" s="441">
         <f>'H2 production UK'!H59</f>
         <v>0.25685062380577722</v>
       </c>
-      <c r="J22" s="445">
+      <c r="J22" s="441">
         <f>'H2 production UK'!I59</f>
         <v>0.25242216477464313</v>
       </c>
-      <c r="K22" s="461">
+      <c r="K22" s="457">
         <f>'H2 production UK'!J59</f>
         <v>0.25242216477464313</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="459" t="s">
-        <v>404</v>
-      </c>
-      <c r="B23" s="469" t="s">
-        <v>406</v>
-      </c>
-      <c r="C23" s="470" t="s">
+      <c r="A23" s="455" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="465" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="466" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="471"/>
+      <c r="D23" s="467"/>
       <c r="E23" s="17">
         <f>'H2 production UK'!K37</f>
         <v>0.98</v>
@@ -29083,13 +29702,13 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="460" t="s">
-        <v>404</v>
+      <c r="A24" s="456" t="s">
+        <v>403</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="446" t="s">
+      <c r="C24" s="442" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="54"/>
@@ -29122,14 +29741,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="26.4">
-      <c r="A25" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B25" s="455" t="s">
+    <row r="25" spans="1:11" ht="25.5">
+      <c r="A25" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="455" t="s">
+      <c r="C25" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="36" t="s">
@@ -29164,14 +29783,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="26.4">
-      <c r="A26" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B26" s="455" t="s">
+    <row r="26" spans="1:11" ht="25.5">
+      <c r="A26" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C26" s="455" t="s">
+      <c r="C26" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="36" t="s">
@@ -29206,14 +29825,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="26.4">
-      <c r="A27" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B27" s="455" t="s">
+    <row r="27" spans="1:11" ht="25.5">
+      <c r="A27" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B27" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="455" t="s">
+      <c r="C27" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -29248,14 +29867,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="26.4">
-      <c r="A28" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B28" s="455" t="s">
+    <row r="28" spans="1:11" ht="25.5">
+      <c r="A28" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="455" t="s">
+      <c r="C28" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="36" t="s">
@@ -29290,14 +29909,14 @@
         <v>51.539140000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="26.4">
-      <c r="A29" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B29" s="455" t="s">
+    <row r="29" spans="1:11" ht="25.5">
+      <c r="A29" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="455" t="s">
+      <c r="C29" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -29332,14 +29951,14 @@
         <v>48.036479999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="26.4">
-      <c r="A30" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B30" s="455" t="s">
+    <row r="30" spans="1:11" ht="25.5">
+      <c r="A30" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="455" t="s">
+      <c r="C30" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="36" t="s">
@@ -29375,13 +29994,13 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="460" t="s">
-        <v>404</v>
+      <c r="A31" s="456" t="s">
+        <v>403</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="447" t="s">
+      <c r="C31" s="443" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="36"/>
@@ -29415,13 +30034,13 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B32" s="457" t="s">
+      <c r="A32" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="457" t="s">
+      <c r="C32" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D32" s="36" t="s">
@@ -29457,13 +30076,13 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="457" t="s">
+      <c r="A33" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="457" t="s">
+      <c r="C33" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D33" s="36" t="s">
@@ -29499,13 +30118,13 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" s="457" t="s">
+      <c r="A34" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="457" t="s">
+      <c r="C34" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D34" s="36" t="s">
@@ -29541,13 +30160,13 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B35" s="457" t="s">
+      <c r="A35" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B35" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="457" t="s">
+      <c r="C35" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D35" s="36" t="s">
@@ -29583,13 +30202,13 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B36" s="456" t="s">
+      <c r="A36" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="456" t="s">
+      <c r="C36" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D36" s="36" t="s">
@@ -29625,13 +30244,13 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B37" s="456" t="s">
+      <c r="A37" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="456" t="s">
+      <c r="C37" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D37" s="36" t="s">
@@ -29667,13 +30286,13 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B38" s="456" t="s">
+      <c r="A38" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B38" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="456" t="s">
+      <c r="C38" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -29709,13 +30328,13 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B39" s="456" t="s">
+      <c r="A39" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39" s="452" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="456" t="s">
+      <c r="C39" s="452" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="36" t="s">
@@ -29751,13 +30370,13 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="460" t="s">
-        <v>404</v>
-      </c>
-      <c r="B40" s="456" t="s">
+      <c r="A40" s="456" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40" s="452" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="456" t="s">
+      <c r="C40" s="452" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="36" t="s">
@@ -29792,15 +30411,15 @@
         <v>0.12842531190288861</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1">
-      <c r="A41" s="462" t="s">
-        <v>404</v>
-      </c>
-      <c r="B41" s="463" t="s">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A41" s="458" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="459" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="463" t="s">
-        <v>401</v>
+      <c r="C41" s="459" t="s">
+        <v>400</v>
       </c>
       <c r="D41" s="171" t="s">
         <v>165</v>
@@ -29835,16 +30454,16 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="466" t="s">
+      <c r="A42" s="462" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="465" t="s">
         <v>405</v>
       </c>
-      <c r="B42" s="469" t="s">
-        <v>406</v>
-      </c>
-      <c r="C42" s="467" t="s">
+      <c r="C42" s="463" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="468"/>
+      <c r="D42" s="464"/>
       <c r="E42" s="20">
         <f>'H2 production UK'!AF37</f>
         <v>0.95</v>
@@ -29875,13 +30494,13 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="460" t="s">
-        <v>405</v>
+      <c r="A43" s="456" t="s">
+        <v>404</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="446" t="s">
+      <c r="C43" s="442" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="54"/>
@@ -29914,14 +30533,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="26.4">
-      <c r="A44" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B44" s="455" t="s">
+    <row r="44" spans="1:11" ht="25.5">
+      <c r="A44" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="455" t="s">
+      <c r="C44" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="36" t="s">
@@ -29956,14 +30575,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="26.4">
-      <c r="A45" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B45" s="455" t="s">
+    <row r="45" spans="1:11" ht="25.5">
+      <c r="A45" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C45" s="455" t="s">
+      <c r="C45" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="36" t="s">
@@ -29998,14 +30617,14 @@
         <v>53.387</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="26.4">
-      <c r="A46" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B46" s="455" t="s">
+    <row r="46" spans="1:11" ht="25.5">
+      <c r="A46" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B46" s="451" t="s">
         <v>378</v>
       </c>
-      <c r="C46" s="455" t="s">
+      <c r="C46" s="451" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="36" t="s">
@@ -30040,14 +30659,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="26.4">
-      <c r="A47" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B47" s="455" t="s">
+    <row r="47" spans="1:11" ht="25.5">
+      <c r="A47" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="455" t="s">
+      <c r="C47" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D47" s="36" t="s">
@@ -30082,14 +30701,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="26.4">
-      <c r="A48" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B48" s="455" t="s">
+    <row r="48" spans="1:11" ht="25.5">
+      <c r="A48" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="455" t="s">
+      <c r="C48" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="36" t="s">
@@ -30124,14 +30743,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="26.4">
-      <c r="A49" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B49" s="455" t="s">
+    <row r="49" spans="1:11" ht="25.5">
+      <c r="A49" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="455" t="s">
+      <c r="C49" s="451" t="s">
         <v>82</v>
       </c>
       <c r="D49" s="36" t="s">
@@ -30167,13 +30786,13 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="460" t="s">
-        <v>405</v>
+      <c r="A50" s="456" t="s">
+        <v>404</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="447" t="s">
+      <c r="C50" s="443" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="36"/>
@@ -30207,13 +30826,13 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B51" s="457" t="s">
+      <c r="A51" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="457" t="s">
+      <c r="C51" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D51" s="36" t="s">
@@ -30249,13 +30868,13 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B52" s="457" t="s">
+      <c r="A52" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="457" t="s">
+      <c r="C52" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D52" s="36" t="s">
@@ -30291,13 +30910,13 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B53" s="457" t="s">
+      <c r="A53" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="457" t="s">
+      <c r="C53" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -30333,13 +30952,13 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B54" s="457" t="s">
+      <c r="A54" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" s="453" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="457" t="s">
+      <c r="C54" s="453" t="s">
         <v>379</v>
       </c>
       <c r="D54" s="36" t="s">
@@ -30375,13 +30994,13 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B55" s="456" t="s">
+      <c r="A55" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B55" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="456" t="s">
+      <c r="C55" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D55" s="36" t="s">
@@ -30417,13 +31036,13 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B56" s="456" t="s">
+      <c r="A56" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="456" t="s">
+      <c r="C56" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D56" s="36" t="s">
@@ -30459,13 +31078,13 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B57" s="456" t="s">
+      <c r="A57" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B57" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="456" t="s">
+      <c r="C57" s="452" t="s">
         <v>380</v>
       </c>
       <c r="D57" s="36" t="s">
@@ -30501,13 +31120,13 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B58" s="456" t="s">
+      <c r="A58" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" s="452" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="456" t="s">
+      <c r="C58" s="452" t="s">
         <v>80</v>
       </c>
       <c r="D58" s="36" t="s">
@@ -30543,13 +31162,13 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="460" t="s">
-        <v>405</v>
-      </c>
-      <c r="B59" s="456" t="s">
+      <c r="A59" s="456" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" s="452" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="456" t="s">
+      <c r="C59" s="452" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="36" t="s">
@@ -30584,15 +31203,15 @@
         <v>4.4284590311340901E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1">
-      <c r="A60" s="462" t="s">
-        <v>405</v>
-      </c>
-      <c r="B60" s="463" t="s">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A60" s="458" t="s">
+        <v>404</v>
+      </c>
+      <c r="B60" s="459" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="463" t="s">
-        <v>401</v>
+      <c r="C60" s="459" t="s">
+        <v>400</v>
       </c>
       <c r="D60" s="171" t="s">
         <v>165</v>
@@ -30631,110 +31250,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFC9A2-5CA9-43A8-90DC-EC81B9F357D1}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2">
-      <c r="A3" s="439" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="448" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="448" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="449" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="450">
-        <f>Liquefaction!A15</f>
-        <v>6.6234460426675756</v>
-      </c>
-      <c r="C4" s="450">
-        <f>Liquefaction!C15</f>
-        <v>898.71175410670628</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="450">
-        <f>Liquefaction!A16</f>
-        <v>7.5419409122863197</v>
-      </c>
-      <c r="C5" s="450">
-        <f>Liquefaction!C16</f>
-        <v>1457.3319410253862</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="451">
-        <f>Liquefaction!A17</f>
-        <v>11.05947017021135</v>
-      </c>
-      <c r="C6" s="451">
-        <f>Liquefaction!C17</f>
-        <v>2248.1722603411317</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/aeromaps/resources/cost_data/Hydrogen_based_process.xlsx
+++ b/aeromaps/resources/cost_data/Hydrogen_based_process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\PycharmProjects\AeroMAPS\aeromaps\resources\cost_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74A702-3690-4776-9F67-684FBF2E7665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBD9DC-BA55-4C33-9E46-C96336BC0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{B45625C8-2EFE-4B2D-B717-182BE33C0328}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="858" xr2:uid="{B45625C8-2EFE-4B2D-B717-182BE33C0328}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="9" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="441">
   <si>
     <t>LAX</t>
   </si>
@@ -1177,9 +1177,6 @@
     <t>Emission factor (pessimistic) (gCO2e/kWh)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lf très complexes à determiner avec ces scénarios maison: pas de prise en compte de backup par ex ==&gt; Scénarios RTE plus intéressant </t>
-  </si>
-  <si>
     <t>https://ec.europa.eu/eurostat/databrowser/view/nrg_pc_205/default/line?lang=en</t>
   </si>
   <si>
@@ -1333,9 +1330,6 @@
     <t>LCOE €2020/MWh</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Reference year =2014</t>
   </si>
   <si>
@@ -1424,6 +1418,12 @@
   </si>
   <si>
     <t>All values converted using 2020 eur/usd exchnage rate</t>
+  </si>
+  <si>
+    <t>([6]+[7])</t>
+  </si>
+  <si>
+    <t>LF</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -2880,6 +2880,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2955,7 +2992,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -4122,35 +4159,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4163,6 +4200,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4199,18 +4248,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Comma" xfId="8" xr:uid="{B1BAFA18-809C-4884-A413-D551260DC175}"/>
@@ -9730,10 +9773,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A4:O163"/>
+  <dimension ref="A4:O160"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12013,7 +12056,10 @@
         <v>332</v>
       </c>
       <c r="F103" s="404" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="G103" s="520" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -12035,6 +12081,10 @@
       <c r="F104" s="404">
         <v>23469</v>
       </c>
+      <c r="G104" s="517">
+        <v>13</v>
+      </c>
+      <c r="H104" s="280"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="419" t="s">
@@ -12055,6 +12105,9 @@
       <c r="F105" s="308">
         <v>23469</v>
       </c>
+      <c r="G105" s="517">
+        <v>13</v>
+      </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="419" t="s">
@@ -12076,6 +12129,9 @@
       <c r="F106" s="308">
         <v>23469</v>
       </c>
+      <c r="G106" s="517">
+        <v>14</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="419" t="s">
@@ -12097,6 +12153,9 @@
       <c r="F107" s="308">
         <v>23469</v>
       </c>
+      <c r="G107" s="517">
+        <v>14</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="419" t="s">
@@ -12118,6 +12177,7 @@
       <c r="F108" s="308">
         <v>23469</v>
       </c>
+      <c r="G108" s="517"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="419" t="s">
@@ -12139,6 +12199,7 @@
       <c r="F109" s="308">
         <v>23469</v>
       </c>
+      <c r="G109" s="517"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="419" t="s">
@@ -12159,6 +12220,9 @@
       <c r="F110" s="308">
         <v>23469</v>
       </c>
+      <c r="G110" s="517">
+        <v>14</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1">
       <c r="A111" s="420" t="s">
@@ -12179,6 +12243,9 @@
       <c r="F111" s="308">
         <v>23469</v>
       </c>
+      <c r="G111" s="517">
+        <v>14</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="418" t="s">
@@ -12199,6 +12266,9 @@
       <c r="F112" s="404">
         <v>24785</v>
       </c>
+      <c r="G112" s="516">
+        <v>40</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="419" t="s">
@@ -12219,6 +12289,9 @@
       <c r="F113" s="308">
         <v>24785</v>
       </c>
+      <c r="G113" s="518">
+        <v>40</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="419" t="s">
@@ -12239,6 +12312,9 @@
       <c r="F114" s="308">
         <v>24785</v>
       </c>
+      <c r="G114" s="518">
+        <v>43</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="419" t="s">
@@ -12259,6 +12335,9 @@
       <c r="F115" s="308">
         <v>24785</v>
       </c>
+      <c r="G115" s="518">
+        <v>43</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="419" t="s">
@@ -12279,6 +12358,7 @@
       <c r="F116" s="308">
         <v>24785</v>
       </c>
+      <c r="G116" s="517"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="419" t="s">
@@ -12299,6 +12379,7 @@
       <c r="F117" s="308">
         <v>24785</v>
       </c>
+      <c r="G117" s="517"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="419" t="s">
@@ -12319,6 +12400,9 @@
       <c r="F118" s="308">
         <v>24785</v>
       </c>
+      <c r="G118" s="518">
+        <v>45</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" thickBot="1">
       <c r="A119" s="420" t="s">
@@ -12339,6 +12423,9 @@
       <c r="F119" s="308">
         <v>24785</v>
       </c>
+      <c r="G119" s="519">
+        <v>45</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="411" t="s">
@@ -12359,9 +12446,6 @@
       <c r="F120" s="412">
         <v>62333</v>
       </c>
-      <c r="G120" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="413" t="s">
@@ -12846,7 +12930,7 @@
       </c>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:9">
       <c r="A145" s="426" t="s">
         <v>349</v>
       </c>
@@ -12867,7 +12951,7 @@
       </c>
       <c r="G145" s="20"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:9">
       <c r="A146" s="427" t="s">
         <v>350</v>
       </c>
@@ -12888,7 +12972,7 @@
       </c>
       <c r="G146" s="20"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" thickBot="1">
+    <row r="147" spans="1:9" ht="15.75" thickBot="1">
       <c r="A147" s="429" t="s">
         <v>351</v>
       </c>
@@ -12908,14 +12992,14 @@
         <v>71164</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" thickBot="1">
+    <row r="150" spans="1:9" ht="15.75" thickBot="1">
       <c r="A150" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B151" s="17">
         <v>2019</v>
@@ -12929,15 +13013,15 @@
         <v>80.591918042117257</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G151" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="19" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="19" t="s">
-        <v>408</v>
       </c>
       <c r="B152" s="20">
         <v>2019</v>
@@ -12952,12 +13036,12 @@
       </c>
       <c r="F152" s="21"/>
       <c r="G152" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" thickBot="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" thickBot="1">
       <c r="A153" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B153" s="23">
         <v>2019</v>
@@ -12971,30 +13055,33 @@
         <v>61.163509228392542</v>
       </c>
       <c r="F153" s="24"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="280" t="s">
-        <v>410</v>
-      </c>
-      <c r="B154" s="280">
-        <v>2019</v>
-      </c>
-      <c r="E154">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="G153" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="280"/>
+      <c r="B154" s="280"/>
+    </row>
+    <row r="156" spans="1:9">
       <c r="C156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="4:4">
-      <c r="D163" t="s">
-        <v>144</v>
-      </c>
+    <row r="160" spans="1:9">
+      <c r="B160" s="515"/>
+      <c r="C160" s="515"/>
+      <c r="D160" s="514"/>
+      <c r="E160" s="514"/>
+      <c r="F160" s="515"/>
+      <c r="G160" s="515"/>
+      <c r="H160" s="514"/>
+      <c r="I160" s="514"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="H160:I160"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A7:A11"/>
@@ -13035,7 +13122,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -13046,7 +13133,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="444" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" s="445" t="s">
         <v>340</v>
@@ -13143,7 +13230,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2" s="280"/>
       <c r="C2" s="280"/>
@@ -13154,22 +13241,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>395</v>
-      </c>
       <c r="F3" s="454" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G3" s="280"/>
     </row>
@@ -13786,7 +13873,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -13818,7 +13905,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -13975,7 +14062,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
         <v>163</v>
@@ -14007,7 +14094,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -14039,7 +14126,7 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -14071,7 +14158,7 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
         <v>238</v>
@@ -14103,7 +14190,7 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
         <v>163</v>
@@ -14135,7 +14222,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -14167,7 +14254,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -14263,7 +14350,7 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -14302,8 +14389,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14312,10 +14399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="508" t="s">
+      <c r="A1" s="512" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="508"/>
+      <c r="B1" s="512"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -14326,10 +14413,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="21">
-      <c r="A5" s="508" t="s">
+      <c r="A5" s="512" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="508"/>
+      <c r="B5" s="512"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -14352,7 +14439,7 @@
         <v>216</v>
       </c>
       <c r="B8" s="291" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -14360,14 +14447,14 @@
         <v>224</v>
       </c>
       <c r="B9" s="291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
-      <c r="A18" s="508" t="s">
+      <c r="A18" s="512" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="508"/>
+      <c r="B18" s="512"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
@@ -14425,17 +14512,17 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" s="291" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
-      <c r="A29" s="508" t="s">
+      <c r="A29" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="508" t="s">
+      <c r="B29" s="512" t="s">
         <v>153</v>
       </c>
     </row>
@@ -14443,11 +14530,11 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="509" t="s">
+      <c r="B30" s="513" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="510"/>
-      <c r="D30" s="510"/>
+      <c r="C30" s="514"/>
+      <c r="D30" s="514"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
@@ -14470,7 +14557,7 @@
         <v>224</v>
       </c>
       <c r="B33" s="291" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -14478,37 +14565,37 @@
         <v>225</v>
       </c>
       <c r="B34" s="291" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>235</v>
       </c>
-      <c r="B35" t="s">
-        <v>362</v>
+      <c r="B35" s="291" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B36" t="s">
         <v>364</v>
       </c>
-      <c r="B36" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="40" spans="1:2" ht="21">
-      <c r="A40" s="508" t="s">
-        <v>427</v>
-      </c>
-      <c r="B40" s="508"/>
+      <c r="A40" s="512" t="s">
+        <v>425</v>
+      </c>
+      <c r="B40" s="512"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="291" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -14516,7 +14603,7 @@
         <v>241</v>
       </c>
       <c r="B42" s="291" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -14524,7 +14611,7 @@
         <v>216</v>
       </c>
       <c r="B43" s="291" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -14532,7 +14619,7 @@
         <v>224</v>
       </c>
       <c r="B44" s="291" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -14540,7 +14627,7 @@
         <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -14570,9 +14657,10 @@
     <hyperlink ref="B41" r:id="rId15" display="https://www.nature.com/articles/s41558-021-01032-7" xr:uid="{6A34D3F8-3CC7-4ED7-A65C-F770921320C7}"/>
     <hyperlink ref="B43" r:id="rId16" location="sec3" xr:uid="{61A657FD-D482-4606-8C11-14C9D6C7F16F}"/>
     <hyperlink ref="B44" r:id="rId17" xr:uid="{56967096-A0E3-4E0F-86D6-5AFC2E31A69B}"/>
+    <hyperlink ref="B35" r:id="rId18" xr:uid="{C654A93D-1526-4072-BD49-51DE65B5DD53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -14605,7 +14693,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B2">
         <v>460</v>
@@ -14617,7 +14705,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14629,7 +14717,7 @@
         <v>299.12280701754389</v>
       </c>
       <c r="F3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -14649,12 +14737,12 @@
         <v>87.719298245614041</v>
       </c>
       <c r="F4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B5">
         <f>600/Monetary!$V$4</f>
@@ -14665,12 +14753,12 @@
         <v>87.719298245614041</v>
       </c>
       <c r="F5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B6">
         <f>1000/Monetary!$V$4</f>
@@ -14681,12 +14769,12 @@
         <v>263.15789473684214</v>
       </c>
       <c r="F6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -14702,7 +14790,7 @@
   </sheetPr>
   <dimension ref="A1:CX79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
@@ -14723,7 +14811,7 @@
   <sheetData>
     <row r="1" spans="1:102" ht="13.5" thickBot="1">
       <c r="A1" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q1" s="28"/>
     </row>
@@ -15806,10 +15894,10 @@
       <c r="CX6" s="68"/>
     </row>
     <row r="7" spans="1:102">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="485" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="488" t="s">
+      <c r="B7" s="494" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -15926,8 +16014,8 @@
       <c r="CX7" s="68"/>
     </row>
     <row r="8" spans="1:102">
-      <c r="A8" s="485"/>
-      <c r="B8" s="488"/>
+      <c r="A8" s="486"/>
+      <c r="B8" s="494"/>
       <c r="C8" s="36" t="s">
         <v>52</v>
       </c>
@@ -16142,8 +16230,8 @@
       <c r="CX8" s="68"/>
     </row>
     <row r="9" spans="1:102">
-      <c r="A9" s="485"/>
-      <c r="B9" s="488"/>
+      <c r="A9" s="486"/>
+      <c r="B9" s="494"/>
       <c r="C9" s="36" t="s">
         <v>53</v>
       </c>
@@ -16258,10 +16346,10 @@
       <c r="CX9" s="68"/>
     </row>
     <row r="10" spans="1:102">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="485" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="488" t="s">
+      <c r="B10" s="494" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -16406,8 +16494,8 @@
       <c r="CX10" s="68"/>
     </row>
     <row r="11" spans="1:102">
-      <c r="A11" s="487"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="487"/>
       <c r="C11" s="36" t="s">
         <v>52</v>
       </c>
@@ -16602,8 +16690,8 @@
       <c r="CX11" s="68"/>
     </row>
     <row r="12" spans="1:102">
-      <c r="A12" s="487"/>
-      <c r="B12" s="486"/>
+      <c r="A12" s="485"/>
+      <c r="B12" s="487"/>
       <c r="C12" s="36" t="s">
         <v>53</v>
       </c>
@@ -16992,10 +17080,10 @@
       <c r="CX13" s="121"/>
     </row>
     <row r="14" spans="1:102">
-      <c r="A14" s="485" t="s">
+      <c r="A14" s="486" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="486" t="s">
+      <c r="B14" s="487" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -17144,8 +17232,8 @@
       <c r="CX14" s="51"/>
     </row>
     <row r="15" spans="1:102">
-      <c r="A15" s="485"/>
-      <c r="B15" s="486"/>
+      <c r="A15" s="486"/>
+      <c r="B15" s="487"/>
       <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
@@ -17392,8 +17480,8 @@
       <c r="CX15" s="29"/>
     </row>
     <row r="16" spans="1:102">
-      <c r="A16" s="485"/>
-      <c r="B16" s="486"/>
+      <c r="A16" s="486"/>
+      <c r="B16" s="487"/>
       <c r="C16" s="36" t="s">
         <v>53</v>
       </c>
@@ -17786,7 +17874,7 @@
       <c r="CX17" s="51"/>
     </row>
     <row r="18" spans="1:102">
-      <c r="A18" s="487" t="s">
+      <c r="A18" s="485" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -18038,7 +18126,7 @@
       <c r="CX18" s="138"/>
     </row>
     <row r="19" spans="1:102">
-      <c r="A19" s="487"/>
+      <c r="A19" s="485"/>
       <c r="B19" s="35" t="s">
         <v>47</v>
       </c>
@@ -18288,7 +18376,7 @@
       <c r="CX19" s="138"/>
     </row>
     <row r="20" spans="1:102">
-      <c r="A20" s="487"/>
+      <c r="A20" s="485"/>
       <c r="B20" s="35" t="s">
         <v>47</v>
       </c>
@@ -18538,10 +18626,10 @@
       <c r="CX20" s="138"/>
     </row>
     <row r="21" spans="1:102" s="140" customFormat="1">
-      <c r="A21" s="485" t="s">
+      <c r="A21" s="486" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="486" t="s">
+      <c r="B21" s="487" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -18690,8 +18778,8 @@
       <c r="CX21" s="51"/>
     </row>
     <row r="22" spans="1:102" s="140" customFormat="1">
-      <c r="A22" s="485"/>
-      <c r="B22" s="486"/>
+      <c r="A22" s="486"/>
+      <c r="B22" s="487"/>
       <c r="C22" s="36" t="s">
         <v>52</v>
       </c>
@@ -18936,8 +19024,8 @@
       <c r="CV22" s="51"/>
     </row>
     <row r="23" spans="1:102" s="140" customFormat="1">
-      <c r="A23" s="485"/>
-      <c r="B23" s="486"/>
+      <c r="A23" s="486"/>
+      <c r="B23" s="487"/>
       <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
@@ -19084,10 +19172,10 @@
       <c r="CX23" s="51"/>
     </row>
     <row r="24" spans="1:102">
-      <c r="A24" s="485" t="s">
+      <c r="A24" s="486" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="486" t="s">
+      <c r="B24" s="487" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -19232,8 +19320,8 @@
       <c r="CX24" s="51"/>
     </row>
     <row r="25" spans="1:102">
-      <c r="A25" s="485"/>
-      <c r="B25" s="486"/>
+      <c r="A25" s="486"/>
+      <c r="B25" s="487"/>
       <c r="C25" s="36" t="s">
         <v>52</v>
       </c>
@@ -19477,8 +19565,8 @@
       <c r="CX25" s="51"/>
     </row>
     <row r="26" spans="1:102">
-      <c r="A26" s="485"/>
-      <c r="B26" s="486"/>
+      <c r="A26" s="486"/>
+      <c r="B26" s="487"/>
       <c r="C26" s="36" t="s">
         <v>53</v>
       </c>
@@ -20678,10 +20766,10 @@
       <c r="CA38" s="192"/>
     </row>
     <row r="39" spans="1:79">
-      <c r="A39" s="487" t="s">
+      <c r="A39" s="485" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="488" t="s">
+      <c r="B39" s="494" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -20786,8 +20874,8 @@
       <c r="CA39" s="192"/>
     </row>
     <row r="40" spans="1:79">
-      <c r="A40" s="485"/>
-      <c r="B40" s="488"/>
+      <c r="A40" s="486"/>
+      <c r="B40" s="494"/>
       <c r="C40" s="36" t="s">
         <v>52</v>
       </c>
@@ -20932,8 +21020,8 @@
       <c r="CA40" s="192"/>
     </row>
     <row r="41" spans="1:79">
-      <c r="A41" s="485"/>
-      <c r="B41" s="488"/>
+      <c r="A41" s="486"/>
+      <c r="B41" s="494"/>
       <c r="C41" s="36" t="s">
         <v>53</v>
       </c>
@@ -21036,10 +21124,10 @@
       <c r="CA41" s="192"/>
     </row>
     <row r="42" spans="1:79">
-      <c r="A42" s="487" t="s">
+      <c r="A42" s="485" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="488" t="s">
+      <c r="B42" s="494" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -21186,8 +21274,8 @@
       <c r="CA42" s="192"/>
     </row>
     <row r="43" spans="1:79">
-      <c r="A43" s="487"/>
-      <c r="B43" s="486"/>
+      <c r="A43" s="485"/>
+      <c r="B43" s="487"/>
       <c r="C43" s="36" t="s">
         <v>52</v>
       </c>
@@ -21332,8 +21420,8 @@
       <c r="CA43" s="192"/>
     </row>
     <row r="44" spans="1:79">
-      <c r="A44" s="487"/>
-      <c r="B44" s="486"/>
+      <c r="A44" s="485"/>
+      <c r="B44" s="487"/>
       <c r="C44" s="36" t="s">
         <v>53</v>
       </c>
@@ -21633,10 +21721,10 @@
       <c r="CA45" s="192"/>
     </row>
     <row r="46" spans="1:79">
-      <c r="A46" s="489" t="s">
+      <c r="A46" s="488" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="492" t="s">
+      <c r="B46" s="491" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -21783,8 +21871,8 @@
       <c r="CA46" s="192"/>
     </row>
     <row r="47" spans="1:79">
-      <c r="A47" s="490"/>
-      <c r="B47" s="493"/>
+      <c r="A47" s="489"/>
+      <c r="B47" s="492"/>
       <c r="C47" s="36" t="s">
         <v>52</v>
       </c>
@@ -21971,8 +22059,8 @@
       <c r="CA47" s="192"/>
     </row>
     <row r="48" spans="1:79">
-      <c r="A48" s="490"/>
-      <c r="B48" s="493"/>
+      <c r="A48" s="489"/>
+      <c r="B48" s="492"/>
       <c r="C48" s="36" t="s">
         <v>239</v>
       </c>
@@ -22117,8 +22205,8 @@
       <c r="CA48" s="192"/>
     </row>
     <row r="49" spans="1:79">
-      <c r="A49" s="491"/>
-      <c r="B49" s="494"/>
+      <c r="A49" s="490"/>
+      <c r="B49" s="493"/>
       <c r="C49" s="36" t="s">
         <v>238</v>
       </c>
@@ -22397,7 +22485,7 @@
       <c r="CA50" s="192"/>
     </row>
     <row r="51" spans="1:79">
-      <c r="A51" s="487" t="s">
+      <c r="A51" s="485" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="35" t="s">
@@ -22554,7 +22642,7 @@
       <c r="CA51" s="192"/>
     </row>
     <row r="52" spans="1:79">
-      <c r="A52" s="487"/>
+      <c r="A52" s="485"/>
       <c r="B52" s="35" t="s">
         <v>47</v>
       </c>
@@ -22709,7 +22797,7 @@
       <c r="CA52" s="192"/>
     </row>
     <row r="53" spans="1:79">
-      <c r="A53" s="487"/>
+      <c r="A53" s="485"/>
       <c r="B53" s="35" t="s">
         <v>47</v>
       </c>
@@ -22864,10 +22952,10 @@
       <c r="CA53" s="192"/>
     </row>
     <row r="54" spans="1:79">
-      <c r="A54" s="485" t="s">
+      <c r="A54" s="486" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="486" t="s">
+      <c r="B54" s="487" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -23014,8 +23102,8 @@
       <c r="CA54" s="192"/>
     </row>
     <row r="55" spans="1:79">
-      <c r="A55" s="485"/>
-      <c r="B55" s="486"/>
+      <c r="A55" s="486"/>
+      <c r="B55" s="487"/>
       <c r="C55" s="36" t="s">
         <v>52</v>
       </c>
@@ -23202,8 +23290,8 @@
       <c r="CA55" s="192"/>
     </row>
     <row r="56" spans="1:79">
-      <c r="A56" s="485"/>
-      <c r="B56" s="486"/>
+      <c r="A56" s="486"/>
+      <c r="B56" s="487"/>
       <c r="C56" s="36" t="s">
         <v>53</v>
       </c>
@@ -23348,10 +23436,10 @@
       <c r="CA56" s="192"/>
     </row>
     <row r="57" spans="1:79">
-      <c r="A57" s="485" t="s">
+      <c r="A57" s="486" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="486" t="s">
+      <c r="B57" s="487" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -23498,8 +23586,8 @@
       <c r="CA57" s="192"/>
     </row>
     <row r="58" spans="1:79">
-      <c r="A58" s="485"/>
-      <c r="B58" s="486"/>
+      <c r="A58" s="486"/>
+      <c r="B58" s="487"/>
       <c r="C58" s="36" t="s">
         <v>52</v>
       </c>
@@ -23686,8 +23774,8 @@
       <c r="CA58" s="192"/>
     </row>
     <row r="59" spans="1:79">
-      <c r="A59" s="485"/>
-      <c r="B59" s="486"/>
+      <c r="A59" s="486"/>
+      <c r="B59" s="487"/>
       <c r="C59" s="36" t="s">
         <v>53</v>
       </c>
@@ -24282,24 +24370,11 @@
     </row>
     <row r="79" spans="1:79">
       <c r="A79" s="450" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:A9"/>
@@ -24309,6 +24384,19 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24395,8 +24483,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="485"/>
-      <c r="B6" s="486"/>
+      <c r="A6" s="486"/>
+      <c r="B6" s="487"/>
       <c r="C6" s="263" t="s">
         <v>52</v>
       </c>
@@ -24430,8 +24518,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="485"/>
-      <c r="B7" s="486"/>
+      <c r="A7" s="486"/>
+      <c r="B7" s="487"/>
       <c r="C7" s="263" t="s">
         <v>53</v>
       </c>
@@ -24465,8 +24553,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="485"/>
-      <c r="B8" s="486"/>
+      <c r="A8" s="486"/>
+      <c r="B8" s="487"/>
       <c r="C8" s="264" t="s">
         <v>93</v>
       </c>
@@ -24532,8 +24620,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="485"/>
-      <c r="B10" s="486"/>
+      <c r="A10" s="486"/>
+      <c r="B10" s="487"/>
       <c r="C10" s="263" t="s">
         <v>52</v>
       </c>
@@ -24567,8 +24655,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="486"/>
+      <c r="B11" s="487"/>
       <c r="C11" s="263" t="s">
         <v>53</v>
       </c>
@@ -24671,7 +24759,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>21</v>
@@ -25237,7 +25325,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L14">
         <f>0.25*L2</f>
@@ -25366,7 +25454,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -25389,7 +25477,7 @@
   </sheetPr>
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="D6" zoomScale="89" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
@@ -25425,7 +25513,7 @@
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -25472,20 +25560,20 @@
       <c r="C6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="513" t="s">
+      <c r="K6" s="501" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="514"/>
-      <c r="M6" s="514"/>
-      <c r="N6" s="514"/>
-      <c r="O6" s="514"/>
-      <c r="P6" s="514"/>
-      <c r="Q6" s="514"/>
-      <c r="R6" s="514"/>
-      <c r="S6" s="514"/>
-      <c r="T6" s="514"/>
-      <c r="U6" s="514"/>
-      <c r="V6" s="514"/>
+      <c r="L6" s="502"/>
+      <c r="M6" s="502"/>
+      <c r="N6" s="502"/>
+      <c r="O6" s="502"/>
+      <c r="P6" s="502"/>
+      <c r="Q6" s="502"/>
+      <c r="R6" s="502"/>
+      <c r="S6" s="502"/>
+      <c r="T6" s="502"/>
+      <c r="U6" s="502"/>
+      <c r="V6" s="502"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="19" t="s">
@@ -25573,13 +25661,13 @@
         <v>229</v>
       </c>
       <c r="T8" s="280" t="s">
+        <v>418</v>
+      </c>
+      <c r="U8" s="280" t="s">
+        <v>419</v>
+      </c>
+      <c r="V8" s="308" t="s">
         <v>420</v>
-      </c>
-      <c r="U8" s="280" t="s">
-        <v>421</v>
-      </c>
-      <c r="V8" s="308" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -26016,20 +26104,20 @@
         <v>152</v>
       </c>
       <c r="H19" s="21"/>
-      <c r="K19" s="511" t="s">
+      <c r="K19" s="499" t="s">
         <v>231</v>
       </c>
-      <c r="L19" s="512"/>
-      <c r="M19" s="512"/>
-      <c r="N19" s="512"/>
-      <c r="O19" s="512"/>
-      <c r="P19" s="512"/>
-      <c r="Q19" s="512"/>
-      <c r="R19" s="512"/>
-      <c r="S19" s="512"/>
-      <c r="T19" s="512"/>
-      <c r="U19" s="512"/>
-      <c r="V19" s="512"/>
+      <c r="L19" s="500"/>
+      <c r="M19" s="500"/>
+      <c r="N19" s="500"/>
+      <c r="O19" s="500"/>
+      <c r="P19" s="500"/>
+      <c r="Q19" s="500"/>
+      <c r="R19" s="500"/>
+      <c r="S19" s="500"/>
+      <c r="T19" s="500"/>
+      <c r="U19" s="500"/>
+      <c r="V19" s="500"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" thickBot="1">
       <c r="F20" s="19" t="s">
@@ -26115,13 +26203,13 @@
         <v>229</v>
       </c>
       <c r="T21" s="311" t="s">
+        <v>418</v>
+      </c>
+      <c r="U21" s="311" t="s">
+        <v>419</v>
+      </c>
+      <c r="V21" s="311" t="s">
         <v>420</v>
-      </c>
-      <c r="U21" s="311" t="s">
-        <v>421</v>
-      </c>
-      <c r="V21" s="311" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -26433,10 +26521,10 @@
       </c>
       <c r="C28" s="285"/>
       <c r="K28" s="315" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L28" s="311" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M28" s="311">
         <f>M26/(365*0.9)+M27</f>
@@ -26612,7 +26700,7 @@
         <v>112</v>
       </c>
       <c r="K33" s="280" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -26636,7 +26724,7 @@
         <v>162</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>123</v>
@@ -26648,7 +26736,7 @@
         <v>58</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -26692,7 +26780,7 @@
         <v>45</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O39" s="446">
         <f>_xlfn.QUARTILE.EXC((M22,O22,R22,S22),2)</f>
@@ -26761,7 +26849,7 @@
         <v>140</v>
       </c>
       <c r="N42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -26784,7 +26872,7 @@
       </c>
       <c r="C44" s="285"/>
       <c r="N44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -26796,7 +26884,7 @@
         <v>143</v>
       </c>
       <c r="N45" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -27443,7 +27531,7 @@
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1">
       <c r="A98" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B98" s="20">
         <f>1100</f>
@@ -27461,7 +27549,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B99" s="20">
         <f>B98/(24*3.6/43)</f>
@@ -27478,7 +27566,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B100" s="20">
         <v>800</v>
@@ -27492,7 +27580,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B101" s="20">
         <f>B100/(24*3.6/43)</f>
@@ -27509,7 +27597,7 @@
     </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1">
       <c r="A102" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B102" s="23">
         <f>B99+B101</f>
@@ -27526,7 +27614,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -27534,7 +27622,7 @@
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1">
       <c r="A104" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B104" s="23">
         <v>460</v>
@@ -27774,8 +27862,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27787,35 +27875,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="499" t="s">
+      <c r="A1" s="503" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="500"/>
-      <c r="C1" s="500"/>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="501"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="505"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="502"/>
-      <c r="B2" s="503"/>
-      <c r="C2" s="503"/>
-      <c r="D2" s="503"/>
-      <c r="E2" s="503"/>
-      <c r="F2" s="503"/>
-      <c r="G2" s="504"/>
+      <c r="A2" s="506"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="508"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="505" t="s">
-        <v>372</v>
-      </c>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="507"/>
+      <c r="A3" s="509" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="510"/>
+      <c r="C3" s="510"/>
+      <c r="D3" s="510"/>
+      <c r="E3" s="510"/>
+      <c r="F3" s="510"/>
+      <c r="G3" s="511"/>
     </row>
     <row r="4" spans="1:8" ht="60.75" thickBot="1">
       <c r="A4" s="431" t="s">
@@ -27831,18 +27919,18 @@
         <v>355</v>
       </c>
       <c r="E4" s="432" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" s="432" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="434" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="435" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -27941,7 +28029,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="436" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -27979,7 +28067,7 @@
         <v>23469</v>
       </c>
       <c r="H10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -28011,7 +28099,7 @@
         <v>23469</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -28043,7 +28131,7 @@
         <v>23469</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -28452,7 +28540,7 @@
         <v>71164</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -28832,7 +28920,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C3" s="440" t="s">
         <v>35</v>
@@ -28871,10 +28959,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="465" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C4" s="442" t="s">
         <v>47</v>
@@ -28911,7 +28999,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>48</v>
@@ -28951,10 +29039,10 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="451" t="s">
         <v>81</v>
@@ -28993,10 +29081,10 @@
     </row>
     <row r="7" spans="1:11" ht="25.5">
       <c r="A7" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="451" t="s">
         <v>81</v>
@@ -29035,10 +29123,10 @@
     </row>
     <row r="8" spans="1:11" ht="25.5">
       <c r="A8" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="451" t="s">
         <v>81</v>
@@ -29077,7 +29165,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="451" t="s">
         <v>124</v>
@@ -29119,7 +29207,7 @@
     </row>
     <row r="10" spans="1:11" ht="25.5">
       <c r="A10" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="451" t="s">
         <v>124</v>
@@ -29161,7 +29249,7 @@
     </row>
     <row r="11" spans="1:11" ht="25.5">
       <c r="A11" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="451" t="s">
         <v>124</v>
@@ -29203,7 +29291,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>56</v>
@@ -29243,13 +29331,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>163</v>
@@ -29285,13 +29373,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>52</v>
@@ -29327,13 +29415,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>165</v>
@@ -29369,13 +29457,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>238</v>
@@ -29411,13 +29499,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>163</v>
@@ -29453,13 +29541,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>52</v>
@@ -29495,13 +29583,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>165</v>
@@ -29537,7 +29625,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" s="452" t="s">
         <v>67</v>
@@ -29579,7 +29667,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B21" s="452" t="s">
         <v>67</v>
@@ -29621,13 +29709,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="460" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="453" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="453" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D22" s="461" t="s">
         <v>165</v>
@@ -29663,10 +29751,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="455" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B23" s="465" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C23" s="466" t="s">
         <v>47</v>
@@ -29703,7 +29791,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>48</v>
@@ -29743,10 +29831,10 @@
     </row>
     <row r="25" spans="1:11" ht="25.5">
       <c r="A25" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B25" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" s="451" t="s">
         <v>81</v>
@@ -29785,10 +29873,10 @@
     </row>
     <row r="26" spans="1:11" ht="25.5">
       <c r="A26" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B26" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" s="451" t="s">
         <v>81</v>
@@ -29827,10 +29915,10 @@
     </row>
     <row r="27" spans="1:11" ht="25.5">
       <c r="A27" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B27" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="451" t="s">
         <v>81</v>
@@ -29869,7 +29957,7 @@
     </row>
     <row r="28" spans="1:11" ht="25.5">
       <c r="A28" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" s="451" t="s">
         <v>124</v>
@@ -29911,7 +29999,7 @@
     </row>
     <row r="29" spans="1:11" ht="25.5">
       <c r="A29" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29" s="451" t="s">
         <v>124</v>
@@ -29953,7 +30041,7 @@
     </row>
     <row r="30" spans="1:11" ht="25.5">
       <c r="A30" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" s="451" t="s">
         <v>124</v>
@@ -29995,7 +30083,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>56</v>
@@ -30035,13 +30123,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B32" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>163</v>
@@ -30077,13 +30165,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B33" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>52</v>
@@ -30119,13 +30207,13 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>165</v>
@@ -30161,13 +30249,13 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B35" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>238</v>
@@ -30203,13 +30291,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B36" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>163</v>
@@ -30245,13 +30333,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B37" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>52</v>
@@ -30287,13 +30375,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B38" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>165</v>
@@ -30329,7 +30417,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B39" s="452" t="s">
         <v>67</v>
@@ -30371,7 +30459,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="456" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B40" s="452" t="s">
         <v>67</v>
@@ -30413,13 +30501,13 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="458" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B41" s="459" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="459" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D41" s="171" t="s">
         <v>165</v>
@@ -30455,10 +30543,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="462" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42" s="465" t="s">
         <v>404</v>
-      </c>
-      <c r="B42" s="465" t="s">
-        <v>405</v>
       </c>
       <c r="C42" s="463" t="s">
         <v>47</v>
@@ -30495,7 +30583,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>48</v>
@@ -30535,10 +30623,10 @@
     </row>
     <row r="44" spans="1:11" ht="25.5">
       <c r="A44" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B44" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="451" t="s">
         <v>81</v>
@@ -30577,10 +30665,10 @@
     </row>
     <row r="45" spans="1:11" ht="25.5">
       <c r="A45" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B45" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="451" t="s">
         <v>81</v>
@@ -30619,10 +30707,10 @@
     </row>
     <row r="46" spans="1:11" ht="25.5">
       <c r="A46" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B46" s="451" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="451" t="s">
         <v>81</v>
@@ -30661,7 +30749,7 @@
     </row>
     <row r="47" spans="1:11" ht="25.5">
       <c r="A47" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="451" t="s">
         <v>124</v>
@@ -30703,7 +30791,7 @@
     </row>
     <row r="48" spans="1:11" ht="25.5">
       <c r="A48" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" s="451" t="s">
         <v>124</v>
@@ -30745,7 +30833,7 @@
     </row>
     <row r="49" spans="1:11" ht="25.5">
       <c r="A49" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" s="451" t="s">
         <v>124</v>
@@ -30787,7 +30875,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>56</v>
@@ -30827,13 +30915,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B51" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>163</v>
@@ -30869,13 +30957,13 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B52" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>52</v>
@@ -30911,13 +30999,13 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>165</v>
@@ -30953,13 +31041,13 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" s="453" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="453" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>238</v>
@@ -30995,13 +31083,13 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>163</v>
@@ -31037,13 +31125,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>52</v>
@@ -31079,13 +31167,13 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" s="452" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>165</v>
@@ -31121,7 +31209,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" s="452" t="s">
         <v>67</v>
@@ -31163,7 +31251,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B59" s="452" t="s">
         <v>67</v>
@@ -31205,13 +31293,13 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1">
       <c r="A60" s="458" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B60" s="459" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="459" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D60" s="171" t="s">
         <v>165</v>
